--- a/Results/Vision_XYZ.xlsx
+++ b/Results/Vision_XYZ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,181 +446,3933 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>y</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.668930053710938e-06</v>
+        <v>2.384185791015625e-06</v>
       </c>
       <c r="B2" t="n">
-        <v>0.001124642563640942</v>
+        <v>-0.06742934275816391</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.001642964220532367</v>
+        <v>-0.05167863002699732</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0007902899598088752</v>
+        <v>-0.01814441624996856</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.610848903656006</v>
+        <v>1.428902864456177</v>
       </c>
       <c r="B3" t="n">
-        <v>0.001118241931448584</v>
+        <v>-0.06659103452095368</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.001638830016037346</v>
+        <v>-0.05107613740428436</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0008948376653556689</v>
+        <v>-0.002237071779499756</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.2672278881073</v>
+        <v>2.85724925994873</v>
       </c>
       <c r="B4" t="n">
-        <v>0.001124642563640942</v>
+        <v>-0.06588574193576932</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.001642964220532367</v>
+        <v>-0.05050074056947822</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.0007902899598088752</v>
+        <v>0.01353333439801161</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8.888117074966431</v>
+        <v>4.285770177841187</v>
       </c>
       <c r="B5" t="n">
-        <v>0.001117712775821924</v>
+        <v>-0.06532367856179891</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.001629270898276164</v>
+        <v>-0.04993669462604707</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.0007948415814790001</v>
+        <v>0.0296175298731593</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>12.82971692085266</v>
+        <v>6.684820652008057</v>
       </c>
       <c r="B6" t="n">
-        <v>0.001123895080448366</v>
+        <v>-0.06809623214600057</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.001633218755181617</v>
+        <v>-0.03541967016229752</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0006903005090028492</v>
+        <v>-0.01828789486310119</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>15.45071887969971</v>
+        <v>8.115956783294678</v>
       </c>
       <c r="B7" t="n">
-        <v>0.001131043195833299</v>
+        <v>-0.06706986691221231</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.001647098425027388</v>
+        <v>-0.03512916910066619</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0006857422542620815</v>
+        <v>-0.002481369533755082</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>19.08812093734741</v>
+        <v>9.543713808059692</v>
       </c>
       <c r="B8" t="n">
-        <v>0.001124642563640942</v>
+        <v>-0.06689540023226323</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.001642964220532367</v>
+        <v>-0.0344204421344019</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0007902899598088752</v>
+        <v>0.01360168955639468</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>21.69487643241882</v>
+        <v>10.97271084785461</v>
       </c>
       <c r="B9" t="n">
-        <v>0.001124113408014282</v>
+        <v>-0.06632474581922561</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.001633405102771185</v>
+        <v>-0.03393545669807996</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.0006902938759322064</v>
+        <v>0.0294213558103175</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>25.63316082954407</v>
+        <v>13.37340664863586</v>
       </c>
       <c r="B10" t="n">
-        <v>0.001124642563640942</v>
+        <v>-0.06863186515179524</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.001642964220532367</v>
+        <v>-0.01960126228325072</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.0007902899598088752</v>
+        <v>-0.01854679228739329</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>28.24683022499084</v>
+        <v>14.8038125038147</v>
       </c>
       <c r="B11" t="n">
-        <v>0.001130295712640724</v>
+        <v>-0.06780765168191967</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.001637352959676638</v>
+        <v>-0.01914456036727774</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.0005857528034560555</v>
+        <v>-0.002489890747593506</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>31.88572978973389</v>
+        <v>16.24447989463806</v>
       </c>
       <c r="B12" t="n">
-        <v>0.001124642563640942</v>
+        <v>-0.06733940463920557</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.001642964220532367</v>
+        <v>-0.01872326272363352</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0007902899598088752</v>
+        <v>0.0136151007434792</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>34.48991012573242</v>
+        <v>17.67295503616333</v>
       </c>
       <c r="B13" t="n">
-        <v>0.001124642563640942</v>
+        <v>-0.06661653617394343</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.001642964220532367</v>
+        <v>-0.01800894442745977</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.0007902899598088752</v>
+        <v>0.02958539857187169</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>20.07642006874084</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.06917837771633568</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.003220383113345993</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.01903504297752972</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>21.50688314437866</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.06839353224039886</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.003085613869553153</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.002602757602118837</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>22.9364378452301</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.06782268008975023</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.002428258765139607</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.01332236067443402</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>24.36726403236389</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.06714231912618936</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.00206004061229989</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.02952421685396735</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>26.76651501655579</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.06957189684050169</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.01214156053711957</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.0189127376387801</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>28.19614028930664</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.06902968116324651</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.01304834240722014</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.00290171144189299</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>29.62462067604065</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.06828313071505727</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.01337091429109394</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.01355459398550618</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>31.05372548103333</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.06805584959580084</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.01370894647655418</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.02959849428835919</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>33.45376038551331</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.07008447612780805</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.02860313514063704</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.01923738913781498</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>34.88500881195068</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.06931233477710311</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.02893361935618552</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.002862803551414161</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>36.31599807739258</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.06888360806409599</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.02951651860505887</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.01333917512874967</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>37.74693441390991</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.06799119307509946</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.03002503744303406</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.02963872836414836</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>40.14600491523743</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.07027347038544952</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.04459993553818571</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0.0193197040820083</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>41.57466125488281</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.0697348282336073</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.04490184260356624</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.00279530963065774</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>43.00401568412781</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.06935608452576331</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.04572076445664397</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.01361849814846558</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>44.43445682525635</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.06856689585984568</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.04590096659860432</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.02947894020731117</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>47.86475825309753</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.05221740855671932</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.05132288688276214</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.0186553960125513</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>49.29461789131165</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.05131854867590482</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.05071286051443627</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.002745663086097501</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>50.73216462135315</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.05069567713739969</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.05013607632414258</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.01309984919751557</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>52.16094660758972</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.0502834790503421</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.04909927264673811</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.02881831890116567</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>54.56155037879944</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.0528837232076962</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.03529373261302413</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.0188964423060418</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>55.99718046188354</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.05182121991518744</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.03492105559167533</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-0.002768498745823667</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>57.4319703578949</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.05132434171803677</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-0.03392399204276544</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.01293318301329219</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>58.86252284049988</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.05065943334898013</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.03340004397885996</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.02908740067341513</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>61.26759791374207</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.05331321088393932</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.01932147279329087</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.01908950615330231</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>62.69611358642578</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.05250582782608415</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.01859260220633806</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-0.002971394545973507</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>64.12662363052368</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.05163619509222948</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.01811653053314552</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.01292699409579256</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>65.55519342422485</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.05095448433061506</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-0.01766791862126021</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.02895174081131698</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>67.95533275604248</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.0539961167887712</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-0.002553227854421941</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-0.01941912211130549</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>69.38889265060425</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-0.05293063077068534</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-0.002661336735174824</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-0.003361784730279855</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>70.81756639480591</v>
+      </c>
+      <c r="B44" t="n">
+        <v>-0.05198940487758649</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-0.00227165242604091</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.01289053511856169</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>72.24990367889404</v>
+      </c>
+      <c r="B45" t="n">
+        <v>-0.05171433646339756</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-0.001898403722738251</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.02888899982057914</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>74.6518976688385</v>
+      </c>
+      <c r="B46" t="n">
+        <v>-0.05398618140384175</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.01236856153223448</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-0.01968982115107051</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>76.08115243911743</v>
+      </c>
+      <c r="B47" t="n">
+        <v>-0.05334111817861212</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.01329311792966323</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-0.003156974014722425</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>77.51011276245117</v>
+      </c>
+      <c r="B48" t="n">
+        <v>-0.05257084881912004</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.01362755579331736</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.01296259823599611</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>78.94341683387756</v>
+      </c>
+      <c r="B49" t="n">
+        <v>-0.05188287064129701</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.01394389428083126</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.02901148293009569</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>81.34459567070007</v>
+      </c>
+      <c r="B50" t="n">
+        <v>-0.05419046733808392</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.02870945610312899</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-0.01963940898011972</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>82.78232383728027</v>
+      </c>
+      <c r="B51" t="n">
+        <v>-0.05370354490981337</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.02932442421144833</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-0.003288895942454351</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>84.21167254447937</v>
+      </c>
+      <c r="B52" t="n">
+        <v>-0.05314424647683366</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.02959984185969664</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.01273735901260778</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>85.64092493057251</v>
+      </c>
+      <c r="B53" t="n">
+        <v>-0.05241744271864321</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.02985419268873729</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.02906464865667785</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>88.03936409950256</v>
+      </c>
+      <c r="B54" t="n">
+        <v>-0.05485498569232079</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.04489791852301973</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-0.01981168060757239</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>89.47066926956177</v>
+      </c>
+      <c r="B55" t="n">
+        <v>-0.05400379924057601</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.04509536249203561</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-0.003330384029069165</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>90.90041041374207</v>
+      </c>
+      <c r="B56" t="n">
+        <v>-0.05323545065292673</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.0455625287034321</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.0127208430676682</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>92.33007621765137</v>
+      </c>
+      <c r="B57" t="n">
+        <v>-0.05243285883575088</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.04574382262546334</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.02873860125680363</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>95.76223540306091</v>
+      </c>
+      <c r="B58" t="n">
+        <v>-0.03701020599009423</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-0.05068422359993704</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-0.01907999961502947</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>97.19125866889954</v>
+      </c>
+      <c r="B59" t="n">
+        <v>-0.03634496703782163</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-0.05013160912944546</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-0.003366884951999318</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>98.62166714668274</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-0.03564690738442888</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-0.04950295687012726</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.01250587353485635</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>100.0494062900543</v>
+      </c>
+      <c r="B61" t="n">
+        <v>-0.03508137754126012</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-0.0484280702341818</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.02830584881451264</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>102.4487488269806</v>
+      </c>
+      <c r="B62" t="n">
+        <v>-0.03767983746847996</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-0.03486628902454725</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-0.01935143015830021</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>103.8787343502045</v>
+      </c>
+      <c r="B63" t="n">
+        <v>-0.03696950677120739</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-0.03434031902045523</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-0.003204388335656418</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>105.3085441589355</v>
+      </c>
+      <c r="B64" t="n">
+        <v>-0.03594087157795695</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-0.03374573945428783</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.01226673370843358</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>106.7381789684296</v>
+      </c>
+      <c r="B65" t="n">
+        <v>-0.03541724360371201</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-0.03323823505234597</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.02829090935734678</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>109.1368417739868</v>
+      </c>
+      <c r="B66" t="n">
+        <v>-0.03777732825449848</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-0.01891644970480796</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-0.01957094042270197</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>110.5661489963531</v>
+      </c>
+      <c r="B67" t="n">
+        <v>-0.03703402915133264</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-0.01844171024726458</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-0.003532614297408914</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>111.9955730438232</v>
+      </c>
+      <c r="B68" t="n">
+        <v>-0.0363139874262109</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-0.01795679943904629</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.01224623065421121</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>113.4264242649078</v>
+      </c>
+      <c r="B69" t="n">
+        <v>-0.03566902667212772</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-0.01701675025954516</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.02841668523666361</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>115.8297846317291</v>
+      </c>
+      <c r="B70" t="n">
+        <v>-0.03835871202737882</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-0.002719607171327285</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-0.01983156324547555</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>117.2593395709991</v>
+      </c>
+      <c r="B71" t="n">
+        <v>-0.03753341441828968</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-0.002540457836050697</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-0.003672780077081687</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>118.6901252269745</v>
+      </c>
+      <c r="B72" t="n">
+        <v>-0.03658586441902018</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-0.002112792276862674</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.01229090316023129</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>120.1185863018036</v>
+      </c>
+      <c r="B73" t="n">
+        <v>-0.03627100278989473</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-0.001740388780298724</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.02818740042062309</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>122.5202050209045</v>
+      </c>
+      <c r="B74" t="n">
+        <v>-0.03855564795979738</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.01261205214464732</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-0.01998225054039686</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>123.949559211731</v>
+      </c>
+      <c r="B75" t="n">
+        <v>-0.03761432752993954</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.01341707664689454</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-0.00387472009096644</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>125.3796255588531</v>
+      </c>
+      <c r="B76" t="n">
+        <v>-0.03730104013195739</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.01379230001375645</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.01233444703938652</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>126.8123111724854</v>
+      </c>
+      <c r="B77" t="n">
+        <v>-0.03638432210403048</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.01456717439074476</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.02809377416491411</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>129.2120089530945</v>
+      </c>
+      <c r="B78" t="n">
+        <v>-0.03877978057655476</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.02886622630463835</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-0.0201318579423689</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>130.6466403007507</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-0.03821859262575586</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.02943329811588637</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-0.003639754725162681</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>132.0762076377869</v>
+      </c>
+      <c r="B80" t="n">
+        <v>-0.03718486577048107</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.02968487701225145</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.01221878705499259</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>133.5055561065674</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-0.03644061498429767</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.03016743500598856</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.02842620732797131</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>135.9051656723022</v>
+      </c>
+      <c r="B82" t="n">
+        <v>-0.03907115661110717</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.04473493097409859</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-0.02014796505167613</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>137.338413476944</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-0.03794124224370394</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.0448860777113583</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-0.004071629436725551</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>138.7694203853607</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-0.03735087167011783</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.04512133158717452</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.01183005869183412</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>140.2005224227905</v>
+      </c>
+      <c r="B85" t="n">
+        <v>-0.03691986543566714</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.04585099094693074</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.02823054429444835</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>143.630056142807</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-0.02235335865012351</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-0.04991343503143839</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-0.01957854588818609</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>145.0624465942383</v>
+      </c>
+      <c r="B87" t="n">
+        <v>-0.02138816446292005</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-0.04967190904695172</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-0.003709851778960362</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>146.4931576251984</v>
+      </c>
+      <c r="B88" t="n">
+        <v>-0.02054322863946721</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-0.04853827249161</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.01200892827966316</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>147.922031879425</v>
+      </c>
+      <c r="B89" t="n">
+        <v>-0.01980493118088671</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-0.04790376387355441</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.02760341532617465</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>150.3204281330109</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-0.02241426319287963</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-0.03449782041104725</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-0.01983796515778679</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>151.7482347488403</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-0.02165260208993272</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-0.03395005509782413</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-0.004035418183759788</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>153.1826403141022</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-0.02093102291398288</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-0.03292550906800629</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.01184974215937444</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>154.614114522934</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-0.02019320208658491</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-0.03237211611242161</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.02763267146965145</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>157.0147242546082</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-0.02253773070291346</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-0.01866566700427745</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-0.02005573346946726</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>158.4463920593262</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-0.02174633989319182</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-0.01816559775511269</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-0.004074950447516999</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>159.8765466213226</v>
+      </c>
+      <c r="B96" t="n">
+        <v>-0.02129850188857529</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-0.0172481619246644</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.01175365397740409</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>161.3067440986633</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-0.02028899704466265</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-0.01653378586801746</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.02766911288899096</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>163.70623087883</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-0.02277944686105467</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-0.002601859443363622</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-0.02051898094816732</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>165.1337871551514</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-0.02195386791065276</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-0.0021482264421014</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-0.004126457955981907</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>166.5623178482056</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-0.02116770770036197</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-0.001740027858300894</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.01149197873325198</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>167.9902062416077</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-0.02081384371504322</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-0.001587787399864787</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.02741936075557903</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>170.3905599117279</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-0.02313726051916884</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.01313329323449172</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-0.02072082471720597</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>171.824031829834</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-0.02206701998329927</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.01340465498444007</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-0.004289866555572053</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>173.2566499710083</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-0.02150105652284108</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.01378289633321363</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.01149650946228411</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>174.6928153038025</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-0.02097224471939183</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.01455985666839427</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.02742153557178684</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>177.0966827869415</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-0.02330103374998865</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.0285382548613235</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-0.02059535282770725</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>178.5275032520294</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-0.02248230788626913</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.02930703746243808</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-0.004203337910387199</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>179.9567058086395</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-0.02164715683701826</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.02955387386062909</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.01159708549799151</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>181.3870537281036</v>
+      </c>
+      <c r="B109" t="n">
+        <v>-0.02111383255719765</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.03004907621799387</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.02773177432436982</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>183.786741733551</v>
+      </c>
+      <c r="B110" t="n">
+        <v>-0.0233035576376129</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.04442964848511236</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-0.02061759557776323</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>185.2197785377502</v>
+      </c>
+      <c r="B111" t="n">
+        <v>-0.02241277358071113</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.04465258713764075</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-0.004506105949722092</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>186.6500701904297</v>
+      </c>
+      <c r="B112" t="n">
+        <v>-0.02159382430123633</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.04529936118642035</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.01143474414734487</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>188.0796885490417</v>
+      </c>
+      <c r="B113" t="n">
+        <v>-0.02131670705861731</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.04579880038387515</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.02762934668986795</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>191.5291018486023</v>
+      </c>
+      <c r="B114" t="n">
+        <v>-0.007520752838958525</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-0.04963220939656388</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-0.02013633035529043</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>192.9592778682709</v>
+      </c>
+      <c r="B115" t="n">
+        <v>-0.006686854842180112</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-0.04895311875788655</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-0.004431037653816198</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>194.3922345638275</v>
+      </c>
+      <c r="B116" t="n">
+        <v>-0.005512776124127435</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-0.04813663477161975</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.01130964227583695</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>195.8206844329834</v>
+      </c>
+      <c r="B117" t="n">
+        <v>-0.004863413345946605</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-0.04748594438934045</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.02706900237632735</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>198.2229051589966</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-0.007464413704714116</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-0.03397778104727196</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-0.02050025282731137</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>199.6550266742706</v>
+      </c>
+      <c r="B119" t="n">
+        <v>-0.006613728513410276</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-0.03334912386612839</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-0.004520215084420641</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>201.0844871997833</v>
+      </c>
+      <c r="B120" t="n">
+        <v>-0.005784560462567912</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-0.03252963538026929</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.01117537068540462</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>202.514345407486</v>
+      </c>
+      <c r="B121" t="n">
+        <v>-0.005024771858297953</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-0.03176475277241994</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.02685946220034719</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>204.9163286685944</v>
+      </c>
+      <c r="B122" t="n">
+        <v>-0.007669060251331848</v>
+      </c>
+      <c r="C122" t="n">
+        <v>-0.01815385213055389</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-0.02054145233521577</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>206.3449585437775</v>
+      </c>
+      <c r="B123" t="n">
+        <v>-0.006813434738501206</v>
+      </c>
+      <c r="C123" t="n">
+        <v>-0.01738281580052253</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-0.004573056538507266</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>207.7744326591492</v>
+      </c>
+      <c r="B124" t="n">
+        <v>-0.005975463681320107</v>
+      </c>
+      <c r="C124" t="n">
+        <v>-0.01687272613968827</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.01111514863726604</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>209.2024428844452</v>
+      </c>
+      <c r="B125" t="n">
+        <v>-0.005207559531553278</v>
+      </c>
+      <c r="C125" t="n">
+        <v>-0.01597944663280963</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.02698887798666533</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>211.6016857624054</v>
+      </c>
+      <c r="B126" t="n">
+        <v>-0.007601413429140117</v>
+      </c>
+      <c r="C126" t="n">
+        <v>-0.00228848219965265</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-0.02067440360699896</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>213.0353019237518</v>
+      </c>
+      <c r="B127" t="n">
+        <v>-0.006524745619286497</v>
+      </c>
+      <c r="C127" t="n">
+        <v>-0.001812676944804276</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-0.004822375230410877</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>214.4642922878265</v>
+      </c>
+      <c r="B128" t="n">
+        <v>-0.00610512976791231</v>
+      </c>
+      <c r="C128" t="n">
+        <v>-0.00138758315557333</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.01122091955624805</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>215.8943591117859</v>
+      </c>
+      <c r="B129" t="n">
+        <v>-0.005321586483156033</v>
+      </c>
+      <c r="C129" t="n">
+        <v>-0.00100867701202817</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.02681848271266263</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>218.2938525676727</v>
+      </c>
+      <c r="B130" t="n">
+        <v>-0.007656145877892383</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.01338075755492527</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-0.02105707560683879</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>219.7224321365356</v>
+      </c>
+      <c r="B131" t="n">
+        <v>-0.006547505373147222</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.01372760006218017</v>
+      </c>
+      <c r="D131" t="n">
+        <v>-0.004792685603700728</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>221.1521592140198</v>
+      </c>
+      <c r="B132" t="n">
+        <v>-0.006153957669786663</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.01410381315147224</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.01110773478465464</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>222.5804872512817</v>
+      </c>
+      <c r="B133" t="n">
+        <v>-0.00539240409978823</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.01481772211678875</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.02688376625253321</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>224.9802696704865</v>
+      </c>
+      <c r="B134" t="n">
+        <v>-0.007896130966427006</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.02882757357790916</v>
+      </c>
+      <c r="D134" t="n">
+        <v>-0.02130496028771615</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>226.4138066768646</v>
+      </c>
+      <c r="B135" t="n">
+        <v>-0.006992926427647668</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.02933717885408174</v>
+      </c>
+      <c r="D135" t="n">
+        <v>-0.004704398744495879</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>227.8448376655579</v>
+      </c>
+      <c r="B136" t="n">
+        <v>-0.006146093219013824</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.03001323606855061</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.01096324132018145</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>229.2742276191711</v>
+      </c>
+      <c r="B137" t="n">
+        <v>-0.005606757507804577</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.03026804049315919</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.02684892391927547</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>231.6723093986511</v>
+      </c>
+      <c r="B138" t="n">
+        <v>-0.007846694818762854</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.0446660802491068</v>
+      </c>
+      <c r="D138" t="n">
+        <v>-0.02100280313259298</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>233.1009044647217</v>
+      </c>
+      <c r="B139" t="n">
+        <v>-0.006925101297458148</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.04488623695337418</v>
+      </c>
+      <c r="D139" t="n">
+        <v>-0.004904613701146427</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>234.5300462245941</v>
+      </c>
+      <c r="B140" t="n">
+        <v>-0.006075681155351027</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.04549713135218914</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.01103100280948635</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>235.9586062431335</v>
+      </c>
+      <c r="B141" t="n">
+        <v>-0.005754385961257871</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.04574929629488479</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.02682483400995311</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>239.3865661621094</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.007344473419873205</v>
+      </c>
+      <c r="C142" t="n">
+        <v>-0.04934863851993547</v>
+      </c>
+      <c r="D142" t="n">
+        <v>-0.02055303233341741</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>240.8173975944519</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.008472478408476591</v>
+      </c>
+      <c r="C143" t="n">
+        <v>-0.04850318252106281</v>
+      </c>
+      <c r="D143" t="n">
+        <v>-0.004772003979859</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>242.254772901535</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.009591722118962814</v>
+      </c>
+      <c r="C144" t="n">
+        <v>-0.04766710562471396</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.01074471780812372</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>243.6841571331024</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.01052947916652563</v>
+      </c>
+      <c r="C145" t="n">
+        <v>-0.046712830370558</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.02637027687155532</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>246.0831670761108</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.00758845539269235</v>
+      </c>
+      <c r="C146" t="n">
+        <v>-0.03319945875130706</v>
+      </c>
+      <c r="D146" t="n">
+        <v>-0.02105654283455091</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>247.5134234428406</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.008524301202008935</v>
+      </c>
+      <c r="C147" t="n">
+        <v>-0.03290292061416511</v>
+      </c>
+      <c r="D147" t="n">
+        <v>-0.004919512098035319</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>248.9425938129425</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.009445946826078064</v>
+      </c>
+      <c r="C148" t="n">
+        <v>-0.03203228719327966</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.01068309572557286</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>250.372540473938</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.01030199602836618</v>
+      </c>
+      <c r="C149" t="n">
+        <v>-0.03124794394624666</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.02616868800170573</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>252.7743003368378</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.007671214150682545</v>
+      </c>
+      <c r="C150" t="n">
+        <v>-0.01767672160353365</v>
+      </c>
+      <c r="D150" t="n">
+        <v>-0.02128158710535571</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>254.2045838832855</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.008592548973756543</v>
+      </c>
+      <c r="C151" t="n">
+        <v>-0.01730080961219328</v>
+      </c>
+      <c r="D151" t="n">
+        <v>-0.005265782630954632</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>255.6340141296387</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.009507108368102823</v>
+      </c>
+      <c r="C152" t="n">
+        <v>-0.01636074675795338</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.0104131239779909</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>257.0644142627716</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.01033630163725023</v>
+      </c>
+      <c r="C153" t="n">
+        <v>-0.01549375829882665</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.02638288592407119</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>259.4659864902496</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.007631460375051424</v>
+      </c>
+      <c r="C154" t="n">
+        <v>-0.001970551803969128</v>
+      </c>
+      <c r="D154" t="n">
+        <v>-0.02111999590904356</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>260.8946990966797</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.008540557240283551</v>
+      </c>
+      <c r="C155" t="n">
+        <v>-0.001523980634597979</v>
+      </c>
+      <c r="D155" t="n">
+        <v>-0.005339009913504692</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>262.3199851512909</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.009406927334904679</v>
+      </c>
+      <c r="C156" t="n">
+        <v>-0.00126790900335283</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.01050009007579876</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>263.7479677200317</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.01023223689772937</v>
+      </c>
+      <c r="C157" t="n">
+        <v>-0.0005954883068598135</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.02635754745981238</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>266.1473569869995</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.007870835762980786</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.0134837170594645</v>
+      </c>
+      <c r="D158" t="n">
+        <v>-0.021253849400661</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>267.5767800807953</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.008790595795398617</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.01383765558117052</v>
+      </c>
+      <c r="D159" t="n">
+        <v>-0.005324549319279033</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>269.0077271461487</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.009219971072204214</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.01461921058333458</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.01048596900697411</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>270.4422097206116</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.01001176009857056</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.01490103263278575</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.02626143596056898</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>272.8413028717041</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.007547760236045223</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.02878808471329056</v>
+      </c>
+      <c r="D162" t="n">
+        <v>-0.02159868142037709</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>274.2710628509521</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.008968128473639158</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.02938213630387896</v>
+      </c>
+      <c r="D163" t="n">
+        <v>-0.005505134299982117</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>275.7022931575775</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.009356396962933186</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.0297121354237144</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.01044133986903338</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>277.1319546699524</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.009793865073039358</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.03034750485062569</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.02633566596399741</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>279.5322473049164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.007613853661967804</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.04440884626524139</v>
+      </c>
+      <c r="D166" t="n">
+        <v>-0.02175590951507102</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>280.9610593318939</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.008565574840409304</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.04482119888908455</v>
+      </c>
+      <c r="D167" t="n">
+        <v>-0.005547647127048575</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>282.3934240341187</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.009454162468741921</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.04517641916503443</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.01026042153848947</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>283.8244323730469</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.009754610925520251</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.0457971012591156</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.02597023978364918</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>287.2522385120392</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.02289840826497541</v>
+      </c>
+      <c r="C170" t="n">
+        <v>-0.04880943965087697</v>
+      </c>
+      <c r="D170" t="n">
+        <v>-0.02124786036884053</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>288.6803424358368</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.0237277691387116</v>
+      </c>
+      <c r="C171" t="n">
+        <v>-0.04791411009915614</v>
+      </c>
+      <c r="D171" t="n">
+        <v>-0.005393042631293821</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>290.1087167263031</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.02480173779880672</v>
+      </c>
+      <c r="C172" t="n">
+        <v>-0.04703760581808908</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.01006826115479989</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>291.5406103134155</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.02546091443769791</v>
+      </c>
+      <c r="C173" t="n">
+        <v>-0.04665432685661969</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.02604641864212713</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>293.9407482147217</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.02287746932623588</v>
+      </c>
+      <c r="C174" t="n">
+        <v>-0.03287533712093907</v>
+      </c>
+      <c r="D174" t="n">
+        <v>-0.02149678381228924</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>295.3701293468475</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.02377809524957007</v>
+      </c>
+      <c r="C175" t="n">
+        <v>-0.03210484250948692</v>
+      </c>
+      <c r="D175" t="n">
+        <v>-0.005747867630420668</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>296.8006417751312</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.02477247656385555</v>
+      </c>
+      <c r="C176" t="n">
+        <v>-0.03139910449404121</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.009817254222880337</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>298.2330687046051</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.02572687194972209</v>
+      </c>
+      <c r="C177" t="n">
+        <v>-0.03074920597745015</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.02563158761433734</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>300.6354939937592</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.02304514769488355</v>
+      </c>
+      <c r="C178" t="n">
+        <v>-0.01731084325206561</v>
+      </c>
+      <c r="D178" t="n">
+        <v>-0.02191050248867917</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>302.0653939247131</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.02408263334767546</v>
+      </c>
+      <c r="C179" t="n">
+        <v>-0.01667696830525327</v>
+      </c>
+      <c r="D179" t="n">
+        <v>-0.005897448726661595</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>303.4968852996826</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.02464115063751847</v>
+      </c>
+      <c r="C180" t="n">
+        <v>-0.01610729460348756</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.009906369095143754</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>304.927166223526</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.02561039353942026</v>
+      </c>
+      <c r="C181" t="n">
+        <v>-0.01523389726325253</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.02540734361335563</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>307.3279318809509</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.02323996614591591</v>
+      </c>
+      <c r="C182" t="n">
+        <v>-0.001823004270872092</v>
+      </c>
+      <c r="D182" t="n">
+        <v>-0.02185660366780702</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>308.7571427822113</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.02405331573016154</v>
+      </c>
+      <c r="C183" t="n">
+        <v>-0.001248823366655688</v>
+      </c>
+      <c r="D183" t="n">
+        <v>-0.006157428189195441</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>310.1864697933197</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.0249809577383158</v>
+      </c>
+      <c r="C184" t="n">
+        <v>-0.0007937480397299246</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.009778548678113418</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>311.6194653511047</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.0256039534036466</v>
+      </c>
+      <c r="C185" t="n">
+        <v>-0.0004196617696132221</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.02530039616142907</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>314.0193083286285</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.02316170524297214</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.01371478280220563</v>
+      </c>
+      <c r="D186" t="n">
+        <v>-0.02212913742186467</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>315.4532201290131</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.02415206294571303</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.01412491306945451</v>
+      </c>
+      <c r="D187" t="n">
+        <v>-0.006074886495643543</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>316.8831470012665</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.0250622507957622</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.0144822741860943</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.009628336877795693</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>318.3167216777802</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.02547866650985564</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.0151554764989052</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.02541833601420413</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>320.7166728973389</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.02342936033800636</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.02848667178338693</v>
+      </c>
+      <c r="D190" t="n">
+        <v>-0.02198942958022797</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>322.1461083889008</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.02419237573222493</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.02915720862992131</v>
+      </c>
+      <c r="D191" t="n">
+        <v>-0.005896985907243367</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>323.5766551494598</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.02508506398613055</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.02940197314850282</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.009564183375530192</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>325.0074632167816</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.02569258280061257</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.02998153742116116</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.02541191582714804</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>327.4065372943878</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.02328113225429989</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.04394098331816608</v>
+      </c>
+      <c r="D194" t="n">
+        <v>-0.02207262121661898</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>328.8353614807129</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.02403938915569891</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.04457209492988187</v>
+      </c>
+      <c r="D195" t="n">
+        <v>-0.005995629988686728</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>330.2635877132416</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.02497659282093568</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.04506947996408904</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.009798974689486668</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>331.6950125694275</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.02580322838945871</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0.04551181321532707</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.02536331581605142</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>335.1256473064423</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.03787498748310568</v>
+      </c>
+      <c r="C198" t="n">
+        <v>-0.04849736291901571</v>
+      </c>
+      <c r="D198" t="n">
+        <v>-0.02178020191168487</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>336.5561001300812</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.03905044676992085</v>
+      </c>
+      <c r="C199" t="n">
+        <v>-0.04744481479449841</v>
+      </c>
+      <c r="D199" t="n">
+        <v>-0.006067048513370832</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>337.9876613616943</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.04012080774462696</v>
+      </c>
+      <c r="C200" t="n">
+        <v>-0.04647167066594449</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.009386410428405248</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>339.4205582141876</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.04124973624493045</v>
+      </c>
+      <c r="C201" t="n">
+        <v>-0.04559212650004763</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.02500212789798199</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>341.8206884860992</v>
+      </c>
+      <c r="B202" t="n">
+        <v>0.0385444907098238</v>
+      </c>
+      <c r="C202" t="n">
+        <v>-0.03248729219630167</v>
+      </c>
+      <c r="D202" t="n">
+        <v>-0.02242086521955028</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>343.2498106956482</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0.0394569529771677</v>
+      </c>
+      <c r="C203" t="n">
+        <v>-0.03160971911221581</v>
+      </c>
+      <c r="D203" t="n">
+        <v>-0.006346892812225701</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>344.6801996231079</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0.04021684790692176</v>
+      </c>
+      <c r="C204" t="n">
+        <v>-0.03087712086113228</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.00929862035406942</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>346.1109738349915</v>
+      </c>
+      <c r="B205" t="n">
+        <v>0.04127557771388871</v>
+      </c>
+      <c r="C205" t="n">
+        <v>-0.03020977419079744</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.02503408347995969</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>348.5135536193848</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0.03843809330013256</v>
+      </c>
+      <c r="C206" t="n">
+        <v>-0.01699992453519314</v>
+      </c>
+      <c r="D206" t="n">
+        <v>-0.02234109141913463</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>349.9469709396362</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0.03944204275685016</v>
+      </c>
+      <c r="C207" t="n">
+        <v>-0.01623942077512057</v>
+      </c>
+      <c r="D207" t="n">
+        <v>-0.006427077261807245</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>351.376357793808</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0.04030141603955627</v>
+      </c>
+      <c r="C208" t="n">
+        <v>-0.01562368398420133</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0.009178519917999103</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>352.8077418804169</v>
+      </c>
+      <c r="B209" t="n">
+        <v>0.04162408581525717</v>
+      </c>
+      <c r="C209" t="n">
+        <v>-0.0149201234675696</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0.02480928898717131</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>355.2064361572266</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0.03864380537985024</v>
+      </c>
+      <c r="C210" t="n">
+        <v>-0.001828641780337897</v>
+      </c>
+      <c r="D210" t="n">
+        <v>-0.02246855736035529</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>356.6366362571716</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0.03957645679208057</v>
+      </c>
+      <c r="C211" t="n">
+        <v>-0.001199812256790583</v>
+      </c>
+      <c r="D211" t="n">
+        <v>-0.006500636870172004</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>358.0646507740021</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0.04057264964259594</v>
+      </c>
+      <c r="C212" t="n">
+        <v>-0.000702741332652107</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.009221633159622239</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>359.4965045452118</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0.04101575442296491</v>
+      </c>
+      <c r="C213" t="n">
+        <v>-0.000320624336369757</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.02482520183631776</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>361.8998486995697</v>
+      </c>
+      <c r="B214" t="n">
+        <v>0.03843060899985488</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0.01368459020810323</v>
+      </c>
+      <c r="D214" t="n">
+        <v>-0.02267124850130637</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>363.317702293396</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0.03951154932318932</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0.01414890142454461</v>
+      </c>
+      <c r="D215" t="n">
+        <v>-0.006619639462486807</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>364.7491888999939</v>
+      </c>
+      <c r="B216" t="n">
+        <v>0.04046989698791241</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0.01452338742112348</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0.009170416393604761</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>366.1807119846344</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0.04137344470164748</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0.01511726933307331</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0.02468931890561172</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>368.5858807563782</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0.03880459403470332</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0.02846983362189603</v>
+      </c>
+      <c r="D218" t="n">
+        <v>-0.02246160403594138</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>370.0163662433624</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0.03986237540096535</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0.02894825757621407</v>
+      </c>
+      <c r="D219" t="n">
+        <v>-0.006652983083628161</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>371.4455020427704</v>
+      </c>
+      <c r="B220" t="n">
+        <v>0.04034255389796008</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0.02944844300907058</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0.009020025097801464</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>372.8766899108887</v>
+      </c>
+      <c r="B221" t="n">
+        <v>0.04122852145618677</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0.0299382826777648</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0.02469696328140671</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>375.2767367362976</v>
+      </c>
+      <c r="B222" t="n">
+        <v>0.0388851844722318</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0.04354290998485155</v>
+      </c>
+      <c r="D222" t="n">
+        <v>-0.02250835183816867</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>376.7047426700592</v>
+      </c>
+      <c r="B223" t="n">
+        <v>0.03995187933636282</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0.04408231949702526</v>
+      </c>
+      <c r="D223" t="n">
+        <v>-0.006640353572662085</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>378.1340410709381</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0.04042344667747784</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0.04466914247485596</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0.009015714638836266</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>379.564813375473</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0.04133514848182838</v>
+      </c>
+      <c r="C225" t="n">
+        <v>0.0453669947875372</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0.02462917709964087</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>382.9966042041779</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0.05273874236028397</v>
+      </c>
+      <c r="C226" t="n">
+        <v>-0.04796347650460056</v>
+      </c>
+      <c r="D226" t="n">
+        <v>-0.02258485363495084</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>384.4322166442871</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0.05454923034401846</v>
+      </c>
+      <c r="C227" t="n">
+        <v>-0.04669308714130534</v>
+      </c>
+      <c r="D227" t="n">
+        <v>-0.006809479873366418</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>385.8622560501099</v>
+      </c>
+      <c r="B228" t="n">
+        <v>0.05612002974996625</v>
+      </c>
+      <c r="C228" t="n">
+        <v>-0.04529214856887154</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0.008833831607869767</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>387.2934174537659</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0.05733080421307881</v>
+      </c>
+      <c r="C229" t="n">
+        <v>-0.0442481458348659</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0.02445766484317152</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>389.6955499649048</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0.05343966973876079</v>
+      </c>
+      <c r="C230" t="n">
+        <v>-0.03186665373793268</v>
+      </c>
+      <c r="D230" t="n">
+        <v>-0.02283782906637127</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>391.1270866394043</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0.05527049728743134</v>
+      </c>
+      <c r="C231" t="n">
+        <v>-0.0309540101169315</v>
+      </c>
+      <c r="D231" t="n">
+        <v>-0.006853084936707937</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>392.5560858249664</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0.05618354226940676</v>
+      </c>
+      <c r="C232" t="n">
+        <v>-0.03010256058011065</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0.008653166027781522</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>393.9867725372314</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0.05718949218824379</v>
+      </c>
+      <c r="C233" t="n">
+        <v>-0.0294414916464521</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0.02434883525223654</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>396.3874568939209</v>
+      </c>
+      <c r="B234" t="n">
+        <v>0.053843147709289</v>
+      </c>
+      <c r="C234" t="n">
+        <v>-0.01678751210207347</v>
+      </c>
+      <c r="D234" t="n">
+        <v>-0.02295336854083205</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>397.8170554637909</v>
+      </c>
+      <c r="B235" t="n">
+        <v>0.0552187981767579</v>
+      </c>
+      <c r="C235" t="n">
+        <v>-0.01590178902943359</v>
+      </c>
+      <c r="D235" t="n">
+        <v>-0.007094701053727896</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>399.2467865943909</v>
+      </c>
+      <c r="B236" t="n">
+        <v>0.05638144154460709</v>
+      </c>
+      <c r="C236" t="n">
+        <v>-0.01519238121409876</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0.008652007880510943</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>400.6764569282532</v>
+      </c>
+      <c r="B237" t="n">
+        <v>0.0574244397237383</v>
+      </c>
+      <c r="C237" t="n">
+        <v>-0.01425482972274088</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0.02416753666894317</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>403.0797548294067</v>
+      </c>
+      <c r="B238" t="n">
+        <v>0.05432406675882391</v>
+      </c>
+      <c r="C238" t="n">
+        <v>-0.001548669390935592</v>
+      </c>
+      <c r="D238" t="n">
+        <v>-0.02290917440427824</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>404.5112693309784</v>
+      </c>
+      <c r="B239" t="n">
+        <v>0.0553880137678829</v>
+      </c>
+      <c r="C239" t="n">
+        <v>-0.0008478008255081021</v>
+      </c>
+      <c r="D239" t="n">
+        <v>-0.007088889937933862</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>405.9449279308319</v>
+      </c>
+      <c r="B240" t="n">
+        <v>0.05623552844598911</v>
+      </c>
+      <c r="C240" t="n">
+        <v>-0.000325971256243951</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0.008478885246963819</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>407.3750100135803</v>
+      </c>
+      <c r="B241" t="n">
+        <v>0.0568565527455621</v>
+      </c>
+      <c r="C241" t="n">
+        <v>2.328404951136565e-05</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0.02400950450282352</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>409.775869846344</v>
+      </c>
+      <c r="B242" t="n">
+        <v>0.0541894204221174</v>
+      </c>
+      <c r="C242" t="n">
+        <v>0.0137205395011667</v>
+      </c>
+      <c r="D242" t="n">
+        <v>-0.02295691381169361</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>411.2053999900818</v>
+      </c>
+      <c r="B243" t="n">
+        <v>0.05528831098143988</v>
+      </c>
+      <c r="C243" t="n">
+        <v>0.01404048433703163</v>
+      </c>
+      <c r="D243" t="n">
+        <v>-0.007099356852189836</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>412.6383745670319</v>
+      </c>
+      <c r="B244" t="n">
+        <v>0.05631848191094496</v>
+      </c>
+      <c r="C244" t="n">
+        <v>0.01455398340760046</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.008404972028244381</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>414.0691783428192</v>
+      </c>
+      <c r="B245" t="n">
+        <v>0.05723355550605368</v>
+      </c>
+      <c r="C245" t="n">
+        <v>0.01509530861059126</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0.02399738130296942</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>416.4698252677917</v>
+      </c>
+      <c r="B246" t="n">
+        <v>0.05416135844135032</v>
+      </c>
+      <c r="C246" t="n">
+        <v>0.02841392695745296</v>
+      </c>
+      <c r="D246" t="n">
+        <v>-0.02312161609954836</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>417.9034287929535</v>
+      </c>
+      <c r="B247" t="n">
+        <v>0.05530339405280363</v>
+      </c>
+      <c r="C247" t="n">
+        <v>0.02889832699453128</v>
+      </c>
+      <c r="D247" t="n">
+        <v>-0.007186883892588048</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>419.333571434021</v>
+      </c>
+      <c r="B248" t="n">
+        <v>0.05588038867967898</v>
+      </c>
+      <c r="C248" t="n">
+        <v>0.02952533333008234</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0.00829398829877102</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>420.7667503356934</v>
+      </c>
+      <c r="B249" t="n">
+        <v>0.05666113954732026</v>
+      </c>
+      <c r="C249" t="n">
+        <v>0.02967800467260574</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0.02395266353680952</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>423.1681411266327</v>
+      </c>
+      <c r="B250" t="n">
+        <v>0.0545506764972938</v>
+      </c>
+      <c r="C250" t="n">
+        <v>0.04363413614109853</v>
+      </c>
+      <c r="D250" t="n">
+        <v>-0.0229395570163944</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>424.5987269878387</v>
+      </c>
+      <c r="B251" t="n">
+        <v>0.05542004413485245</v>
+      </c>
+      <c r="C251" t="n">
+        <v>0.04418444538080649</v>
+      </c>
+      <c r="D251" t="n">
+        <v>-0.007269452273040507</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>426.0280473232269</v>
+      </c>
+      <c r="B252" t="n">
+        <v>0.05642400228420031</v>
+      </c>
+      <c r="C252" t="n">
+        <v>0.04458174855917584</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0.008365268874077784</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>427.4569840431213</v>
+      </c>
+      <c r="B253" t="n">
+        <v>0.0573081670147994</v>
+      </c>
+      <c r="C253" t="n">
+        <v>0.04504437882771824</v>
+      </c>
+      <c r="D253" t="n">
+        <v>0.0237784226787992</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>430.8936846256256</v>
+      </c>
+      <c r="B254" t="n">
+        <v>0.06938997547088065</v>
+      </c>
+      <c r="C254" t="n">
+        <v>-0.04702676798211333</v>
+      </c>
+      <c r="D254" t="n">
+        <v>-0.02293568607388482</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>432.3254897594452</v>
+      </c>
+      <c r="B255" t="n">
+        <v>0.07170905040273294</v>
+      </c>
+      <c r="C255" t="n">
+        <v>-0.0451126912102392</v>
+      </c>
+      <c r="D255" t="n">
+        <v>-0.007406869077742286</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>433.7584822177887</v>
+      </c>
+      <c r="B256" t="n">
+        <v>0.0723844289233796</v>
+      </c>
+      <c r="C256" t="n">
+        <v>-0.04403131238453087</v>
+      </c>
+      <c r="D256" t="n">
+        <v>0.00794414463352445</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>435.1889405250549</v>
+      </c>
+      <c r="B257" t="n">
+        <v>0.07374055343861606</v>
+      </c>
+      <c r="C257" t="n">
+        <v>-0.04281228268048237</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0.02369178310328312</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>437.5876905918121</v>
+      </c>
+      <c r="B258" t="n">
+        <v>0.0693148759512706</v>
+      </c>
+      <c r="C258" t="n">
+        <v>-0.03134276069946576</v>
+      </c>
+      <c r="D258" t="n">
+        <v>-0.02310659909924898</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>439.0170624256134</v>
+      </c>
+      <c r="B259" t="n">
+        <v>0.07132661493980656</v>
+      </c>
+      <c r="C259" t="n">
+        <v>-0.02998083112384706</v>
+      </c>
+      <c r="D259" t="n">
+        <v>-0.007455065395265865</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>440.4469339847565</v>
+      </c>
+      <c r="B260" t="n">
+        <v>0.07237390038606348</v>
+      </c>
+      <c r="C260" t="n">
+        <v>-0.02914964811763832</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0.007895629511935063</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>441.8759515285492</v>
+      </c>
+      <c r="B261" t="n">
+        <v>0.07348858683301311</v>
+      </c>
+      <c r="C261" t="n">
+        <v>-0.02842576055789957</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0.02360666799047651</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>444.2771043777466</v>
+      </c>
+      <c r="B262" t="n">
+        <v>0.0697743446198863</v>
+      </c>
+      <c r="C262" t="n">
+        <v>-0.01627971991743352</v>
+      </c>
+      <c r="D262" t="n">
+        <v>-0.02299464821641622</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>445.7066829204559</v>
+      </c>
+      <c r="B263" t="n">
+        <v>0.07095085618525496</v>
+      </c>
+      <c r="C263" t="n">
+        <v>-0.01531440226871589</v>
+      </c>
+      <c r="D263" t="n">
+        <v>-0.007616604980571755</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>447.1360421180725</v>
+      </c>
+      <c r="B264" t="n">
+        <v>0.07265562009669529</v>
+      </c>
+      <c r="C264" t="n">
+        <v>-0.01448300906276707</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0.007914893200784489</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>448.5674102306366</v>
+      </c>
+      <c r="B265" t="n">
+        <v>0.07330211996106667</v>
+      </c>
+      <c r="C265" t="n">
+        <v>-0.01375971571314977</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0.02328931154892854</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>450.9669814109802</v>
+      </c>
+      <c r="B266" t="n">
+        <v>0.06971050524312369</v>
+      </c>
+      <c r="C266" t="n">
+        <v>-0.001053046227211807</v>
+      </c>
+      <c r="D266" t="n">
+        <v>-0.02306330311907973</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>452.3970110416412</v>
+      </c>
+      <c r="B267" t="n">
+        <v>0.07122274458314638</v>
+      </c>
+      <c r="C267" t="n">
+        <v>-0.0005711684060630828</v>
+      </c>
+      <c r="D267" t="n">
+        <v>-0.007609212572906384</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>453.8280107975006</v>
+      </c>
+      <c r="B268" t="n">
+        <v>0.07237555160023219</v>
+      </c>
+      <c r="C268" t="n">
+        <v>-7.429302968681162e-06</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0.007852872034540024</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>455.2560913562775</v>
+      </c>
+      <c r="B269" t="n">
+        <v>0.07278202780728471</v>
+      </c>
+      <c r="C269" t="n">
+        <v>0.0003249302942076038</v>
+      </c>
+      <c r="D269" t="n">
+        <v>0.02321692458826064</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>457.6588022708893</v>
+      </c>
+      <c r="B270" t="n">
+        <v>0.0698675583047219</v>
+      </c>
+      <c r="C270" t="n">
+        <v>0.01363346863252772</v>
+      </c>
+      <c r="D270" t="n">
+        <v>-0.0233458125235042</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>459.0887637138367</v>
+      </c>
+      <c r="B271" t="n">
+        <v>0.07107259534560438</v>
+      </c>
+      <c r="C271" t="n">
+        <v>0.01401021225219866</v>
+      </c>
+      <c r="D271" t="n">
+        <v>-0.007557113167563927</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>460.5177960395813</v>
+      </c>
+      <c r="B272" t="n">
+        <v>0.07215221281217124</v>
+      </c>
+      <c r="C272" t="n">
+        <v>0.01452621836148013</v>
+      </c>
+      <c r="D272" t="n">
+        <v>0.00781544731726817</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>461.9499821662903</v>
+      </c>
+      <c r="B273" t="n">
+        <v>0.07267576861101525</v>
+      </c>
+      <c r="C273" t="n">
+        <v>0.01507501128970379</v>
+      </c>
+      <c r="D273" t="n">
+        <v>0.0230949355517536</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>464.3485445976257</v>
+      </c>
+      <c r="B274" t="n">
+        <v>0.06991893241057542</v>
+      </c>
+      <c r="C274" t="n">
+        <v>0.02809758449207644</v>
+      </c>
+      <c r="D274" t="n">
+        <v>-0.02343068007802519</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>465.7787454128265</v>
+      </c>
+      <c r="B275" t="n">
+        <v>0.0711219070101044</v>
+      </c>
+      <c r="C275" t="n">
+        <v>0.02856106323367896</v>
+      </c>
+      <c r="D275" t="n">
+        <v>-0.007792147857150026</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>467.2080748081207</v>
+      </c>
+      <c r="B276" t="n">
+        <v>0.07197074913523756</v>
+      </c>
+      <c r="C276" t="n">
+        <v>0.02911120603271924</v>
+      </c>
+      <c r="D276" t="n">
+        <v>0.007862386991775348</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>468.6403477191925</v>
+      </c>
+      <c r="B277" t="n">
+        <v>0.07257590325916105</v>
+      </c>
+      <c r="C277" t="n">
+        <v>0.02951920903605922</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0.02322207285893689</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>471.0413439273834</v>
+      </c>
+      <c r="B278" t="n">
+        <v>0.07001382082970725</v>
+      </c>
+      <c r="C278" t="n">
+        <v>0.04305994111477103</v>
+      </c>
+      <c r="D278" t="n">
+        <v>-0.02332455142833532</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>472.469984292984</v>
+      </c>
+      <c r="B279" t="n">
+        <v>0.07111296810075465</v>
+      </c>
+      <c r="C279" t="n">
+        <v>0.04324601039044376</v>
+      </c>
+      <c r="D279" t="n">
+        <v>-0.007853286763885196</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>473.8996274471283</v>
+      </c>
+      <c r="B280" t="n">
+        <v>0.07165766213889493</v>
+      </c>
+      <c r="C280" t="n">
+        <v>0.04377527624144048</v>
+      </c>
+      <c r="D280" t="n">
+        <v>0.007697830240269582</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>475.3275482654572</v>
+      </c>
+      <c r="B281" t="n">
+        <v>0.07246135509675658</v>
+      </c>
+      <c r="C281" t="n">
+        <v>0.04402854910658266</v>
+      </c>
+      <c r="D281" t="n">
+        <v>0.02306242414918893</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Vision_XYZ.xlsx
+++ b/Results/Vision_XYZ.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>z</t>
+          <t>x</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>z</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -457,3922 +457,3922 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.384185791015625e-06</v>
+        <v>1.430511474609375e-06</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.06742934275816391</v>
+        <v>-67.1467600818422</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.05167863002699732</v>
+        <v>-51.58568784770473</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.01814441624996856</v>
+        <v>-18.4250337743377</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.428902864456177</v>
+        <v>1.429078817367554</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.06659103452095368</v>
+        <v>-66.59992141540218</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.05107613740428436</v>
+        <v>-51.06618102913701</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.002237071779499756</v>
+        <v>-2.377484252757392</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.85724925994873</v>
+        <v>2.856734275817871</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.06588574193576932</v>
+        <v>-65.74044453637259</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.05050074056947822</v>
+        <v>-50.47278475175107</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01353333439801161</v>
+        <v>13.528960554734</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.285770177841187</v>
+        <v>4.286750555038452</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.06532367856179891</v>
+        <v>-65.2326626398801</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.04993669462604707</v>
+        <v>-49.91988473150566</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0296175298731593</v>
+        <v>29.46120679058785</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.684820652008057</v>
+        <v>6.685839414596558</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.06809623214600057</v>
+        <v>-68.10084575006661</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.03541967016229752</v>
+        <v>-35.43490176986192</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.01828789486310119</v>
+        <v>-18.59391039250999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8.115956783294678</v>
+        <v>8.1179039478302</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.06706986691221231</v>
+        <v>-67.1740218446534</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.03512916910066619</v>
+        <v>-34.87210722428771</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.002481369533755082</v>
+        <v>-2.490229720222607</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9.543713808059692</v>
+        <v>9.547368288040161</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.06689540023226323</v>
+        <v>-66.88859057038599</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0344204421344019</v>
+        <v>-34.42560902212552</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01360168955639468</v>
+        <v>13.5177842676693</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>10.97271084785461</v>
+        <v>10.97629857063293</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.06632474581922561</v>
+        <v>-66.32474581922561</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.03393545669807996</v>
+        <v>-33.93545669807996</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0294213558103175</v>
+        <v>29.4213558103175</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>13.37340664863586</v>
+        <v>13.37458467483521</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.06863186515179524</v>
+        <v>-68.44658816132483</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.01960126228325072</v>
+        <v>-19.60724133325509</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.01854679228739329</v>
+        <v>-18.63202903845257</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>14.8038125038147</v>
+        <v>14.80445289611816</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.06780765168191967</v>
+        <v>-67.80414421508186</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.01914456036727774</v>
+        <v>-19.15626193138772</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.002489890747593506</v>
+        <v>-2.580873138346753</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>16.24447989463806</v>
+        <v>16.23293447494507</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.06733940463920557</v>
+        <v>-67.36579891189217</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.01872326272363352</v>
+        <v>-18.17971344865557</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0136151007434792</v>
+        <v>13.48122604514913</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>17.67295503616333</v>
+        <v>17.663498878479</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.06661653617394343</v>
+        <v>-66.63750226512212</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.01800894442745977</v>
+        <v>-18.01702114612638</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02958539857187169</v>
+        <v>29.44624049588267</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>20.07642006874084</v>
+        <v>20.06370663642883</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.06917837771633568</v>
+        <v>-69.08368738847217</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.003220383113345993</v>
+        <v>-3.490590740830524</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.01903504297752972</v>
+        <v>-19.01317165225382</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>21.50688314437866</v>
+        <v>21.49165463447571</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.06839353224039886</v>
+        <v>-68.48732106819013</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.003085613869553153</v>
+        <v>-2.814458331463654</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.002602757602118837</v>
+        <v>-2.61074990217964</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>22.9364378452301</v>
+        <v>22.919682264328</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.06782268008975023</v>
+        <v>-67.81486920028168</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.002428258765139607</v>
+        <v>-2.428984589279287</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01332236067443402</v>
+        <v>13.39246031472184</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>24.36726403236389</v>
+        <v>24.35006761550903</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.06714231912618936</v>
+        <v>-67.34921046907583</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.00206004061229989</v>
+        <v>-2.061874888017332</v>
       </c>
       <c r="D17" t="n">
-        <v>0.02952421685396735</v>
+        <v>29.53716421486857</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>26.76651501655579</v>
+        <v>26.75004076957703</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.06957189684050169</v>
+        <v>-69.66211237878471</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01214156053711957</v>
+        <v>12.41792809859109</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0189127376387801</v>
+        <v>-18.93341415391449</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>28.19614028930664</v>
+        <v>28.17880034446716</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.06902968116324651</v>
+        <v>-69.02233434611887</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01304834240722014</v>
+        <v>13.0372662276508</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.00290171144189299</v>
+        <v>-2.884552672782984</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>29.62462067604065</v>
+        <v>29.60937762260437</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.06828313071505727</v>
+        <v>-68.28823315807722</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01337091429109394</v>
+        <v>13.36084069077578</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01355459398550618</v>
+        <v>13.12769303059695</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>31.05372548103333</v>
+        <v>31.04089093208313</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.06805584959580084</v>
+        <v>-68.0417682511041</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01370894647655418</v>
+        <v>13.70860197566065</v>
       </c>
       <c r="D21" t="n">
-        <v>0.02959849428835919</v>
+        <v>29.48967440971105</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>33.45376038551331</v>
+        <v>33.44032287597656</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.07008447612780805</v>
+        <v>-70.34355982101845</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02860313514063704</v>
+        <v>28.6569410487888</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.01923738913781498</v>
+        <v>-19.46141637969765</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>34.88500881195068</v>
+        <v>34.8685519695282</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.06931233477710311</v>
+        <v>-69.3123347771031</v>
       </c>
       <c r="C23" t="n">
-        <v>0.02893361935618552</v>
+        <v>28.93361935618552</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.002862803551414161</v>
+        <v>-2.862803551414161</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>36.31599807739258</v>
+        <v>36.29618430137634</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.06888360806409599</v>
+        <v>-68.64959654697228</v>
       </c>
       <c r="C24" t="n">
-        <v>0.02951651860505887</v>
+        <v>29.49244750205184</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01333917512874967</v>
+        <v>13.19053286608733</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>37.74693441390991</v>
+        <v>37.72522044181824</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.06799119307509946</v>
+        <v>-67.99722807663019</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03002503744303406</v>
+        <v>30.02040726977418</v>
       </c>
       <c r="D25" t="n">
-        <v>0.02963872836414836</v>
+        <v>29.38190936143988</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>40.14600491523743</v>
+        <v>40.13089299201965</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.07027347038544952</v>
+        <v>-70.55159005709169</v>
       </c>
       <c r="C26" t="n">
-        <v>0.04459993553818571</v>
+        <v>44.66294831829826</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.0193197040820083</v>
+        <v>-19.47380161920894</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>41.57466125488281</v>
+        <v>41.56339550018311</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.0697348282336073</v>
+        <v>-69.45017813667067</v>
       </c>
       <c r="C27" t="n">
-        <v>0.04490184260356624</v>
+        <v>44.82772846889774</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.00279530963065774</v>
+        <v>-3.041122453498182</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>43.00401568412781</v>
+        <v>42.9938690662384</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.06935608452576331</v>
+        <v>-69.28486433479631</v>
       </c>
       <c r="C28" t="n">
-        <v>0.04572076445664397</v>
+        <v>45.42497844217682</v>
       </c>
       <c r="D28" t="n">
-        <v>0.01361849814846558</v>
+        <v>13.08305160976091</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>44.43445682525635</v>
+        <v>44.42302346229553</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.06856689585984568</v>
+        <v>-68.58865837760337</v>
       </c>
       <c r="C29" t="n">
-        <v>0.04590096659860432</v>
+        <v>45.89915757571195</v>
       </c>
       <c r="D29" t="n">
-        <v>0.02947894020731117</v>
+        <v>29.33908141230663</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>47.86475825309753</v>
+        <v>47.85273814201355</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.05221740855671932</v>
+        <v>-52.21760775579271</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.05132288688276214</v>
+        <v>-51.30282907746053</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.0186553960125513</v>
+        <v>-18.78967036684958</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>49.29461789131165</v>
+        <v>49.282870054245</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.05131854867590482</v>
+        <v>-51.31854867590482</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.05071286051443627</v>
+        <v>-50.71286051443627</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.002745663086097501</v>
+        <v>-2.745663086097501</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>50.73216462135315</v>
+        <v>50.71559882164001</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.05069567713739969</v>
+        <v>-50.78245289564022</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.05013607632414258</v>
+        <v>-49.89341874077279</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01309984919751557</v>
+        <v>13.18150674762742</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>52.16094660758972</v>
+        <v>52.14651775360107</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.0502834790503421</v>
+        <v>-50.24321191864536</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.04909927264673811</v>
+        <v>-49.07401849787762</v>
       </c>
       <c r="D33" t="n">
-        <v>0.02881831890116567</v>
+        <v>29.08030342016737</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>54.56155037879944</v>
+        <v>54.55379033088684</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.0528837232076962</v>
+        <v>-52.96410587490694</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.03529373261302413</v>
+        <v>-35.01218510551877</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.0188964423060418</v>
+        <v>-19.18825016969208</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>55.99718046188354</v>
+        <v>55.98427557945251</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.05182121991518744</v>
+        <v>-51.97065155180483</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.03492105559167533</v>
+        <v>-34.45396682520088</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.002768498745823667</v>
+        <v>-2.952053374762166</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>57.4319703578949</v>
+        <v>57.41415071487427</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.05132434171803677</v>
+        <v>-51.32434171803677</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.03392399204276544</v>
+        <v>-33.92399204276544</v>
       </c>
       <c r="D36" t="n">
-        <v>0.01293318301329219</v>
+        <v>12.9331830132922</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>58.86252284049988</v>
+        <v>58.84409308433533</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.05065943334898013</v>
+        <v>-50.67903733819726</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.03340004397885996</v>
+        <v>-33.41686723465437</v>
       </c>
       <c r="D37" t="n">
-        <v>0.02908740067341513</v>
+        <v>28.65602507541733</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>61.26759791374207</v>
+        <v>61.24496006965637</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.05331321088393932</v>
+        <v>-53.38826101454288</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.01932147279329087</v>
+        <v>-19.05422779212892</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.01908950615330231</v>
+        <v>-19.24516379885951</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>62.69611358642578</v>
+        <v>62.675053358078</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.05250582782608415</v>
+        <v>-52.70945499561826</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.01859260220633806</v>
+        <v>-18.58846604186504</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.002971394545973507</v>
+        <v>-3.237049958763781</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>64.12662363052368</v>
+        <v>64.10886549949646</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.05163619509222948</v>
+        <v>-51.63619509222949</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.01811653053314552</v>
+        <v>-18.11653053314552</v>
       </c>
       <c r="D40" t="n">
-        <v>0.01292699409579256</v>
+        <v>12.92699409579255</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>65.55519342422485</v>
+        <v>65.53784584999084</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.05095448433061506</v>
+        <v>-50.95139527058035</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.01766791862126021</v>
+        <v>-17.67334339771881</v>
       </c>
       <c r="D41" t="n">
-        <v>0.02895174081131698</v>
+        <v>28.63524602744011</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>67.95533275604248</v>
+        <v>67.94220399856567</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.0539961167887712</v>
+        <v>-53.64955627145504</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.002553227854421941</v>
+        <v>-3.063120090046584</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.01941912211130549</v>
+        <v>-19.37163622422281</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>69.38889265060425</v>
+        <v>69.37227940559387</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.05293063077068534</v>
+        <v>-52.9221153995323</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.002661336735174824</v>
+        <v>-2.670138115019594</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.003361784730279855</v>
+        <v>-3.228751271410209</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>70.81756639480591</v>
+        <v>70.80505180358887</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.05198940487758649</v>
+        <v>-52.07172412948783</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.00227165242604091</v>
+        <v>-2.015428293246024</v>
       </c>
       <c r="D44" t="n">
-        <v>0.01289053511856169</v>
+        <v>12.76292204305953</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>72.24990367889404</v>
+        <v>72.2346453666687</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.05171433646339756</v>
+        <v>-51.73475529950694</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.001898403722738251</v>
+        <v>-1.905817743173222</v>
       </c>
       <c r="D45" t="n">
-        <v>0.02888899982057914</v>
+        <v>28.75767503780668</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>74.6518976688385</v>
+        <v>74.64122343063354</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.05398618140384175</v>
+        <v>-54.11767374303766</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01236856153223448</v>
+        <v>12.94304249970052</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.01968982115107051</v>
+        <v>-19.6510646751174</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>76.08115243911743</v>
+        <v>76.07156991958618</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.05334111817861212</v>
+        <v>-53.35014013595337</v>
       </c>
       <c r="C47" t="n">
-        <v>0.01329311792966323</v>
+        <v>13.30198301762606</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.003156974014722425</v>
+        <v>-3.290325861029098</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>77.51011276245117</v>
+        <v>77.50069952011108</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.05257084881912004</v>
+        <v>-52.60133387768725</v>
       </c>
       <c r="C48" t="n">
-        <v>0.01362755579331736</v>
+        <v>13.63086309152803</v>
       </c>
       <c r="D48" t="n">
-        <v>0.01296259823599611</v>
+        <v>12.69818644054372</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>78.94341683387756</v>
+        <v>78.93275213241577</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.05188287064129701</v>
+        <v>-51.92358893601544</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01394389428083126</v>
+        <v>13.93203465556528</v>
       </c>
       <c r="D49" t="n">
-        <v>0.02901148293009569</v>
+        <v>28.74882872837407</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>81.34459567070007</v>
+        <v>81.33319616317749</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.05419046733808392</v>
+        <v>-54.25653634888193</v>
       </c>
       <c r="C50" t="n">
-        <v>0.02870945610312899</v>
+        <v>28.98893345060824</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.01963940898011972</v>
+        <v>-19.79247857005177</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>82.78232383728027</v>
+        <v>82.76279640197754</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.05370354490981337</v>
+        <v>-53.94834538589024</v>
       </c>
       <c r="C51" t="n">
-        <v>0.02932442421144833</v>
+        <v>29.34034644337371</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.003288895942454351</v>
+        <v>-3.405185065139053</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>84.21167254447937</v>
+        <v>84.19814825057983</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.05314424647683366</v>
+        <v>-53.17502804871566</v>
       </c>
       <c r="C52" t="n">
-        <v>0.02959984185969664</v>
+        <v>29.60509715645615</v>
       </c>
       <c r="D52" t="n">
-        <v>0.01273735901260778</v>
+        <v>12.47234801824341</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>85.64092493057251</v>
+        <v>85.62980151176453</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.05241744271864321</v>
+        <v>-52.46408778598746</v>
       </c>
       <c r="C53" t="n">
-        <v>0.02985419268873729</v>
+        <v>30.1171503064792</v>
       </c>
       <c r="D53" t="n">
-        <v>0.02906464865667785</v>
+        <v>28.96236536030051</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>88.03936409950256</v>
+        <v>88.02772855758667</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.05485498569232079</v>
+        <v>-54.5906615194273</v>
       </c>
       <c r="C54" t="n">
-        <v>0.04489791852301973</v>
+        <v>44.82389827086359</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01981168060757239</v>
+        <v>-20.17972376642378</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>89.47066926956177</v>
+        <v>89.45613217353821</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.05400379924057601</v>
+        <v>-54.07759023759964</v>
       </c>
       <c r="C55" t="n">
-        <v>0.04509536249203561</v>
+        <v>45.37758201076743</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.003330384029069165</v>
+        <v>-3.537877144986636</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>90.90041041374207</v>
+        <v>90.88724541664124</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.05323545065292673</v>
+        <v>-53.25583127292706</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0455625287034321</v>
+        <v>45.56182691023631</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0127208430676682</v>
+        <v>12.33133834326447</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>92.33007621765137</v>
+        <v>92.31715989112854</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.05243285883575088</v>
+        <v>-52.43285883575088</v>
       </c>
       <c r="C57" t="n">
-        <v>0.04574382262546334</v>
+        <v>45.74382262546334</v>
       </c>
       <c r="D57" t="n">
-        <v>0.02873860125680363</v>
+        <v>28.73860125680363</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>95.76223540306091</v>
+        <v>95.74773526191711</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.03701020599009423</v>
+        <v>-37.06650498201755</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.05068422359993704</v>
+        <v>-50.45824094770234</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01907999961502947</v>
+        <v>-19.10228581374963</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>97.19125866889954</v>
+        <v>97.17636847496033</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.03634496703782163</v>
+        <v>-36.35054506685572</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.05013160912944546</v>
+        <v>-50.1228037017854</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.003366884951999318</v>
+        <v>-3.491403366154089</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>98.62166714668274</v>
+        <v>98.60695934295654</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.03564690738442888</v>
+        <v>-35.67357275448676</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.04950295687012726</v>
+        <v>-49.50824401818618</v>
       </c>
       <c r="D60" t="n">
-        <v>0.01250587353485635</v>
+        <v>12.2590598928192</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>100.0494062900543</v>
+        <v>100.0382273197174</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.03508137754126012</v>
+        <v>-34.99019693468343</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.0484280702341818</v>
+        <v>-48.89437006071858</v>
       </c>
       <c r="D61" t="n">
-        <v>0.02830584881451264</v>
+        <v>28.14764045728732</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>102.4487488269806</v>
+        <v>102.443737745285</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.03767983746847996</v>
+        <v>-37.68823067965322</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.03486628902454725</v>
+        <v>-34.8850475190722</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.01935143015830021</v>
+        <v>-19.64188958935699</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>103.8787343502045</v>
+        <v>103.8728914260864</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.03696950677120739</v>
+        <v>-36.81202949043505</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.03434031902045523</v>
+        <v>-34.29972635134576</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.003204388335656418</v>
+        <v>-3.454478459030617</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>105.3085441589355</v>
+        <v>105.3041486740112</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.03594087157795695</v>
+        <v>-35.99177129471737</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.03374573945428783</v>
+        <v>-33.51319553434246</v>
       </c>
       <c r="D64" t="n">
-        <v>0.01226673370843358</v>
+        <v>12.27061706005635</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>106.7381789684296</v>
+        <v>106.7355654239655</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.03541724360371201</v>
+        <v>-35.2887825747348</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.03323823505234597</v>
+        <v>-32.97980908546598</v>
       </c>
       <c r="D65" t="n">
-        <v>0.02829090935734678</v>
+        <v>28.21241009222525</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>109.1368417739868</v>
+        <v>109.1375503540039</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.03777732825449848</v>
+        <v>-37.78068843125408</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.01891644970480796</v>
+        <v>-18.90106802461464</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.01957094042270197</v>
+        <v>-19.91351194139567</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>110.5661489963531</v>
+        <v>110.5708093643188</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.03703402915133264</v>
+        <v>-37.04086674315083</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.01844171024726458</v>
+        <v>-18.43357138746393</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.003532614297408914</v>
+        <v>-3.65742059763466</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111.9955730438232</v>
+        <v>112.0017848014832</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.0363139874262109</v>
+        <v>-36.67848139329</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.01795679943904629</v>
+        <v>-17.99546776339561</v>
       </c>
       <c r="D68" t="n">
-        <v>0.01224623065421121</v>
+        <v>12.07390193816182</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>113.4264242649078</v>
+        <v>113.4314031600952</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.03566902667212772</v>
+        <v>-35.61287286566598</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.01701675025954516</v>
+        <v>-17.50679703225916</v>
       </c>
       <c r="D69" t="n">
-        <v>0.02841668523666361</v>
+        <v>28.14023600825118</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>115.8297846317291</v>
+        <v>115.8322541713715</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.03835871202737882</v>
+        <v>-38.31286215569077</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.002719607171327285</v>
+        <v>-2.942904466470789</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.01983156324547555</v>
+        <v>-19.93924033506429</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>117.2593395709991</v>
+        <v>117.2599332332611</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.03753341441828968</v>
+        <v>-37.37770122494135</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.002540457836050697</v>
+        <v>-2.290183898462292</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.003672780077081687</v>
+        <v>-3.805302076343157</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>118.6901252269745</v>
+        <v>118.6894636154175</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.03658586441902018</v>
+        <v>-36.59925548517138</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.002112792276862674</v>
+        <v>-2.113139970706918</v>
       </c>
       <c r="D72" t="n">
-        <v>0.01229090316023129</v>
+        <v>12.16701338322901</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>120.1185863018036</v>
+        <v>120.1191651821136</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.03627100278989473</v>
+        <v>-36.29016409328257</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.001740388780298724</v>
+        <v>-1.497146418996578</v>
       </c>
       <c r="D73" t="n">
-        <v>0.02818740042062309</v>
+        <v>27.99962466800932</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>122.5202050209045</v>
+        <v>122.520213842392</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.03855564795979738</v>
+        <v>-38.33392823866523</v>
       </c>
       <c r="C74" t="n">
-        <v>0.01261205214464732</v>
+        <v>12.59420953921653</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.01998225054039686</v>
+        <v>-20.2054980150028</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>123.949559211731</v>
+        <v>123.9500668048859</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.03761432752993954</v>
+        <v>-37.6062807220973</v>
       </c>
       <c r="C75" t="n">
-        <v>0.01341707664689454</v>
+        <v>13.40890774236517</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.00387472009096644</v>
+        <v>-3.749643466133436</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>125.3796255588531</v>
+        <v>125.3826122283936</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.03730104013195739</v>
+        <v>-37.29247079875734</v>
       </c>
       <c r="C76" t="n">
-        <v>0.01379230001375645</v>
+        <v>13.78671176064468</v>
       </c>
       <c r="D76" t="n">
-        <v>0.01233444703938652</v>
+        <v>12.22614953570184</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>126.8123111724854</v>
+        <v>126.8126630783081</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.03638432210403048</v>
+        <v>-36.36075432206227</v>
       </c>
       <c r="C77" t="n">
-        <v>0.01456717439074476</v>
+        <v>14.31855909554366</v>
       </c>
       <c r="D77" t="n">
-        <v>0.02809377416491411</v>
+        <v>27.95740216655576</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>129.2120089530945</v>
+        <v>129.2122497558594</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.03877978057655476</v>
+        <v>-38.7456641231296</v>
       </c>
       <c r="C78" t="n">
-        <v>0.02886622630463835</v>
+        <v>28.63024918358401</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.0201318579423689</v>
+        <v>-20.48225890593336</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>130.6466403007507</v>
+        <v>130.6429731845856</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.03821859262575586</v>
+        <v>-37.98474105486852</v>
       </c>
       <c r="C79" t="n">
-        <v>0.02943329811588637</v>
+        <v>29.40571660470875</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.003639754725162681</v>
+        <v>-4.004653149831674</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>132.0762076377869</v>
+        <v>132.0725739002228</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.03718486577048107</v>
+        <v>-37.21278023932181</v>
       </c>
       <c r="C80" t="n">
-        <v>0.02968487701225145</v>
+        <v>29.68818271317131</v>
       </c>
       <c r="D80" t="n">
-        <v>0.01221878705499259</v>
+        <v>11.9704486313472</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>133.5055561065674</v>
+        <v>133.504848241806</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.03644061498429767</v>
+        <v>-36.72469685471483</v>
       </c>
       <c r="C81" t="n">
-        <v>0.03016743500598856</v>
+        <v>30.43973130434684</v>
       </c>
       <c r="D81" t="n">
-        <v>0.02842620732797131</v>
+        <v>28.15765569877236</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>135.9051656723022</v>
+        <v>135.9096760749817</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.03907115661110717</v>
+        <v>-38.76809448370824</v>
       </c>
       <c r="C82" t="n">
-        <v>0.04473493097409859</v>
+        <v>44.41521410592983</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.02014796505167613</v>
+        <v>-20.24154708675873</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>137.338413476944</v>
+        <v>137.3387038707733</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.03794124224370394</v>
+        <v>-38.00277627323326</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0448860777113583</v>
+        <v>45.26337972958264</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.004071629436725551</v>
+        <v>-4.144372223576132</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>138.7694203853607</v>
+        <v>138.7675175666809</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.03735087167011783</v>
+        <v>-37.18209772761248</v>
       </c>
       <c r="C84" t="n">
-        <v>0.04512133158717452</v>
+        <v>45.58277075551781</v>
       </c>
       <c r="D84" t="n">
-        <v>0.01183005869183412</v>
+        <v>12.07473696726166</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>140.2005224227905</v>
+        <v>140.1978089809418</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.03691986543566714</v>
+        <v>-36.91986543566714</v>
       </c>
       <c r="C85" t="n">
-        <v>0.04585099094693074</v>
+        <v>45.85099094693074</v>
       </c>
       <c r="D85" t="n">
-        <v>0.02823054429444835</v>
+        <v>28.23054429444835</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>143.630056142807</v>
+        <v>143.6270277500153</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.02235335865012351</v>
+        <v>-22.34846874797135</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.04991343503143839</v>
+        <v>-49.89359250334805</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.01957854588818609</v>
+        <v>-19.6969306785646</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>145.0624465942383</v>
+        <v>145.057558298111</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.02138816446292005</v>
+        <v>-21.58414966566956</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.04967190904695172</v>
+        <v>-49.49528209539334</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.003709851778960362</v>
+        <v>-4.102398218729659</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>146.4931576251984</v>
+        <v>146.4874620437622</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.02054322863946721</v>
+        <v>-20.53845596729228</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.04853827249161</v>
+        <v>-48.54154698172966</v>
       </c>
       <c r="D88" t="n">
-        <v>0.01200892827966316</v>
+        <v>11.93223608666655</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>147.922031879425</v>
+        <v>147.9185354709625</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.01980493118088671</v>
+        <v>-19.79382205614997</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.04790376387355441</v>
+        <v>-47.89860873646751</v>
       </c>
       <c r="D89" t="n">
-        <v>0.02760341532617465</v>
+        <v>27.52613047574853</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>150.3204281330109</v>
+        <v>150.3236927986145</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.02241426319287963</v>
+        <v>-22.47000174797957</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.03449782041104725</v>
+        <v>-34.04224531934054</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.01983796515778679</v>
+        <v>-19.99486877831531</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>151.7482347488403</v>
+        <v>151.7545595169067</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.02165260208993272</v>
+        <v>-21.71504904813488</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.03395005509782413</v>
+        <v>-33.51350259699009</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.004035418183759788</v>
+        <v>-4.252552959531745</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>153.1826403141022</v>
+        <v>153.1837737560272</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.02093102291398288</v>
+        <v>-20.95705398618096</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.03292550906800629</v>
+        <v>-32.93087364696009</v>
       </c>
       <c r="D92" t="n">
-        <v>0.01184974215937444</v>
+        <v>11.61838548167744</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>154.614114522934</v>
+        <v>154.6173665523529</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.02019320208658491</v>
+        <v>-20.21401161585872</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.03237211611242161</v>
+        <v>-32.3851246669586</v>
       </c>
       <c r="D93" t="n">
-        <v>0.02763267146965145</v>
+        <v>27.51768333256326</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>157.0147242546082</v>
+        <v>157.0188610553741</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.02253773070291346</v>
+        <v>-22.55236315534696</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.01866566700427745</v>
+        <v>-18.39232035076575</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.02005573346946726</v>
+        <v>-20.21955072261941</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>158.4463920593262</v>
+        <v>158.4491066932678</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.02174633989319182</v>
+        <v>-21.77831626428137</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.01816559775511269</v>
+        <v>-17.94740186442262</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.004074950447516999</v>
+        <v>-4.291041017261131</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>159.8765466213226</v>
+        <v>159.8785243034363</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.02129850188857529</v>
+        <v>-21.2228091594692</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.0172481619246644</v>
+        <v>-17.24310253150768</v>
       </c>
       <c r="D96" t="n">
-        <v>0.01175365397740409</v>
+        <v>11.57685260816433</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>161.3067440986633</v>
+        <v>161.3106837272644</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.02028899704466265</v>
+        <v>-20.30264084084756</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.01653378586801746</v>
+        <v>-16.77618799601696</v>
       </c>
       <c r="D97" t="n">
-        <v>0.02766911288899096</v>
+        <v>27.42642624543667</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>163.70623087883</v>
+        <v>163.7144045829773</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.02277944686105467</v>
+        <v>-22.73649069940429</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.002601859443363622</v>
+        <v>-2.756628546035603</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.02051898094816732</v>
+        <v>-20.54067654257121</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>165.1337871551514</v>
+        <v>165.1443338394165</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.02195386791065276</v>
+        <v>-21.95982886161146</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.0021482264421014</v>
+        <v>-2.141016309454042</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.004126457955981907</v>
+        <v>-4.243319588441909</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>166.5623178482056</v>
+        <v>166.5786604881287</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.02116770770036197</v>
+        <v>-21.19219614552889</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.001740027858300894</v>
+        <v>-1.51551240144393</v>
       </c>
       <c r="D100" t="n">
-        <v>0.01149197873325198</v>
+        <v>11.49424568980741</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>167.9902062416077</v>
+        <v>168.0100104808807</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.02081384371504322</v>
+        <v>-20.85171770471497</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.001587787399864787</v>
+        <v>-1.137700861646398</v>
       </c>
       <c r="D101" t="n">
-        <v>0.02741936075557903</v>
+        <v>27.34223520419737</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>170.3905599117279</v>
+        <v>170.4101059436798</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.02313726051916884</v>
+        <v>-23.14364798172317</v>
       </c>
       <c r="C102" t="n">
-        <v>0.01313329323449172</v>
+        <v>13.11447860011421</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.02072082471720597</v>
+        <v>-20.82754135599124</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>171.824031829834</v>
+        <v>171.8393042087555</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.02206701998329927</v>
+        <v>-22.30744867676779</v>
       </c>
       <c r="C103" t="n">
-        <v>0.01340465498444007</v>
+        <v>13.4336452337003</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.004289866555572053</v>
+        <v>-4.525094244612461</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>173.2566499710083</v>
+        <v>173.2680251598358</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.02150105652284108</v>
+        <v>-21.74350596588189</v>
       </c>
       <c r="C104" t="n">
-        <v>0.01378289633321363</v>
+        <v>14.01863940538858</v>
       </c>
       <c r="D104" t="n">
-        <v>0.01149650946228411</v>
+        <v>11.39772047185756</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>174.6928153038025</v>
+        <v>174.7009851932526</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.02097224471939183</v>
+        <v>-20.96770748740748</v>
       </c>
       <c r="C105" t="n">
-        <v>0.01455985666839427</v>
+        <v>14.32757899555261</v>
       </c>
       <c r="D105" t="n">
-        <v>0.02742153557178684</v>
+        <v>27.29526201185385</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>177.0966827869415</v>
+        <v>177.1016418933868</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.02330103374998865</v>
+        <v>-23.30163629986937</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0285382548613235</v>
+        <v>28.56554479335213</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.02059535282770725</v>
+        <v>-20.83166783233737</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>178.5275032520294</v>
+        <v>178.5315492153168</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.02248230788626913</v>
+        <v>-22.48539921222068</v>
       </c>
       <c r="C107" t="n">
-        <v>0.02930703746243808</v>
+        <v>29.28916091406861</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.004203337910387199</v>
+        <v>-4.551388286072622</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>179.9567058086395</v>
+        <v>179.9609208106995</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.02164715683701826</v>
+        <v>-21.68262778283696</v>
       </c>
       <c r="C108" t="n">
-        <v>0.02955387386062909</v>
+        <v>29.7832514564066</v>
       </c>
       <c r="D108" t="n">
-        <v>0.01159708549799151</v>
+        <v>11.48306184125846</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>181.3870537281036</v>
+        <v>181.3941893577576</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.02111383255719765</v>
+        <v>-21.26606464412389</v>
       </c>
       <c r="C109" t="n">
-        <v>0.03004907621799387</v>
+        <v>30.28541020752715</v>
       </c>
       <c r="D109" t="n">
-        <v>0.02773177432436982</v>
+        <v>27.28677847744078</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>183.786741733551</v>
+        <v>183.7978994846344</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.0233035576376129</v>
+        <v>-23.33087259184962</v>
       </c>
       <c r="C110" t="n">
-        <v>0.04442964848511236</v>
+        <v>44.6527925558769</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.02061759557776323</v>
+        <v>-20.87292844692542</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>185.2197785377502</v>
+        <v>185.2257237434387</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.02241277358071113</v>
+        <v>-22.4413546447347</v>
       </c>
       <c r="C111" t="n">
-        <v>0.04465258713764075</v>
+        <v>44.89033768866855</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.004506105949722092</v>
+        <v>-4.62943670122069</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>186.6500701904297</v>
+        <v>186.6557545661926</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.02159382430123633</v>
+        <v>-21.60755671623176</v>
       </c>
       <c r="C112" t="n">
-        <v>0.04529936118642035</v>
+        <v>45.3016740279987</v>
       </c>
       <c r="D112" t="n">
-        <v>0.01143474414734487</v>
+        <v>11.31878126556117</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>188.0796885490417</v>
+        <v>188.0858747959137</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.02131670705861731</v>
+        <v>-21.3773573079635</v>
       </c>
       <c r="C113" t="n">
-        <v>0.04579880038387515</v>
+        <v>46.0214036296398</v>
       </c>
       <c r="D113" t="n">
-        <v>0.02762934668986795</v>
+        <v>27.40915513125607</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>191.5291018486023</v>
+        <v>191.5169885158539</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.007520752838958525</v>
+        <v>-7.531586239068128</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.04963220939656388</v>
+        <v>-49.65368827309995</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.02013633035529043</v>
+        <v>-20.2108092468888</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>192.9592778682709</v>
+        <v>192.9468021392822</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.006686854842180112</v>
+        <v>-6.692230135917305</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.04895311875788655</v>
+        <v>-48.93719864700419</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.004431037653816198</v>
+        <v>-4.648892384507706</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>194.3922345638275</v>
+        <v>194.3810319900513</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.005512776124127435</v>
+        <v>-5.843005038573274</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.04813663477161975</v>
+        <v>-48.21630647001357</v>
       </c>
       <c r="D116" t="n">
-        <v>0.01130964227583695</v>
+        <v>11.21207773877365</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>195.8206844329834</v>
+        <v>195.813202381134</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.004863413345946605</v>
+        <v>-4.715974343544753</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.04748594438934045</v>
+        <v>-47.45951157075497</v>
       </c>
       <c r="D117" t="n">
-        <v>0.02706900237632735</v>
+        <v>26.87511604801689</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>198.2229051589966</v>
+        <v>198.2125432491302</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.007464413704714116</v>
+        <v>-7.47145688634186</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.03397778104727196</v>
+        <v>-33.52923868454184</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.02050025282731137</v>
+        <v>-20.75637113637262</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>199.6550266742706</v>
+        <v>199.6422650814056</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.006613728513410276</v>
+        <v>-6.625045680026991</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.03334912386612839</v>
+        <v>-33.13385324880726</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.004520215084420641</v>
+        <v>-4.636982955128013</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>201.0844871997833</v>
+        <v>201.0721955299377</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.005784560462567912</v>
+        <v>-5.784560462567912</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.03252963538026929</v>
+        <v>-32.52963538026929</v>
       </c>
       <c r="D120" t="n">
-        <v>0.01117537068540462</v>
+        <v>11.17537068540462</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>202.514345407486</v>
+        <v>202.5016255378723</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.005024771858297953</v>
+        <v>-5.002080463409291</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.03176475277241994</v>
+        <v>-31.96410406601145</v>
       </c>
       <c r="D121" t="n">
-        <v>0.02685946220034719</v>
+        <v>26.76229351577735</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>204.9163286685944</v>
+        <v>204.9070510864258</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.007669060251331848</v>
+        <v>-7.669319880807691</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.01815385213055389</v>
+        <v>-17.90207906743063</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.02054145233521577</v>
+        <v>-21.08947844921703</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>206.3449585437775</v>
+        <v>206.3367395401001</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.006813434738501206</v>
+        <v>-6.436687487508413</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.01738281580052253</v>
+        <v>-17.36910060366362</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.004573056538507266</v>
+        <v>-4.864303903841617</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>207.7744326591492</v>
+        <v>207.766880273819</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.005975463681320107</v>
+        <v>-5.994299618544889</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.01687272613968827</v>
+        <v>-16.87172799170068</v>
       </c>
       <c r="D124" t="n">
-        <v>0.01111514863726604</v>
+        <v>11.10005360757714</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>209.2024428844452</v>
+        <v>209.1967573165894</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.005207559531553278</v>
+        <v>-5.210756290146519</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.01597944663280963</v>
+        <v>-16.40458100839393</v>
       </c>
       <c r="D125" t="n">
-        <v>0.02698887798666533</v>
+        <v>26.86047044072073</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>211.6016857624054</v>
+        <v>211.5981650352478</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.007601413429140117</v>
+        <v>-7.817820781379774</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.00228848219965265</v>
+        <v>-2.284408468371843</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.02067440360699896</v>
+        <v>-21.2117369033231</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>213.0353019237518</v>
+        <v>213.0289316177368</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.006524745619286497</v>
+        <v>-6.526827155080737</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.001812676944804276</v>
+        <v>-1.837180529850657</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.004822375230410877</v>
+        <v>-5.021798411237662</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>214.4642922878265</v>
+        <v>214.4593713283539</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.00610512976791231</v>
+        <v>-6.120249291451203</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.00138758315557333</v>
+        <v>-1.391709035091927</v>
       </c>
       <c r="D128" t="n">
-        <v>0.01122091955624805</v>
+        <v>11.00879751280825</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>215.8943591117859</v>
+        <v>215.8927361965179</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.005321586483156033</v>
+        <v>-5.341369891532746</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.00100867701202817</v>
+        <v>-1.017890631397872</v>
       </c>
       <c r="D129" t="n">
-        <v>0.02681848271266263</v>
+        <v>26.71159109958612</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>218.2938525676727</v>
+        <v>218.2999231815338</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.007656145877892383</v>
+        <v>-7.893509164642511</v>
       </c>
       <c r="C130" t="n">
-        <v>0.01338075755492527</v>
+        <v>13.38546107496842</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.02105707560683879</v>
+        <v>-21.50240354390721</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>219.7224321365356</v>
+        <v>219.7293186187744</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.006547505373147222</v>
+        <v>-6.552961905764522</v>
       </c>
       <c r="C131" t="n">
-        <v>0.01372760006218017</v>
+        <v>13.73413788522288</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.004792685603700728</v>
+        <v>-4.901421910053176</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>221.1521592140198</v>
+        <v>221.1616394519806</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.006153957669786663</v>
+        <v>-6.1788589993845</v>
       </c>
       <c r="C132" t="n">
-        <v>0.01410381315147224</v>
+        <v>14.10300638126677</v>
       </c>
       <c r="D132" t="n">
-        <v>0.01110773478465464</v>
+        <v>10.89191402901077</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>222.5804872512817</v>
+        <v>222.5958206653595</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.00539240409978823</v>
+        <v>-5.39240409978823</v>
       </c>
       <c r="C133" t="n">
-        <v>0.01481772211678875</v>
+        <v>14.81772211678875</v>
       </c>
       <c r="D133" t="n">
-        <v>0.02688376625253321</v>
+        <v>26.88376625253321</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>224.9802696704865</v>
+        <v>225.0007989406586</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.007896130966427006</v>
+        <v>-7.887275758902017</v>
       </c>
       <c r="C134" t="n">
-        <v>0.02882757357790916</v>
+        <v>28.85947051626449</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.02130496028771615</v>
+        <v>-21.3002302158431</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>226.4138066768646</v>
+        <v>226.4280636310577</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.006992926427647668</v>
+        <v>-6.759891834441012</v>
       </c>
       <c r="C135" t="n">
-        <v>0.02933717885408174</v>
+        <v>29.28995958274049</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.004704398744495879</v>
+        <v>-5.150707721320431</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>227.8448376655579</v>
+        <v>227.8599581718445</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.006146093219013824</v>
+        <v>-6.158653747977096</v>
       </c>
       <c r="C136" t="n">
-        <v>0.03001323606855061</v>
+        <v>30.0139568402733</v>
       </c>
       <c r="D136" t="n">
-        <v>0.01096324132018145</v>
+        <v>10.85534397698463</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>229.2742276191711</v>
+        <v>229.2921118736267</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.005606757507804577</v>
+        <v>-5.858171418104732</v>
       </c>
       <c r="C137" t="n">
-        <v>0.03026804049315919</v>
+        <v>30.30114791897329</v>
       </c>
       <c r="D137" t="n">
-        <v>0.02684892391927547</v>
+        <v>26.81433657890619</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>231.6723093986511</v>
+        <v>231.6915957927704</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.007846694818762854</v>
+        <v>-7.859302497994785</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0446660802491068</v>
+        <v>44.63858369746335</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.02100280313259298</v>
+        <v>-21.3581117852504</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>233.1009044647217</v>
+        <v>233.1213991641998</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.006925101297458148</v>
+        <v>-6.944239552019581</v>
       </c>
       <c r="C139" t="n">
-        <v>0.04488623695337418</v>
+        <v>44.90684954308767</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.004904613701146427</v>
+        <v>-5.231424507539758</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>234.5300462245941</v>
+        <v>234.5556509494781</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.006075681155351027</v>
+        <v>-6.078505287698774</v>
       </c>
       <c r="C140" t="n">
-        <v>0.04549713135218914</v>
+        <v>45.4925149696496</v>
       </c>
       <c r="D140" t="n">
-        <v>0.01103100280948635</v>
+        <v>10.7988082890266</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>235.9586062431335</v>
+        <v>235.9859712123871</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.005754385961257871</v>
+        <v>-5.798439000373431</v>
       </c>
       <c r="C141" t="n">
-        <v>0.04574929629488479</v>
+        <v>45.95267753157516</v>
       </c>
       <c r="D141" t="n">
-        <v>0.02682483400995311</v>
+        <v>26.61905107751173</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>239.3865661621094</v>
+        <v>239.4153974056244</v>
       </c>
       <c r="B142" t="n">
-        <v>0.007344473419873205</v>
+        <v>7.367611028602622</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.04934863851993547</v>
+        <v>-48.94294682385636</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.02055303233341741</v>
+        <v>-20.86804260618284</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>240.8173975944519</v>
+        <v>240.8445112705231</v>
       </c>
       <c r="B143" t="n">
-        <v>0.008472478408476591</v>
+        <v>8.458962074459686</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.04850318252106281</v>
+        <v>-48.51503290491273</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.004772003979859</v>
+        <v>-5.125898894147291</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>242.254772901535</v>
+        <v>242.2785315513611</v>
       </c>
       <c r="B144" t="n">
-        <v>0.009591722118962814</v>
+        <v>9.402774081427946</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.04766710562471396</v>
+        <v>-47.71965337140928</v>
       </c>
       <c r="D144" t="n">
-        <v>0.01074471780812372</v>
+        <v>10.55058580959426</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>243.6841571331024</v>
+        <v>243.7144198417664</v>
       </c>
       <c r="B145" t="n">
-        <v>0.01052947916652563</v>
+        <v>10.49619439108652</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.046712830370558</v>
+        <v>-46.9243661934585</v>
       </c>
       <c r="D145" t="n">
-        <v>0.02637027687155532</v>
+        <v>26.26121651201512</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>246.0831670761108</v>
+        <v>246.1134760379791</v>
       </c>
       <c r="B146" t="n">
-        <v>0.00758845539269235</v>
+        <v>7.599314611529359</v>
       </c>
       <c r="C146" t="n">
-        <v>-0.03319945875130706</v>
+        <v>-33.16863287139858</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.02105654283455091</v>
+        <v>-21.44607277050368</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>247.5134234428406</v>
+        <v>247.5455350875854</v>
       </c>
       <c r="B147" t="n">
-        <v>0.008524301202008935</v>
+        <v>8.521020752748806</v>
       </c>
       <c r="C147" t="n">
-        <v>-0.03290292061416511</v>
+        <v>-32.71977910297993</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.004919512098035319</v>
+        <v>-5.296849332377104</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>248.9425938129425</v>
+        <v>248.9744474887848</v>
       </c>
       <c r="B148" t="n">
-        <v>0.009445946826078064</v>
+        <v>9.438718452490276</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.03203228719327966</v>
+        <v>-32.03909480127595</v>
       </c>
       <c r="D148" t="n">
-        <v>0.01068309572557286</v>
+        <v>10.49824603004451</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>250.372540473938</v>
+        <v>250.4034986495972</v>
       </c>
       <c r="B149" t="n">
-        <v>0.01030199602836618</v>
+        <v>10.28253454780543</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.03124794394624666</v>
+        <v>-31.44826010186215</v>
       </c>
       <c r="D149" t="n">
-        <v>0.02616868800170573</v>
+        <v>26.10991208212155</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>252.7743003368378</v>
+        <v>252.8069443702698</v>
       </c>
       <c r="B150" t="n">
-        <v>0.007671214150682545</v>
+        <v>7.692055486422773</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.01767672160353365</v>
+        <v>-17.45184134987679</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.02128158710535571</v>
+        <v>-21.50015617910165</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>254.2045838832855</v>
+        <v>254.2379558086395</v>
       </c>
       <c r="B151" t="n">
-        <v>0.008592548973756543</v>
+        <v>8.608294646524433</v>
       </c>
       <c r="C151" t="n">
-        <v>-0.01730080961219328</v>
+        <v>-16.92380097240537</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.005265782630954632</v>
+        <v>-5.37186089721405</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>255.6340141296387</v>
+        <v>255.6685416698456</v>
       </c>
       <c r="B152" t="n">
-        <v>0.009507108368102823</v>
+        <v>9.507108368102823</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.01636074675795338</v>
+        <v>-16.36074675795338</v>
       </c>
       <c r="D152" t="n">
-        <v>0.0104131239779909</v>
+        <v>10.4131239779909</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>257.0644142627716</v>
+        <v>257.0971176624298</v>
       </c>
       <c r="B153" t="n">
-        <v>0.01033630163725023</v>
+        <v>10.29995224517118</v>
       </c>
       <c r="C153" t="n">
-        <v>-0.01549375829882665</v>
+        <v>-15.89055594989811</v>
       </c>
       <c r="D153" t="n">
-        <v>0.02638288592407119</v>
+        <v>26.26673986705586</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>259.4659864902496</v>
+        <v>259.4981255531311</v>
       </c>
       <c r="B154" t="n">
-        <v>0.007631460375051424</v>
+        <v>7.635556436257409</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.001970551803969128</v>
+        <v>-1.762647080345209</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.02111999590904356</v>
+        <v>-21.73928323393055</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>260.8946990966797</v>
+        <v>260.928679227829</v>
       </c>
       <c r="B155" t="n">
-        <v>0.008540557240283551</v>
+        <v>8.759172605086903</v>
       </c>
       <c r="C155" t="n">
-        <v>-0.001523980634597979</v>
+        <v>-1.328977508487317</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.005339009913504692</v>
+        <v>-5.343765508056802</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>262.3199851512909</v>
+        <v>262.3593723773956</v>
       </c>
       <c r="B156" t="n">
-        <v>0.009406927334904679</v>
+        <v>9.422484935882679</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.00126790900335283</v>
+        <v>-1.077660667984287</v>
       </c>
       <c r="D156" t="n">
-        <v>0.01050009007579876</v>
+        <v>10.4002469944789</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>263.7479677200317</v>
+        <v>263.7878942489624</v>
       </c>
       <c r="B157" t="n">
-        <v>0.01023223689772937</v>
+        <v>10.24017736907591</v>
       </c>
       <c r="C157" t="n">
-        <v>-0.0005954883068598135</v>
+        <v>-0.5007268459635283</v>
       </c>
       <c r="D157" t="n">
-        <v>0.02635754745981238</v>
+        <v>26.11037088717855</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>266.1473569869995</v>
+        <v>266.187007188797</v>
       </c>
       <c r="B158" t="n">
-        <v>0.007870835762980786</v>
+        <v>7.62219944859617</v>
       </c>
       <c r="C158" t="n">
-        <v>0.0134837170594645</v>
+        <v>13.63504901760571</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.021253849400661</v>
+        <v>-21.60074763228696</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>267.5767800807953</v>
+        <v>267.6164066791534</v>
       </c>
       <c r="B159" t="n">
-        <v>0.008790595795398617</v>
+        <v>8.780316414370795</v>
       </c>
       <c r="C159" t="n">
-        <v>0.01383765558117052</v>
+        <v>13.83701880037194</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.005324549319279033</v>
+        <v>-5.63352753372819</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>269.0077271461487</v>
+        <v>269.04616355896</v>
       </c>
       <c r="B160" t="n">
-        <v>0.009219971072204214</v>
+        <v>9.20437174298778</v>
       </c>
       <c r="C160" t="n">
-        <v>0.01461921058333458</v>
+        <v>14.61373378959818</v>
       </c>
       <c r="D160" t="n">
-        <v>0.01048596900697411</v>
+        <v>10.17757857040753</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>270.4422097206116</v>
+        <v>270.4770319461823</v>
       </c>
       <c r="B161" t="n">
-        <v>0.01001176009857056</v>
+        <v>10.00976357051922</v>
       </c>
       <c r="C161" t="n">
-        <v>0.01490103263278575</v>
+        <v>14.89805196324298</v>
       </c>
       <c r="D161" t="n">
-        <v>0.02626143596056898</v>
+        <v>26.05309628369093</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>272.8413028717041</v>
+        <v>272.8782601356506</v>
       </c>
       <c r="B162" t="n">
-        <v>0.007547760236045223</v>
+        <v>7.896134395074784</v>
       </c>
       <c r="C162" t="n">
-        <v>0.02878808471329056</v>
+        <v>28.88932346219723</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.02159868142037709</v>
+        <v>-21.86908206855414</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>274.2710628509521</v>
+        <v>274.3084962368011</v>
       </c>
       <c r="B163" t="n">
-        <v>0.008968128473639158</v>
+        <v>8.720130450431673</v>
       </c>
       <c r="C163" t="n">
-        <v>0.02938213630387896</v>
+        <v>29.42857656736305</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.005505134299982117</v>
+        <v>-5.659401708341036</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>275.7022931575775</v>
+        <v>275.7374014854431</v>
       </c>
       <c r="B164" t="n">
-        <v>0.009356396962933186</v>
+        <v>9.333566934229793</v>
       </c>
       <c r="C164" t="n">
-        <v>0.0297121354237144</v>
+        <v>29.71228580120833</v>
       </c>
       <c r="D164" t="n">
-        <v>0.01044133986903338</v>
+        <v>10.24175815261995</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>277.1319546699524</v>
+        <v>277.1678681373596</v>
       </c>
       <c r="B165" t="n">
-        <v>0.009793865073039358</v>
+        <v>9.931037868375443</v>
       </c>
       <c r="C165" t="n">
-        <v>0.03034750485062569</v>
+        <v>30.33121393613089</v>
       </c>
       <c r="D165" t="n">
-        <v>0.02633566596399741</v>
+        <v>26.20835609802287</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>279.5322473049164</v>
+        <v>279.5715410709381</v>
       </c>
       <c r="B166" t="n">
-        <v>0.007613853661967804</v>
+        <v>7.620081196705267</v>
       </c>
       <c r="C166" t="n">
-        <v>0.04440884626524139</v>
+        <v>44.60135925448412</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.02175590951507102</v>
+        <v>-21.76736195688371</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>280.9610593318939</v>
+        <v>280.9919395446777</v>
       </c>
       <c r="B167" t="n">
-        <v>0.008565574840409304</v>
+        <v>8.562521542225083</v>
       </c>
       <c r="C167" t="n">
-        <v>0.04482119888908455</v>
+        <v>45.01360073692845</v>
       </c>
       <c r="D167" t="n">
-        <v>-0.005547647127048575</v>
+        <v>-5.878127886411643</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>282.3934240341187</v>
+        <v>282.4239130020142</v>
       </c>
       <c r="B168" t="n">
-        <v>0.009454162468741921</v>
+        <v>9.456718635856713</v>
       </c>
       <c r="C168" t="n">
-        <v>0.04517641916503443</v>
+        <v>45.56145651422315</v>
       </c>
       <c r="D168" t="n">
-        <v>0.01026042153848947</v>
+        <v>10.16157460843061</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>283.8244323730469</v>
+        <v>283.851546049118</v>
       </c>
       <c r="B169" t="n">
-        <v>0.009754610925520251</v>
+        <v>9.7901266334386</v>
       </c>
       <c r="C169" t="n">
-        <v>0.0457971012591156</v>
+        <v>45.80188720593226</v>
       </c>
       <c r="D169" t="n">
-        <v>0.02597023978364918</v>
+        <v>25.94357559760502</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>287.2522385120392</v>
+        <v>287.28697681427</v>
       </c>
       <c r="B170" t="n">
-        <v>0.02289840826497541</v>
+        <v>22.96451435146028</v>
       </c>
       <c r="C170" t="n">
-        <v>-0.04880943965087697</v>
+        <v>-48.4221756653011</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.02124786036884053</v>
+        <v>-21.37372971904937</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>288.6803424358368</v>
+        <v>288.7170271873474</v>
       </c>
       <c r="B171" t="n">
-        <v>0.0237277691387116</v>
+        <v>23.40378053566533</v>
       </c>
       <c r="C171" t="n">
-        <v>-0.04791411009915614</v>
+        <v>-47.90615524786</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.005393042631293821</v>
+        <v>-5.574436801121451</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>290.1087167263031</v>
+        <v>290.1464993953705</v>
       </c>
       <c r="B172" t="n">
-        <v>0.02480173779880672</v>
+        <v>24.78864349605904</v>
       </c>
       <c r="C172" t="n">
-        <v>-0.04703760581808908</v>
+        <v>-47.04431436326194</v>
       </c>
       <c r="D172" t="n">
-        <v>0.01006826115479989</v>
+        <v>9.976609882436794</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>291.5406103134155</v>
+        <v>291.5774023532867</v>
       </c>
       <c r="B173" t="n">
-        <v>0.02546091443769791</v>
+        <v>25.62668331050173</v>
       </c>
       <c r="C173" t="n">
-        <v>-0.04665432685661969</v>
+        <v>-46.28722378045212</v>
       </c>
       <c r="D173" t="n">
-        <v>0.02604641864212713</v>
+        <v>25.87052858441013</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>293.9407482147217</v>
+        <v>293.9783692359924</v>
       </c>
       <c r="B174" t="n">
-        <v>0.02287746932623588</v>
+        <v>22.89764547280869</v>
       </c>
       <c r="C174" t="n">
-        <v>-0.03287533712093907</v>
+        <v>-32.8400977028525</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.02149678381228924</v>
+        <v>-21.68464359379315</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>295.3701293468475</v>
+        <v>295.4099750518799</v>
       </c>
       <c r="B175" t="n">
-        <v>0.02377809524957007</v>
+        <v>23.77809524957006</v>
       </c>
       <c r="C175" t="n">
-        <v>-0.03210484250948692</v>
+        <v>-32.10484250948692</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.005747867630420668</v>
+        <v>-5.747867630420668</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>296.8006417751312</v>
+        <v>296.8412609100342</v>
       </c>
       <c r="B176" t="n">
-        <v>0.02477247656385555</v>
+        <v>24.77247656385555</v>
       </c>
       <c r="C176" t="n">
-        <v>-0.03139910449404121</v>
+        <v>-31.39910449404121</v>
       </c>
       <c r="D176" t="n">
-        <v>0.009817254222880337</v>
+        <v>9.817254222880337</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>298.2330687046051</v>
+        <v>298.2720041275024</v>
       </c>
       <c r="B177" t="n">
-        <v>0.02572687194972209</v>
+        <v>25.70354088949069</v>
       </c>
       <c r="C177" t="n">
-        <v>-0.03074920597745015</v>
+        <v>-30.765307215951</v>
       </c>
       <c r="D177" t="n">
-        <v>0.02563158761433734</v>
+        <v>25.54106818073336</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>300.6354939937592</v>
+        <v>300.6698544025421</v>
       </c>
       <c r="B178" t="n">
-        <v>0.02304514769488355</v>
+        <v>23.04514769488355</v>
       </c>
       <c r="C178" t="n">
-        <v>-0.01731084325206561</v>
+        <v>-17.31084325206561</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.02191050248867917</v>
+        <v>-21.91050248867917</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>302.0653939247131</v>
+        <v>302.1003699302673</v>
       </c>
       <c r="B179" t="n">
-        <v>0.02408263334767546</v>
+        <v>24.08027358879555</v>
       </c>
       <c r="C179" t="n">
-        <v>-0.01667696830525327</v>
+        <v>-16.67110610452127</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.005897448726661595</v>
+        <v>-5.990108531092946</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>303.4968852996826</v>
+        <v>303.5372512340546</v>
       </c>
       <c r="B180" t="n">
-        <v>0.02464115063751847</v>
+        <v>24.64115063751847</v>
       </c>
       <c r="C180" t="n">
-        <v>-0.01610729460348756</v>
+        <v>-16.10729460348756</v>
       </c>
       <c r="D180" t="n">
-        <v>0.009906369095143754</v>
+        <v>9.906369095143754</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>304.927166223526</v>
+        <v>304.966897726059</v>
       </c>
       <c r="B181" t="n">
-        <v>0.02561039353942026</v>
+        <v>25.52463502970911</v>
       </c>
       <c r="C181" t="n">
-        <v>-0.01523389726325253</v>
+        <v>-15.61503924138752</v>
       </c>
       <c r="D181" t="n">
-        <v>0.02540734361335563</v>
+        <v>25.21332162739821</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>307.3279318809509</v>
+        <v>307.3680610656738</v>
       </c>
       <c r="B182" t="n">
-        <v>0.02323996614591591</v>
+        <v>23.04128822579877</v>
       </c>
       <c r="C182" t="n">
-        <v>-0.001823004270872092</v>
+        <v>-1.789712993243348</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.02185660366780702</v>
+        <v>-22.34230427031433</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>308.7571427822113</v>
+        <v>308.7985119819641</v>
       </c>
       <c r="B183" t="n">
-        <v>0.02405331573016154</v>
+        <v>24.0340096359894</v>
       </c>
       <c r="C183" t="n">
-        <v>-0.001248823366655688</v>
+        <v>-1.432847853471475</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.006157428189195441</v>
+        <v>-6.058830787705429</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>310.1864697933197</v>
+        <v>310.2292230129242</v>
       </c>
       <c r="B184" t="n">
-        <v>0.0249809577383158</v>
+        <v>24.98095773831579</v>
       </c>
       <c r="C184" t="n">
-        <v>-0.0007937480397299246</v>
+        <v>-0.7937480397299246</v>
       </c>
       <c r="D184" t="n">
-        <v>0.009778548678113418</v>
+        <v>9.778548678113417</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>311.6194653511047</v>
+        <v>311.6592288017273</v>
       </c>
       <c r="B185" t="n">
-        <v>0.0256039534036466</v>
+        <v>25.70811072463616</v>
       </c>
       <c r="C185" t="n">
-        <v>-0.0004196617696132221</v>
+        <v>-0.4196564565876748</v>
       </c>
       <c r="D185" t="n">
-        <v>0.02530039616142907</v>
+        <v>25.29219197738739</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>314.0193083286285</v>
+        <v>314.0581727027893</v>
       </c>
       <c r="B186" t="n">
-        <v>0.02316170524297214</v>
+        <v>23.1485404902802</v>
       </c>
       <c r="C186" t="n">
-        <v>0.01371478280220563</v>
+        <v>13.69397037001013</v>
       </c>
       <c r="D186" t="n">
-        <v>-0.02212913742186467</v>
+        <v>-22.23643264910345</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>315.4532201290131</v>
+        <v>315.4874053001404</v>
       </c>
       <c r="B187" t="n">
-        <v>0.02415206294571303</v>
+        <v>24.1487578593735</v>
       </c>
       <c r="C187" t="n">
-        <v>0.01412491306945451</v>
+        <v>14.13029143715844</v>
       </c>
       <c r="D187" t="n">
-        <v>-0.006074886495643543</v>
+        <v>-6.167479876479599</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>316.8831470012665</v>
+        <v>316.9173216819763</v>
       </c>
       <c r="B188" t="n">
-        <v>0.0250622507957622</v>
+        <v>25.0622507957622</v>
       </c>
       <c r="C188" t="n">
-        <v>0.0144822741860943</v>
+        <v>14.4822741860943</v>
       </c>
       <c r="D188" t="n">
-        <v>0.009628336877795693</v>
+        <v>9.628336877795693</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>318.3167216777802</v>
+        <v>318.3503577709198</v>
       </c>
       <c r="B189" t="n">
-        <v>0.02547866650985564</v>
+        <v>25.42327998661963</v>
       </c>
       <c r="C189" t="n">
-        <v>0.0151554764989052</v>
+        <v>14.79806857584526</v>
       </c>
       <c r="D189" t="n">
-        <v>0.02541833601420413</v>
+        <v>25.31675274968284</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>320.7166728973389</v>
+        <v>320.7502059936523</v>
       </c>
       <c r="B190" t="n">
-        <v>0.02342936033800636</v>
+        <v>23.1779833898573</v>
       </c>
       <c r="C190" t="n">
-        <v>0.02848667178338693</v>
+        <v>28.49733340694206</v>
       </c>
       <c r="D190" t="n">
-        <v>-0.02198942958022797</v>
+        <v>-22.02736966488075</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>322.1461083889008</v>
+        <v>322.1831374168396</v>
       </c>
       <c r="B191" t="n">
-        <v>0.02419237573222493</v>
+        <v>24.1864164545631</v>
       </c>
       <c r="C191" t="n">
-        <v>0.02915720862992131</v>
+        <v>29.15062573271494</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.005896985907243367</v>
+        <v>-6.105083279289795</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>323.5766551494598</v>
+        <v>323.6129248142242</v>
       </c>
       <c r="B192" t="n">
-        <v>0.02508506398613055</v>
+        <v>25.1307238190161</v>
       </c>
       <c r="C192" t="n">
-        <v>0.02940197314850282</v>
+        <v>29.7467062497814</v>
       </c>
       <c r="D192" t="n">
-        <v>0.009564183375530192</v>
+        <v>9.447662703131044</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>325.0074632167816</v>
+        <v>325.0444581508636</v>
       </c>
       <c r="B193" t="n">
-        <v>0.02569258280061257</v>
+        <v>25.50990742448528</v>
       </c>
       <c r="C193" t="n">
-        <v>0.02998153742116116</v>
+        <v>30.20493502984678</v>
       </c>
       <c r="D193" t="n">
-        <v>0.02541191582714804</v>
+        <v>25.4101713433216</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>327.4065372943878</v>
+        <v>327.4443907737732</v>
       </c>
       <c r="B194" t="n">
-        <v>0.02328113225429989</v>
+        <v>23.306265713158</v>
       </c>
       <c r="C194" t="n">
-        <v>0.04394098331816608</v>
+        <v>44.27952702486712</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.02207262121661898</v>
+        <v>-22.30841049425435</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>328.8353614807129</v>
+        <v>328.8741483688354</v>
       </c>
       <c r="B195" t="n">
-        <v>0.02403938915569891</v>
+        <v>24.28610658294042</v>
       </c>
       <c r="C195" t="n">
-        <v>0.04457209492988187</v>
+        <v>44.50083886369539</v>
       </c>
       <c r="D195" t="n">
-        <v>-0.005995629988686728</v>
+        <v>-6.206689447092494</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>330.2635877132416</v>
+        <v>330.3062579631805</v>
       </c>
       <c r="B196" t="n">
-        <v>0.02497659282093568</v>
+        <v>24.96409876032055</v>
       </c>
       <c r="C196" t="n">
-        <v>0.04506947996408904</v>
+        <v>45.066061426902</v>
       </c>
       <c r="D196" t="n">
-        <v>0.009798974689486668</v>
+        <v>9.491688805355867</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>331.6950125694275</v>
+        <v>331.7403044700623</v>
       </c>
       <c r="B197" t="n">
-        <v>0.02580322838945871</v>
+        <v>25.56964068135192</v>
       </c>
       <c r="C197" t="n">
-        <v>0.04551181321532707</v>
+        <v>45.58121864476354</v>
       </c>
       <c r="D197" t="n">
-        <v>0.02536331581605142</v>
+        <v>25.47591851153969</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>335.1256473064423</v>
+        <v>335.1700508594513</v>
       </c>
       <c r="B198" t="n">
-        <v>0.03787498748310568</v>
+        <v>37.94915469446505</v>
       </c>
       <c r="C198" t="n">
-        <v>-0.04849736291901571</v>
+        <v>-48.16145740830911</v>
       </c>
       <c r="D198" t="n">
-        <v>-0.02178020191168487</v>
+        <v>-21.96939360974152</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>336.5561001300812</v>
+        <v>336.6012122631073</v>
       </c>
       <c r="B199" t="n">
-        <v>0.03905044676992085</v>
+        <v>38.96956073211275</v>
       </c>
       <c r="C199" t="n">
-        <v>-0.04744481479449841</v>
+        <v>-47.12802138112671</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.006067048513370832</v>
+        <v>-6.251587946438407</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>337.9876613616943</v>
+        <v>338.0313074588776</v>
       </c>
       <c r="B200" t="n">
-        <v>0.04012080774462696</v>
+        <v>40.21560358217349</v>
       </c>
       <c r="C200" t="n">
-        <v>-0.04647167066594449</v>
+        <v>-46.12197401413161</v>
       </c>
       <c r="D200" t="n">
-        <v>0.009386410428405248</v>
+        <v>9.307341949798838</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>339.4205582141876</v>
+        <v>339.4599332809448</v>
       </c>
       <c r="B201" t="n">
-        <v>0.04124973624493045</v>
+        <v>41.24973624493045</v>
       </c>
       <c r="C201" t="n">
-        <v>-0.04559212650004763</v>
+        <v>-45.59212650004763</v>
       </c>
       <c r="D201" t="n">
-        <v>0.02500212789798199</v>
+        <v>25.00212789798199</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>341.8206884860992</v>
+        <v>341.8587267398834</v>
       </c>
       <c r="B202" t="n">
-        <v>0.0385444907098238</v>
+        <v>38.6048493405328</v>
       </c>
       <c r="C202" t="n">
-        <v>-0.03248729219630167</v>
+        <v>-32.29138664763622</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.02242086521955028</v>
+        <v>-22.34963083599851</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>343.2498106956482</v>
+        <v>343.2890975475311</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0394569529771677</v>
+        <v>39.4480726707382</v>
       </c>
       <c r="C203" t="n">
-        <v>-0.03160971911221581</v>
+        <v>-31.62475330294667</v>
       </c>
       <c r="D203" t="n">
-        <v>-0.006346892812225701</v>
+        <v>-6.431467815304165</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>344.6801996231079</v>
+        <v>344.7177913188934</v>
       </c>
       <c r="B204" t="n">
-        <v>0.04021684790692176</v>
+        <v>40.21684790692176</v>
       </c>
       <c r="C204" t="n">
-        <v>-0.03087712086113228</v>
+        <v>-30.87712086113228</v>
       </c>
       <c r="D204" t="n">
-        <v>0.00929862035406942</v>
+        <v>9.298620354069421</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>346.1109738349915</v>
+        <v>346.1485319137573</v>
       </c>
       <c r="B205" t="n">
-        <v>0.04127557771388871</v>
+        <v>41.37300866124264</v>
       </c>
       <c r="C205" t="n">
-        <v>-0.03020977419079744</v>
+        <v>-30.19107765308314</v>
       </c>
       <c r="D205" t="n">
-        <v>0.02503408347995969</v>
+        <v>24.81489446930091</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>348.5135536193848</v>
+        <v>348.5501010417938</v>
       </c>
       <c r="B206" t="n">
-        <v>0.03843809330013256</v>
+        <v>38.47656259668762</v>
       </c>
       <c r="C206" t="n">
-        <v>-0.01699992453519314</v>
+        <v>-16.94454710213569</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.02234109141913463</v>
+        <v>-22.42034775297316</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>349.9469709396362</v>
+        <v>349.9812738895416</v>
       </c>
       <c r="B207" t="n">
-        <v>0.03944204275685016</v>
+        <v>39.44918127598942</v>
       </c>
       <c r="C207" t="n">
-        <v>-0.01623942077512057</v>
+        <v>-16.22561844673953</v>
       </c>
       <c r="D207" t="n">
-        <v>-0.006427077261807245</v>
+        <v>-6.334679753665037</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>351.376357793808</v>
+        <v>351.4107420444489</v>
       </c>
       <c r="B208" t="n">
-        <v>0.04030141603955627</v>
+        <v>40.30141603955627</v>
       </c>
       <c r="C208" t="n">
-        <v>-0.01562368398420133</v>
+        <v>-15.62368398420133</v>
       </c>
       <c r="D208" t="n">
-        <v>0.009178519917999103</v>
+        <v>9.178519917999104</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>352.8077418804169</v>
+        <v>352.8418476581573</v>
       </c>
       <c r="B209" t="n">
-        <v>0.04162408581525717</v>
+        <v>41.1981695644664</v>
       </c>
       <c r="C209" t="n">
-        <v>-0.0149201234675696</v>
+        <v>-15.11845653987504</v>
       </c>
       <c r="D209" t="n">
-        <v>0.02480928898717131</v>
+        <v>24.83596380708834</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>355.2064361572266</v>
+        <v>355.2420268058777</v>
       </c>
       <c r="B210" t="n">
-        <v>0.03864380537985024</v>
+        <v>38.72068927024586</v>
       </c>
       <c r="C210" t="n">
-        <v>-0.001828641780337897</v>
+        <v>-1.479548510674389</v>
       </c>
       <c r="D210" t="n">
-        <v>-0.02246855736035529</v>
+        <v>-22.65988469207153</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>356.6366362571716</v>
+        <v>356.6715123653412</v>
       </c>
       <c r="B211" t="n">
-        <v>0.03957645679208057</v>
+        <v>39.57454565784509</v>
       </c>
       <c r="C211" t="n">
-        <v>-0.001199812256790583</v>
+        <v>-1.194799571266322</v>
       </c>
       <c r="D211" t="n">
-        <v>-0.006500636870172004</v>
+        <v>-6.58511897303378</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>358.0646507740021</v>
+        <v>358.1025292873383</v>
       </c>
       <c r="B212" t="n">
-        <v>0.04057264964259594</v>
+        <v>40.62671217145023</v>
       </c>
       <c r="C212" t="n">
-        <v>-0.000702741332652107</v>
+        <v>-0.3815090136562033</v>
       </c>
       <c r="D212" t="n">
-        <v>0.009221633159622239</v>
+        <v>9.137154086427822</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>359.4965045452118</v>
+        <v>359.534939289093</v>
       </c>
       <c r="B213" t="n">
-        <v>0.04101575442296491</v>
+        <v>41.04688123587795</v>
       </c>
       <c r="C213" t="n">
-        <v>-0.000320624336369757</v>
+        <v>-0.015249147321518</v>
       </c>
       <c r="D213" t="n">
-        <v>0.02482520183631776</v>
+        <v>24.71025621998846</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>361.8998486995697</v>
+        <v>361.9337329864502</v>
       </c>
       <c r="B214" t="n">
-        <v>0.03843060899985488</v>
+        <v>38.89786631037651</v>
       </c>
       <c r="C214" t="n">
-        <v>0.01368459020810323</v>
+        <v>13.67755806884043</v>
       </c>
       <c r="D214" t="n">
-        <v>-0.02267124850130637</v>
+        <v>-22.52087742363907</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>363.317702293396</v>
+        <v>363.3641309738159</v>
       </c>
       <c r="B215" t="n">
-        <v>0.03951154932318932</v>
+        <v>39.47906235009808</v>
       </c>
       <c r="C215" t="n">
-        <v>0.01414890142454461</v>
+        <v>13.99366631934912</v>
       </c>
       <c r="D215" t="n">
-        <v>-0.006619639462486807</v>
+        <v>-6.699202119548365</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>364.7491888999939</v>
+        <v>364.7943048477173</v>
       </c>
       <c r="B216" t="n">
-        <v>0.04046989698791241</v>
+        <v>40.67422567743717</v>
       </c>
       <c r="C216" t="n">
-        <v>0.01452338742112348</v>
+        <v>14.50465911980665</v>
       </c>
       <c r="D216" t="n">
-        <v>0.009170416393604761</v>
+        <v>9.187800344353212</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>366.1807119846344</v>
+        <v>366.2291443347931</v>
       </c>
       <c r="B217" t="n">
-        <v>0.04137344470164748</v>
+        <v>41.31818809915309</v>
       </c>
       <c r="C217" t="n">
-        <v>0.01511726933307331</v>
+        <v>15.09532385235163</v>
       </c>
       <c r="D217" t="n">
-        <v>0.02468931890561172</v>
+        <v>24.63498213011715</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>368.5858807563782</v>
+        <v>368.6328980922699</v>
       </c>
       <c r="B218" t="n">
-        <v>0.03880459403470332</v>
+        <v>38.55426427298844</v>
       </c>
       <c r="C218" t="n">
-        <v>0.02846983362189603</v>
+        <v>28.4837735385387</v>
       </c>
       <c r="D218" t="n">
-        <v>-0.02246160403594138</v>
+        <v>-22.50911153885565</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>370.0163662433624</v>
+        <v>370.0613677501678</v>
       </c>
       <c r="B219" t="n">
-        <v>0.03986237540096535</v>
+        <v>39.85616347936472</v>
       </c>
       <c r="C219" t="n">
-        <v>0.02894825757621407</v>
+        <v>28.94063183330826</v>
       </c>
       <c r="D219" t="n">
-        <v>-0.006652983083628161</v>
+        <v>-6.852511410609982</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>371.4455020427704</v>
+        <v>371.4903366565704</v>
       </c>
       <c r="B220" t="n">
-        <v>0.04034255389796008</v>
+        <v>40.60426265277604</v>
       </c>
       <c r="C220" t="n">
-        <v>0.02944844300907058</v>
+        <v>29.5620830995548</v>
       </c>
       <c r="D220" t="n">
-        <v>0.009020025097801464</v>
+        <v>9.011247866039987</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>372.8766899108887</v>
+        <v>372.9187076091766</v>
       </c>
       <c r="B221" t="n">
-        <v>0.04122852145618677</v>
+        <v>41.19482224959346</v>
       </c>
       <c r="C221" t="n">
-        <v>0.0299382826777648</v>
+        <v>29.92725199631382</v>
       </c>
       <c r="D221" t="n">
-        <v>0.02469696328140671</v>
+        <v>24.53250936099419</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>375.2767367362976</v>
+        <v>375.3199772834778</v>
       </c>
       <c r="B222" t="n">
-        <v>0.0388851844722318</v>
+        <v>38.92263260273889</v>
       </c>
       <c r="C222" t="n">
-        <v>0.04354290998485155</v>
+        <v>43.83428358941402</v>
       </c>
       <c r="D222" t="n">
-        <v>-0.02250835183816867</v>
+        <v>-22.64745879507069</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>376.7047426700592</v>
+        <v>376.7485191822052</v>
       </c>
       <c r="B223" t="n">
-        <v>0.03995187933636282</v>
+        <v>40.00144088258087</v>
       </c>
       <c r="C223" t="n">
-        <v>0.04408231949702526</v>
+        <v>44.38045853094071</v>
       </c>
       <c r="D223" t="n">
-        <v>-0.006640353572662085</v>
+        <v>-6.771964426346374</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>378.1340410709381</v>
+        <v>378.1808030605316</v>
       </c>
       <c r="B224" t="n">
-        <v>0.04042344667747784</v>
+        <v>40.39503769177195</v>
       </c>
       <c r="C224" t="n">
-        <v>0.04466914247485596</v>
+        <v>44.67498120200389</v>
       </c>
       <c r="D224" t="n">
-        <v>0.009015714638836266</v>
+        <v>8.972586146069279</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>379.564813375473</v>
+        <v>379.6101593971252</v>
       </c>
       <c r="B225" t="n">
-        <v>0.04133514848182838</v>
+        <v>41.28700732232635</v>
       </c>
       <c r="C225" t="n">
-        <v>0.0453669947875372</v>
+        <v>45.05963842819718</v>
       </c>
       <c r="D225" t="n">
-        <v>0.02462917709964087</v>
+        <v>24.6228271300325</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>382.9966042041779</v>
+        <v>383.0454971790314</v>
       </c>
       <c r="B226" t="n">
-        <v>0.05273874236028397</v>
+        <v>52.81497566605642</v>
       </c>
       <c r="C226" t="n">
-        <v>-0.04796347650460056</v>
+        <v>-47.6764218010761</v>
       </c>
       <c r="D226" t="n">
-        <v>-0.02258485363495084</v>
+        <v>-22.6844273878322</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>384.4322166442871</v>
+        <v>384.476105928421</v>
       </c>
       <c r="B227" t="n">
-        <v>0.05454923034401846</v>
+        <v>54.66806816939222</v>
       </c>
       <c r="C227" t="n">
-        <v>-0.04669308714130534</v>
+        <v>-46.36173618903874</v>
       </c>
       <c r="D227" t="n">
-        <v>-0.006809479873366418</v>
+        <v>-6.822924676068915</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>385.8622560501099</v>
+        <v>385.905219078064</v>
       </c>
       <c r="B228" t="n">
-        <v>0.05612002974996625</v>
+        <v>56.3095030050243</v>
       </c>
       <c r="C228" t="n">
-        <v>-0.04529214856887154</v>
+        <v>-45.23386148297408</v>
       </c>
       <c r="D228" t="n">
-        <v>0.008833831607869767</v>
+        <v>8.749133565262571</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>387.2934174537659</v>
+        <v>387.3340034484863</v>
       </c>
       <c r="B229" t="n">
-        <v>0.05733080421307881</v>
+        <v>57.27753260121472</v>
       </c>
       <c r="C229" t="n">
-        <v>-0.0442481458348659</v>
+        <v>-44.40688652738381</v>
       </c>
       <c r="D229" t="n">
-        <v>0.02445766484317152</v>
+        <v>24.45374069029236</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>389.6955499649048</v>
+        <v>389.7331695556641</v>
       </c>
       <c r="B230" t="n">
-        <v>0.05343966973876079</v>
+        <v>53.45354059270282</v>
       </c>
       <c r="C230" t="n">
-        <v>-0.03186665373793268</v>
+        <v>-31.84858102010609</v>
       </c>
       <c r="D230" t="n">
-        <v>-0.02283782906637127</v>
+        <v>-22.91541902220708</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>391.1270866394043</v>
+        <v>391.1687934398651</v>
       </c>
       <c r="B231" t="n">
-        <v>0.05527049728743134</v>
+        <v>55.27102742869941</v>
       </c>
       <c r="C231" t="n">
-        <v>-0.0309540101169315</v>
+        <v>-30.94822450494887</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.006853084936707937</v>
+        <v>-6.929350957896901</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>392.5560858249664</v>
+        <v>392.5983891487122</v>
       </c>
       <c r="B232" t="n">
-        <v>0.05618354226940676</v>
+        <v>56.36324324402124</v>
       </c>
       <c r="C232" t="n">
-        <v>-0.03010256058011065</v>
+        <v>-30.06858369106202</v>
       </c>
       <c r="D232" t="n">
-        <v>0.008653166027781522</v>
+        <v>8.57151199503847</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>393.9867725372314</v>
+        <v>394.0290551185608</v>
       </c>
       <c r="B233" t="n">
-        <v>0.05718949218824379</v>
+        <v>57.18765808110678</v>
       </c>
       <c r="C233" t="n">
-        <v>-0.0294414916464521</v>
+        <v>-29.44399065037508</v>
       </c>
       <c r="D233" t="n">
-        <v>0.02434883525223654</v>
+        <v>24.18770441259885</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>396.3874568939209</v>
+        <v>396.4301750659943</v>
       </c>
       <c r="B234" t="n">
-        <v>0.053843147709289</v>
+        <v>53.92549691077219</v>
       </c>
       <c r="C234" t="n">
-        <v>-0.01678751210207347</v>
+        <v>-16.59625903312463</v>
       </c>
       <c r="D234" t="n">
-        <v>-0.02295336854083205</v>
+        <v>-22.70124332255246</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>397.8170554637909</v>
+        <v>397.8594288825989</v>
       </c>
       <c r="B235" t="n">
-        <v>0.0552187981767579</v>
+        <v>55.22909445254113</v>
       </c>
       <c r="C235" t="n">
-        <v>-0.01590178902943359</v>
+        <v>-15.89194978275969</v>
       </c>
       <c r="D235" t="n">
-        <v>-0.007094701053727896</v>
+        <v>-6.92582723383517</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>399.2467865943909</v>
+        <v>399.2914109230042</v>
       </c>
       <c r="B236" t="n">
-        <v>0.05638144154460709</v>
+        <v>56.36674765401273</v>
       </c>
       <c r="C236" t="n">
-        <v>-0.01519238121409876</v>
+        <v>-15.19671679594298</v>
       </c>
       <c r="D236" t="n">
-        <v>0.008652007880510943</v>
+        <v>8.623723910565026</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>400.6764569282532</v>
+        <v>400.7218179702759</v>
       </c>
       <c r="B237" t="n">
-        <v>0.0574244397237383</v>
+        <v>57.29723189453996</v>
       </c>
       <c r="C237" t="n">
-        <v>-0.01425482972274088</v>
+        <v>-14.69763855848461</v>
       </c>
       <c r="D237" t="n">
-        <v>0.02416753666894317</v>
+        <v>24.15884752455925</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>403.0797548294067</v>
+        <v>403.1207129955292</v>
       </c>
       <c r="B238" t="n">
-        <v>0.05432406675882391</v>
+        <v>54.34570424452426</v>
       </c>
       <c r="C238" t="n">
-        <v>-0.001548669390935592</v>
+        <v>-1.523805984094726</v>
       </c>
       <c r="D238" t="n">
-        <v>-0.02290917440427824</v>
+        <v>-22.80922772260663</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>404.5112693309784</v>
+        <v>404.5504510402679</v>
       </c>
       <c r="B239" t="n">
-        <v>0.0553880137678829</v>
+        <v>55.59829397767802</v>
       </c>
       <c r="C239" t="n">
-        <v>-0.0008478008255081021</v>
+        <v>-0.8476609772336274</v>
       </c>
       <c r="D239" t="n">
-        <v>-0.007088889937933862</v>
+        <v>-7.084908433401973</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>405.9449279308319</v>
+        <v>405.9797155857086</v>
       </c>
       <c r="B240" t="n">
-        <v>0.05623552844598911</v>
+        <v>56.23552844598911</v>
       </c>
       <c r="C240" t="n">
-        <v>-0.000325971256243951</v>
+        <v>-0.325971256243951</v>
       </c>
       <c r="D240" t="n">
-        <v>0.008478885246963819</v>
+        <v>8.47888524696382</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>407.3750100135803</v>
+        <v>407.4102401733398</v>
       </c>
       <c r="B241" t="n">
-        <v>0.0568565527455621</v>
+        <v>56.89495267826356</v>
       </c>
       <c r="C241" t="n">
-        <v>2.328404951136565e-05</v>
+        <v>0.1671387159616899</v>
       </c>
       <c r="D241" t="n">
-        <v>0.02400950450282352</v>
+        <v>24.01214458343749</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>409.775869846344</v>
+        <v>409.8106317520142</v>
       </c>
       <c r="B242" t="n">
-        <v>0.0541894204221174</v>
+        <v>54.08773605814392</v>
       </c>
       <c r="C242" t="n">
-        <v>0.0137205395011667</v>
+        <v>13.38377216296334</v>
       </c>
       <c r="D242" t="n">
-        <v>-0.02295691381169361</v>
+        <v>-22.55721622225451</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>411.2053999900818</v>
+        <v>411.2421424388885</v>
       </c>
       <c r="B243" t="n">
-        <v>0.05528831098143988</v>
+        <v>55.28453419100425</v>
       </c>
       <c r="C243" t="n">
-        <v>0.01404048433703163</v>
+        <v>14.02370909031558</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.007099356852189836</v>
+        <v>-7.131012693869322</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>412.6383745670319</v>
+        <v>412.6768815517426</v>
       </c>
       <c r="B244" t="n">
-        <v>0.05631848191094496</v>
+        <v>56.31848191094496</v>
       </c>
       <c r="C244" t="n">
-        <v>0.01455398340760046</v>
+        <v>14.55398340760046</v>
       </c>
       <c r="D244" t="n">
-        <v>0.008404972028244381</v>
+        <v>8.40497202824438</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>414.0691783428192</v>
+        <v>414.1077027320862</v>
       </c>
       <c r="B245" t="n">
-        <v>0.05723355550605368</v>
+        <v>57.16899131052607</v>
       </c>
       <c r="C245" t="n">
-        <v>0.01509530861059126</v>
+        <v>15.00592650433635</v>
       </c>
       <c r="D245" t="n">
-        <v>0.02399738130296942</v>
+        <v>23.99572621563157</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>416.4698252677917</v>
+        <v>416.50932097435</v>
       </c>
       <c r="B246" t="n">
-        <v>0.05416135844135032</v>
+        <v>54.10365642961905</v>
       </c>
       <c r="C246" t="n">
-        <v>0.02841392695745296</v>
+        <v>28.21914987191559</v>
       </c>
       <c r="D246" t="n">
-        <v>-0.02312161609954836</v>
+        <v>-22.65282006041545</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>417.9034287929535</v>
+        <v>417.9409248828888</v>
       </c>
       <c r="B247" t="n">
-        <v>0.05530339405280363</v>
+        <v>55.36886135494397</v>
       </c>
       <c r="C247" t="n">
-        <v>0.02889832699453128</v>
+        <v>29.18211612145918</v>
       </c>
       <c r="D247" t="n">
-        <v>-0.007186883892588048</v>
+        <v>-7.270974787297019</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>419.333571434021</v>
+        <v>419.3719348907471</v>
       </c>
       <c r="B248" t="n">
-        <v>0.05588038867967898</v>
+        <v>56.09314296597332</v>
       </c>
       <c r="C248" t="n">
-        <v>0.02952533333008234</v>
+        <v>29.48131857671751</v>
       </c>
       <c r="D248" t="n">
-        <v>0.00829398829877102</v>
+        <v>8.326770839237192</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>420.7667503356934</v>
+        <v>420.8014733791351</v>
       </c>
       <c r="B249" t="n">
-        <v>0.05666113954732026</v>
+        <v>56.73550641774173</v>
       </c>
       <c r="C249" t="n">
-        <v>0.02967800467260574</v>
+        <v>29.95671051856283</v>
       </c>
       <c r="D249" t="n">
-        <v>0.02395266353680952</v>
+        <v>23.89798811376603</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>423.1681411266327</v>
+        <v>423.2009108066559</v>
       </c>
       <c r="B250" t="n">
-        <v>0.0545506764972938</v>
+        <v>54.74757196219257</v>
       </c>
       <c r="C250" t="n">
-        <v>0.04363413614109853</v>
+        <v>43.38913165085029</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.0229395570163944</v>
+        <v>-22.60464397291251</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>424.5987269878387</v>
+        <v>424.630642414093</v>
       </c>
       <c r="B251" t="n">
-        <v>0.05542004413485245</v>
+        <v>55.39480642177025</v>
       </c>
       <c r="C251" t="n">
-        <v>0.04418444538080649</v>
+        <v>44.03879507611345</v>
       </c>
       <c r="D251" t="n">
-        <v>-0.007269452273040507</v>
+        <v>-7.113515872249851</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>426.0280473232269</v>
+        <v>426.0593049526215</v>
       </c>
       <c r="B252" t="n">
-        <v>0.05642400228420031</v>
+        <v>56.35275621377212</v>
       </c>
       <c r="C252" t="n">
-        <v>0.04458174855917584</v>
+        <v>44.30956926249986</v>
       </c>
       <c r="D252" t="n">
-        <v>0.008365268874077784</v>
+        <v>8.292062195493521</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>427.4569840431213</v>
+        <v>427.4888246059418</v>
       </c>
       <c r="B253" t="n">
-        <v>0.0573081670147994</v>
+        <v>57.16312940650789</v>
       </c>
       <c r="C253" t="n">
-        <v>0.04504437882771824</v>
+        <v>44.63012157818558</v>
       </c>
       <c r="D253" t="n">
-        <v>0.0237784226787992</v>
+        <v>23.94981984827833</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>430.8936846256256</v>
+        <v>430.9190747737885</v>
       </c>
       <c r="B254" t="n">
-        <v>0.06938997547088065</v>
+        <v>69.56553551350505</v>
       </c>
       <c r="C254" t="n">
-        <v>-0.04702676798211333</v>
+        <v>-46.67866353631187</v>
       </c>
       <c r="D254" t="n">
-        <v>-0.02293568607388482</v>
+        <v>-23.09296143678427</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>432.3254897594452</v>
+        <v>432.3545520305634</v>
       </c>
       <c r="B255" t="n">
-        <v>0.07170905040273294</v>
+        <v>71.46646589565628</v>
       </c>
       <c r="C255" t="n">
-        <v>-0.0451126912102392</v>
+        <v>-44.9341597276052</v>
       </c>
       <c r="D255" t="n">
-        <v>-0.007406869077742286</v>
+        <v>-7.421058713822958</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>433.7584822177887</v>
+        <v>433.7868456840515</v>
       </c>
       <c r="B256" t="n">
-        <v>0.0723844289233796</v>
+        <v>72.40031526627438</v>
       </c>
       <c r="C256" t="n">
-        <v>-0.04403131238453087</v>
+        <v>-44.02064890037754</v>
       </c>
       <c r="D256" t="n">
-        <v>0.00794414463352445</v>
+        <v>8.01063356637823</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>435.1889405250549</v>
+        <v>435.2194998264313</v>
       </c>
       <c r="B257" t="n">
-        <v>0.07374055343861606</v>
+        <v>73.61436259662209</v>
       </c>
       <c r="C257" t="n">
-        <v>-0.04281228268048237</v>
+        <v>-43.10525221402806</v>
       </c>
       <c r="D257" t="n">
-        <v>0.02369178310328312</v>
+        <v>23.68814924314253</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>437.5876905918121</v>
+        <v>437.6213326454163</v>
       </c>
       <c r="B258" t="n">
-        <v>0.0693148759512706</v>
+        <v>69.18814919066064</v>
       </c>
       <c r="C258" t="n">
-        <v>-0.03134276069946576</v>
+        <v>-31.1507225473034</v>
       </c>
       <c r="D258" t="n">
-        <v>-0.02310659909924898</v>
+        <v>-23.15105337907914</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>439.0170624256134</v>
+        <v>439.0496034622192</v>
       </c>
       <c r="B259" t="n">
-        <v>0.07132661493980656</v>
+        <v>71.31049633418507</v>
       </c>
       <c r="C259" t="n">
-        <v>-0.02998083112384706</v>
+        <v>-30.00032536623037</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.007455065395265865</v>
+        <v>-7.540452881090413</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>440.4469339847565</v>
+        <v>440.4802315235138</v>
       </c>
       <c r="B260" t="n">
-        <v>0.07237390038606348</v>
+        <v>72.3138591586947</v>
       </c>
       <c r="C260" t="n">
-        <v>-0.02914964811763832</v>
+        <v>-29.29294140761142</v>
       </c>
       <c r="D260" t="n">
-        <v>0.007895629511935063</v>
+        <v>7.897412143502041</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>441.8759515285492</v>
+        <v>441.9106824398041</v>
       </c>
       <c r="B261" t="n">
-        <v>0.07348858683301311</v>
+        <v>73.38206596339712</v>
       </c>
       <c r="C261" t="n">
-        <v>-0.02842576055789957</v>
+        <v>-28.602547757934</v>
       </c>
       <c r="D261" t="n">
-        <v>0.02360666799047651</v>
+        <v>23.32225231035035</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>444.2771043777466</v>
+        <v>444.311713218689</v>
       </c>
       <c r="B262" t="n">
-        <v>0.0697743446198863</v>
+        <v>69.53546984316237</v>
       </c>
       <c r="C262" t="n">
-        <v>-0.01627971991743352</v>
+        <v>-16.34208507654337</v>
       </c>
       <c r="D262" t="n">
-        <v>-0.02299464821641622</v>
+        <v>-23.03340646450009</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>445.7066829204559</v>
+        <v>445.7407114505768</v>
       </c>
       <c r="B263" t="n">
-        <v>0.07095085618525496</v>
+        <v>70.95085618525496</v>
       </c>
       <c r="C263" t="n">
-        <v>-0.01531440226871589</v>
+        <v>-15.31440226871589</v>
       </c>
       <c r="D263" t="n">
-        <v>-0.007616604980571755</v>
+        <v>-7.616604980571755</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>447.1360421180725</v>
+        <v>447.1711809635162</v>
       </c>
       <c r="B264" t="n">
-        <v>0.07265562009669529</v>
+        <v>72.63999177066428</v>
       </c>
       <c r="C264" t="n">
-        <v>-0.01448300906276707</v>
+        <v>-14.49316066390729</v>
       </c>
       <c r="D264" t="n">
-        <v>0.007914893200784489</v>
+        <v>7.687907501888839</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>448.5674102306366</v>
+        <v>448.5997312068939</v>
       </c>
       <c r="B265" t="n">
-        <v>0.07330211996106667</v>
+        <v>73.18257169319145</v>
       </c>
       <c r="C265" t="n">
-        <v>-0.01375971571314977</v>
+        <v>-14.03847040355344</v>
       </c>
       <c r="D265" t="n">
-        <v>0.02328931154892854</v>
+        <v>23.22185093026677</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>450.9669814109802</v>
+        <v>451.0007095336914</v>
       </c>
       <c r="B266" t="n">
-        <v>0.06971050524312369</v>
+        <v>69.75783975980919</v>
       </c>
       <c r="C266" t="n">
-        <v>-0.001053046227211807</v>
+        <v>-1.392823964959738</v>
       </c>
       <c r="D266" t="n">
-        <v>-0.02306330311907973</v>
+        <v>-23.09705053531546</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>452.3970110416412</v>
+        <v>452.4302763938904</v>
       </c>
       <c r="B267" t="n">
-        <v>0.07122274458314638</v>
+        <v>71.22274458314638</v>
       </c>
       <c r="C267" t="n">
-        <v>-0.0005711684060630828</v>
+        <v>-0.5711684060630828</v>
       </c>
       <c r="D267" t="n">
-        <v>-0.007609212572906384</v>
+        <v>-7.609212572906384</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>453.8280107975006</v>
+        <v>453.8608481884003</v>
       </c>
       <c r="B268" t="n">
-        <v>0.07237555160023219</v>
+        <v>72.36546320358406</v>
       </c>
       <c r="C268" t="n">
-        <v>-7.429302968681162e-06</v>
+        <v>-0.0107855255276762</v>
       </c>
       <c r="D268" t="n">
-        <v>0.007852872034540024</v>
+        <v>7.786166224047604</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>455.2560913562775</v>
+        <v>455.294953584671</v>
       </c>
       <c r="B269" t="n">
-        <v>0.07278202780728471</v>
+        <v>72.82573842050979</v>
       </c>
       <c r="C269" t="n">
-        <v>0.0003249302942076038</v>
+        <v>0.4525743066162158</v>
       </c>
       <c r="D269" t="n">
-        <v>0.02321692458826064</v>
+        <v>23.21801253373646</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>457.6588022708893</v>
+        <v>457.7008912563324</v>
       </c>
       <c r="B270" t="n">
-        <v>0.0698675583047219</v>
+        <v>69.93061851035009</v>
       </c>
       <c r="C270" t="n">
-        <v>0.01363346863252772</v>
+        <v>13.26073997494139</v>
       </c>
       <c r="D270" t="n">
-        <v>-0.0233458125235042</v>
+        <v>-22.90899787832207</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>459.0887637138367</v>
+        <v>459.1305732727051</v>
       </c>
       <c r="B271" t="n">
-        <v>0.07107259534560438</v>
+        <v>71.10710096226207</v>
       </c>
       <c r="C271" t="n">
-        <v>0.01401021225219866</v>
+        <v>14.12334102217094</v>
       </c>
       <c r="D271" t="n">
-        <v>-0.007557113167563927</v>
+        <v>-7.668557974795998</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>460.5177960395813</v>
+        <v>460.5603547096252</v>
       </c>
       <c r="B272" t="n">
-        <v>0.07215221281217124</v>
+        <v>72.14304502628772</v>
       </c>
       <c r="C272" t="n">
-        <v>0.01452621836148013</v>
+        <v>14.52421974204626</v>
       </c>
       <c r="D272" t="n">
-        <v>0.00781544731726817</v>
+        <v>7.748599167928667</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>461.9499821662903</v>
+        <v>461.990571975708</v>
       </c>
       <c r="B273" t="n">
-        <v>0.07267576861101525</v>
+        <v>72.64182440008688</v>
       </c>
       <c r="C273" t="n">
-        <v>0.01507501128970379</v>
+        <v>15.06026159228868</v>
       </c>
       <c r="D273" t="n">
-        <v>0.0230949355517536</v>
+        <v>22.96380407382988</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>464.3485445976257</v>
+        <v>464.3893914222717</v>
       </c>
       <c r="B274" t="n">
-        <v>0.06991893241057542</v>
+        <v>69.86774430867374</v>
       </c>
       <c r="C274" t="n">
-        <v>0.02809758449207644</v>
+        <v>28.01909836974195</v>
       </c>
       <c r="D274" t="n">
-        <v>-0.02343068007802519</v>
+        <v>-23.06642700456612</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>465.7787454128265</v>
+        <v>465.8171610832214</v>
       </c>
       <c r="B275" t="n">
-        <v>0.0711219070101044</v>
+        <v>71.20054384208518</v>
       </c>
       <c r="C275" t="n">
-        <v>0.02856106323367896</v>
+        <v>28.80137090518936</v>
       </c>
       <c r="D275" t="n">
-        <v>-0.007792147857150026</v>
+        <v>-7.730763086090783</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>467.2080748081207</v>
+        <v>467.2504408359528</v>
       </c>
       <c r="B276" t="n">
-        <v>0.07197074913523756</v>
+        <v>71.77407054277263</v>
       </c>
       <c r="C276" t="n">
-        <v>0.02911120603271924</v>
+        <v>29.28304967796261</v>
       </c>
       <c r="D276" t="n">
-        <v>0.007862386991775348</v>
+        <v>7.802352280514029</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>468.6403477191925</v>
+        <v>468.6807606220245</v>
       </c>
       <c r="B277" t="n">
-        <v>0.07257590325916105</v>
+        <v>72.59802230917528</v>
       </c>
       <c r="C277" t="n">
-        <v>0.02951920903605922</v>
+        <v>29.52545223636048</v>
       </c>
       <c r="D277" t="n">
-        <v>0.02322207285893689</v>
+        <v>23.10425687541242</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>471.0413439273834</v>
+        <v>471.0803024768829</v>
       </c>
       <c r="B278" t="n">
-        <v>0.07001382082970725</v>
+        <v>69.97594549247732</v>
       </c>
       <c r="C278" t="n">
-        <v>0.04305994111477103</v>
+        <v>42.93355999689091</v>
       </c>
       <c r="D278" t="n">
-        <v>-0.02332455142833532</v>
+        <v>-23.25127581866571</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>472.469984292984</v>
+        <v>472.5098679065704</v>
       </c>
       <c r="B279" t="n">
-        <v>0.07111296810075465</v>
+        <v>71.11732646791155</v>
       </c>
       <c r="C279" t="n">
-        <v>0.04324601039044376</v>
+        <v>43.25791396456219</v>
       </c>
       <c r="D279" t="n">
-        <v>-0.007853286763885196</v>
+        <v>-7.730685907137413</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>473.8996274471283</v>
+        <v>473.9393737316132</v>
       </c>
       <c r="B280" t="n">
-        <v>0.07165766213889493</v>
+        <v>71.89115407410496</v>
       </c>
       <c r="C280" t="n">
-        <v>0.04377527624144048</v>
+        <v>43.69586377108854</v>
       </c>
       <c r="D280" t="n">
-        <v>0.007697830240269582</v>
+        <v>7.689461039722389</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>475.3275482654572</v>
+        <v>475.3679056167603</v>
       </c>
       <c r="B281" t="n">
-        <v>0.07246135509675658</v>
+        <v>72.46135509675658</v>
       </c>
       <c r="C281" t="n">
-        <v>0.04402854910658266</v>
+        <v>44.02854910658266</v>
       </c>
       <c r="D281" t="n">
-        <v>0.02306242414918893</v>
+        <v>23.06242414918893</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Vision_XYZ.xlsx
+++ b/Results/Vision_XYZ.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>z</t>
+          <t>y</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -451,3928 +451,3928 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>z</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.384185791015625e-06</v>
+        <v>1.192092895507812e-06</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.06742934275816391</v>
+        <v>-67.15946441839083</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.05167863002699732</v>
+        <v>-54.2815171113273</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.01814441624996856</v>
+        <v>-18.04396321737295</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.428902864456177</v>
+        <v>1.430980205535889</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.06659103452095368</v>
+        <v>-66.35369084153814</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.05107613740428436</v>
+        <v>-53.68478132683954</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.002237071779499756</v>
+        <v>-2.056729449336396</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.85724925994873</v>
+        <v>2.861492872238159</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.06588574193576932</v>
+        <v>-65.64147384509656</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.05050074056947822</v>
+        <v>-52.85295080106195</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01353333439801161</v>
+        <v>13.94164368912982</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.285770177841187</v>
+        <v>4.292470693588257</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.06532367856179891</v>
+        <v>-65.12053524877761</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.04993669462604707</v>
+        <v>-52.58693105287018</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0296175298731593</v>
+        <v>29.88123052766499</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.684820652008057</v>
+        <v>6.693432807922363</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.06809623214600057</v>
+        <v>-67.77236544535</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.03541967016229752</v>
+        <v>-38.02109413627465</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.01828789486310119</v>
+        <v>-18.08460291220099</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8.115956783294678</v>
+        <v>8.122950553894043</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.06706986691221231</v>
+        <v>-67.1212877255325</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.03512916910066619</v>
+        <v>-37.5273749173442</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.002481369533755082</v>
+        <v>-2.069380950172299</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9.543713808059692</v>
+        <v>9.553783893585205</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.06689540023226323</v>
+        <v>-66.52819025093042</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0344204421344019</v>
+        <v>-37.06032737297085</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01360168955639468</v>
+        <v>13.88830551414653</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>10.97271084785461</v>
+        <v>10.98258924484253</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.06632474581922561</v>
+        <v>-65.96343981338157</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.03393545669807996</v>
+        <v>-36.58112414275189</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0294213558103175</v>
+        <v>29.87988576739503</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>13.37340664863586</v>
+        <v>13.38196706771851</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.06863186515179524</v>
+        <v>-67.9156156197617</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.01960126228325072</v>
+        <v>-21.94379120409037</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.01854679228739329</v>
+        <v>-18.17044564581103</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>14.8038125038147</v>
+        <v>14.81371140480042</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.06780765168191967</v>
+        <v>-67.38381907523058</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.01914456036727774</v>
+        <v>-21.26997802828182</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.002489890747593506</v>
+        <v>-2.101599347060755</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>16.24447989463806</v>
+        <v>16.24659085273743</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.06733940463920557</v>
+        <v>-66.76341356923831</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.01872326272363352</v>
+        <v>-20.82915204207522</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0136151007434792</v>
+        <v>13.93603827407675</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>17.67295503616333</v>
+        <v>17.67566347122192</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.06661653617394343</v>
+        <v>-66.36357769305299</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.01800894442745977</v>
+        <v>-20.43342523828436</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02958539857187169</v>
+        <v>29.8449565053361</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>20.07642006874084</v>
+        <v>20.07566022872925</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.06917837771633568</v>
+        <v>-68.43661615484967</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.003220383113345993</v>
+        <v>-5.881967422123463</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.01903504297752972</v>
+        <v>-18.62926865990947</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>21.50688314437866</v>
+        <v>21.50761079788208</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.06839353224039886</v>
+        <v>-67.86779099330344</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.003085613869553153</v>
+        <v>-5.49518416531905</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.002602757602118837</v>
+        <v>-2.285778589492577</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>22.9364378452301</v>
+        <v>22.94159507751465</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.06782268008975023</v>
+        <v>-66.89859710320978</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.002428258765139607</v>
+        <v>-5.116265319647234</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01332236067443402</v>
+        <v>13.70304703863742</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>24.36726403236389</v>
+        <v>24.3715193271637</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.06714231912618936</v>
+        <v>-66.75532020638437</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.00206004061229989</v>
+        <v>-4.494462605741711</v>
       </c>
       <c r="D17" t="n">
-        <v>0.02952421685396735</v>
+        <v>29.77552902966169</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>26.76651501655579</v>
+        <v>26.77237248420715</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.06957189684050169</v>
+        <v>-68.85665625206768</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01214156053711957</v>
+        <v>9.973040916921153</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0189127376387801</v>
+        <v>-18.78501342782395</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>28.19614028930664</v>
+        <v>28.20450758934021</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.06902968116324651</v>
+        <v>-68.14186539594436</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01304834240722014</v>
+        <v>10.31272012817386</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.00290171144189299</v>
+        <v>-2.365108500869965</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>29.62462067604065</v>
+        <v>29.63832879066467</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.06828313071505727</v>
+        <v>-67.52658329772302</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01337091429109394</v>
+        <v>10.90598149103032</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01355459398550618</v>
+        <v>13.6880472219435</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>31.05372548103333</v>
+        <v>31.0609667301178</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.06805584959580084</v>
+        <v>-67.39680554682539</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01370894647655418</v>
+        <v>11.50210097227323</v>
       </c>
       <c r="D21" t="n">
-        <v>0.02959849428835919</v>
+        <v>29.93732119411889</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>33.45376038551331</v>
+        <v>33.46090078353882</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.07008447612780805</v>
+        <v>-69.23760461589458</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02860313514063704</v>
+        <v>25.87592711059802</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.01923738913781498</v>
+        <v>-18.91238302291098</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>34.88500881195068</v>
+        <v>34.89304351806641</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.06931233477710311</v>
+        <v>-68.55349934385791</v>
       </c>
       <c r="C23" t="n">
-        <v>0.02893361935618552</v>
+        <v>26.42877667405523</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.002862803551414161</v>
+        <v>-2.312315696434608</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>36.31599807739258</v>
+        <v>36.32286739349365</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.06888360806409599</v>
+        <v>-68.14867056894496</v>
       </c>
       <c r="C24" t="n">
-        <v>0.02951651860505887</v>
+        <v>27.00157936140077</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01333917512874967</v>
+        <v>13.64092519195064</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>37.74693441390991</v>
+        <v>37.75202250480652</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.06799119307509946</v>
+        <v>-67.69217322176985</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03002503744303406</v>
+        <v>27.27201473481436</v>
       </c>
       <c r="D25" t="n">
-        <v>0.02963872836414836</v>
+        <v>29.96222276103687</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>40.14600491523743</v>
+        <v>40.15205264091492</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.07027347038544952</v>
+        <v>-69.5352605468249</v>
       </c>
       <c r="C26" t="n">
-        <v>0.04459993553818571</v>
+        <v>42.05073131910537</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.0193197040820083</v>
+        <v>-18.76321553778081</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>41.57466125488281</v>
+        <v>41.58357405662537</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.0697348282336073</v>
+        <v>-69.09694853337469</v>
       </c>
       <c r="C27" t="n">
-        <v>0.04490184260356624</v>
+        <v>42.63629197648308</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.00279530963065774</v>
+        <v>-2.494684922948385</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>43.00401568412781</v>
+        <v>43.01480746269226</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.06935608452576331</v>
+        <v>-68.5649336095673</v>
       </c>
       <c r="C28" t="n">
-        <v>0.04572076445664397</v>
+        <v>42.86987869949249</v>
       </c>
       <c r="D28" t="n">
-        <v>0.01361849814846558</v>
+        <v>13.81654503655678</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>44.43445682525635</v>
+        <v>44.43667602539062</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.06856689585984568</v>
+        <v>-67.99514856118293</v>
       </c>
       <c r="C29" t="n">
-        <v>0.04590096659860432</v>
+        <v>43.62405169337878</v>
       </c>
       <c r="D29" t="n">
-        <v>0.02947894020731117</v>
+        <v>29.96953868353058</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>47.86475825309753</v>
+        <v>47.87042546272278</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.05221740855671932</v>
+        <v>-51.75578599808454</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.05132288688276214</v>
+        <v>-53.50551702118844</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.0186553960125513</v>
+        <v>-18.23872796100426</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>49.29461789131165</v>
+        <v>49.30094718933105</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.05131854867590482</v>
+        <v>-50.79798529425368</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.05071286051443627</v>
+        <v>-53.12723788041052</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.002745663086097501</v>
+        <v>-2.50451271432713</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>50.73216462135315</v>
+        <v>50.73282217979431</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.05069567713739969</v>
+        <v>-50.34566160093239</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.05013607632414258</v>
+        <v>-52.58612757169301</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01309984919751557</v>
+        <v>13.43081419112129</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>52.16094660758972</v>
+        <v>52.16391015052795</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.0502834790503421</v>
+        <v>-49.89209009835317</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.04909927264673811</v>
+        <v>-52.04822394177652</v>
       </c>
       <c r="D33" t="n">
-        <v>0.02881831890116567</v>
+        <v>29.31765618433022</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>54.56155037879944</v>
+        <v>54.56654024124146</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.0528837232076962</v>
+        <v>-52.09767849571271</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.03529373261302413</v>
+        <v>-37.63124491845429</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.0188964423060418</v>
+        <v>-18.69590637009759</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>55.99718046188354</v>
+        <v>55.99857306480408</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.05182121991518744</v>
+        <v>-51.54958290878888</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.03492105559167533</v>
+        <v>-36.90207117984382</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.002768498745823667</v>
+        <v>-2.749157057557087</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>57.4319703578949</v>
+        <v>57.43164396286011</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.05132434171803677</v>
+        <v>-50.91708745258977</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.03392399204276544</v>
+        <v>-36.39898046743989</v>
       </c>
       <c r="D36" t="n">
-        <v>0.01293318301329219</v>
+        <v>13.22424883160363</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>58.86252284049988</v>
+        <v>58.8642406463623</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.05065943334898013</v>
+        <v>-50.21445786807405</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.03340004397885996</v>
+        <v>-36.14304292655146</v>
       </c>
       <c r="D37" t="n">
-        <v>0.02908740067341513</v>
+        <v>29.18354832180083</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>61.26759791374207</v>
+        <v>61.26627898216248</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.05331321088393932</v>
+        <v>-52.65194344247124</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.01932147279329087</v>
+        <v>-21.57957805856062</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.01908950615330231</v>
+        <v>-18.76353616220359</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>62.69611358642578</v>
+        <v>62.69723773002625</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.05250582782608415</v>
+        <v>-51.98471013085272</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.01859260220633806</v>
+        <v>-21.06564425047747</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.002971394545973507</v>
+        <v>-2.751322540971247</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>64.12662363052368</v>
+        <v>64.1271870136261</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.05163619509222948</v>
+        <v>-51.31815121022927</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.01811653053314552</v>
+        <v>-20.62741257811981</v>
       </c>
       <c r="D40" t="n">
-        <v>0.01292699409579256</v>
+        <v>13.25498136102452</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>65.55519342422485</v>
+        <v>65.56302881240845</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.05095448433061506</v>
+        <v>-50.69079604170938</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.01766791862126021</v>
+        <v>-20.20656851772593</v>
       </c>
       <c r="D41" t="n">
-        <v>0.02895174081131698</v>
+        <v>29.21545735220553</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>67.95533275604248</v>
+        <v>67.96782422065735</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.0539961167887712</v>
+        <v>-53.16313338394857</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.002553227854421941</v>
+        <v>-5.608174169366182</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.01941912211130549</v>
+        <v>-19.17647335596746</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>69.38889265060425</v>
+        <v>69.40589809417725</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.05293063077068534</v>
+        <v>-52.44652562295654</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.002661336735174824</v>
+        <v>-5.198549581149125</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.003361784730279855</v>
+        <v>-2.722561421057078</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>70.81756639480591</v>
+        <v>70.83714389801025</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.05198940487758649</v>
+        <v>-51.75475124998293</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.00227165242604091</v>
+        <v>-4.807317101877984</v>
       </c>
       <c r="D44" t="n">
-        <v>0.01289053511856169</v>
+        <v>13.25552033058692</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>72.24990367889404</v>
+        <v>72.27720332145691</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.05171433646339756</v>
+        <v>-51.30695284785627</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.001898403722738251</v>
+        <v>-4.45260870596878</v>
       </c>
       <c r="D45" t="n">
-        <v>0.02888899982057914</v>
+        <v>29.33247242038494</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>74.6518976688385</v>
+        <v>74.67730522155762</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.05398618140384175</v>
+        <v>-53.45830559182138</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01236856153223448</v>
+        <v>10.3894171205878</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.01968982115107051</v>
+        <v>-19.24718836572407</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>76.08115243911743</v>
+        <v>76.10903072357178</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.05334111817861212</v>
+        <v>-52.71941698391276</v>
       </c>
       <c r="C47" t="n">
-        <v>0.01329311792966323</v>
+        <v>10.73738028860202</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.003156974014722425</v>
+        <v>-3.135912170356821</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>77.51011276245117</v>
+        <v>77.55124807357788</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.05257084881912004</v>
+        <v>-51.97778130214681</v>
       </c>
       <c r="C48" t="n">
-        <v>0.01362755579331736</v>
+        <v>11.05770760538258</v>
       </c>
       <c r="D48" t="n">
-        <v>0.01296259823599611</v>
+        <v>13.21758123130251</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>78.94341683387756</v>
+        <v>78.98125004768372</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.05188287064129701</v>
+        <v>-51.28918356966864</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01394389428083126</v>
+        <v>11.35614927760517</v>
       </c>
       <c r="D49" t="n">
-        <v>0.02901148293009569</v>
+        <v>29.28349365557486</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>81.34459567070007</v>
+        <v>81.38246321678162</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.05419046733808392</v>
+        <v>-53.63040965382251</v>
       </c>
       <c r="C50" t="n">
-        <v>0.02870945610312899</v>
+        <v>26.37998139726502</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.01963940898011972</v>
+        <v>-19.24723020789849</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>82.78232383728027</v>
+        <v>82.81583404541016</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.05370354490981337</v>
+        <v>-52.86036780621021</v>
       </c>
       <c r="C51" t="n">
-        <v>0.02932442421144833</v>
+        <v>26.69287215904742</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.003288895942454351</v>
+        <v>-3.121571968538426</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>84.21167254447937</v>
+        <v>84.24943089485168</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.05314424647683366</v>
+        <v>-52.07777156990447</v>
       </c>
       <c r="C52" t="n">
-        <v>0.02959984185969664</v>
+        <v>26.93692815307394</v>
       </c>
       <c r="D52" t="n">
-        <v>0.01273735901260778</v>
+        <v>13.14370926665176</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>85.64092493057251</v>
+        <v>85.68089365959167</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.05241744271864321</v>
+        <v>-51.9044794302319</v>
       </c>
       <c r="C53" t="n">
-        <v>0.02985419268873729</v>
+        <v>27.48896554778141</v>
       </c>
       <c r="D53" t="n">
-        <v>0.02906464865667785</v>
+        <v>29.2769201230909</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>88.03936409950256</v>
+        <v>88.07167840003967</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.05485498569232079</v>
+        <v>-54.19486552830551</v>
       </c>
       <c r="C54" t="n">
-        <v>0.04489791852301973</v>
+        <v>41.98073728800478</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01981168060757239</v>
+        <v>-19.24185815393336</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>89.47066926956177</v>
+        <v>89.50125479698181</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.05400379924057601</v>
+        <v>-52.96808653894699</v>
       </c>
       <c r="C55" t="n">
-        <v>0.04509536249203561</v>
+        <v>42.6452802522097</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.003330384029069165</v>
+        <v>-3.032323008123401</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>90.90041041374207</v>
+        <v>90.93371176719666</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.05323545065292673</v>
+        <v>-52.55144555501133</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0455625287034321</v>
+        <v>42.89085109574457</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0127208430676682</v>
+        <v>13.05047623572339</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>92.33007621765137</v>
+        <v>92.36883854866028</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.05243285883575088</v>
+        <v>-52.00265464969292</v>
       </c>
       <c r="C57" t="n">
-        <v>0.04574382262546334</v>
+        <v>43.35539165429414</v>
       </c>
       <c r="D57" t="n">
-        <v>0.02873860125680363</v>
+        <v>29.35751381014639</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>95.76223540306091</v>
+        <v>95.80157446861267</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.03701020599009423</v>
+        <v>-37.0354511486852</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.05068422359993704</v>
+        <v>-53.05991366959506</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01907999961502947</v>
+        <v>-18.86843112937457</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>97.19125866889954</v>
+        <v>97.23158144950867</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.03634496703782163</v>
+        <v>-36.09876436980279</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.05013160912944546</v>
+        <v>-52.43871565251745</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.003366884951999318</v>
+        <v>-3.249312210031334</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>98.62166714668274</v>
+        <v>98.66244578361511</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.03564690738442888</v>
+        <v>-35.43056555198471</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.04950295687012726</v>
+        <v>-51.83151736377124</v>
       </c>
       <c r="D60" t="n">
-        <v>0.01250587353485635</v>
+        <v>12.64959085398447</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>100.0494062900543</v>
+        <v>100.0909125804901</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.03508137754126012</v>
+        <v>-34.7773299169603</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.0484280702341818</v>
+        <v>-51.22943961014054</v>
       </c>
       <c r="D61" t="n">
-        <v>0.02830584881451264</v>
+        <v>28.63985366527261</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>102.4487488269806</v>
+        <v>102.4932222366333</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.03767983746847996</v>
+        <v>-37.14281853447316</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.03486628902454725</v>
+        <v>-37.11864491750859</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.01935143015830021</v>
+        <v>-19.31293154199626</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>103.8787343502045</v>
+        <v>103.9242630004883</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.03696950677120739</v>
+        <v>-36.46755495205291</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.03434031902045523</v>
+        <v>-36.62441204656336</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.003204388335656418</v>
+        <v>-3.205255404851907</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>105.3085441589355</v>
+        <v>105.346538066864</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.03594087157795695</v>
+        <v>-35.79565556989744</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.03374573945428783</v>
+        <v>-36.09921647691947</v>
       </c>
       <c r="D64" t="n">
-        <v>0.01226673370843358</v>
+        <v>12.65338051531329</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>106.7381789684296</v>
+        <v>106.7775096893311</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.03541724360371201</v>
+        <v>-34.93146890953589</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.03323823505234597</v>
+        <v>-35.54935331789247</v>
       </c>
       <c r="D65" t="n">
-        <v>0.02829090935734678</v>
+        <v>28.66708582731215</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>109.1368417739868</v>
+        <v>109.1822273731232</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.03777732825449848</v>
+        <v>-37.60615804665674</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.01891644970480796</v>
+        <v>-21.49545203661256</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.01957094042270197</v>
+        <v>-19.6174277581521</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>110.5661489963531</v>
+        <v>110.6122438907623</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.03703402915133264</v>
+        <v>-36.51765437523816</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.01844171024726458</v>
+        <v>-20.99654053629978</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.003532614297408914</v>
+        <v>-3.298337385774975</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111.9955730438232</v>
+        <v>112.0419845581055</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.0363139874262109</v>
+        <v>-36.23572228541371</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.01795679943904629</v>
+        <v>-20.33334535625253</v>
       </c>
       <c r="D68" t="n">
-        <v>0.01224623065421121</v>
+        <v>12.58630261547099</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>113.4264242649078</v>
+        <v>113.4765059947968</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.03566902667212772</v>
+        <v>-35.17585039718931</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.01701675025954516</v>
+        <v>-19.86543269397017</v>
       </c>
       <c r="D69" t="n">
-        <v>0.02841668523666361</v>
+        <v>28.35446735196799</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>115.8297846317291</v>
+        <v>115.876927614212</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.03835871202737882</v>
+        <v>-37.58977517366024</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.002719607171327285</v>
+        <v>-5.532491487914736</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.01983156324547555</v>
+        <v>-19.53105725016659</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>117.2593395709991</v>
+        <v>117.3071992397308</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.03753341441828968</v>
+        <v>-36.63874569634766</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.002540457836050697</v>
+        <v>-5.116680779927246</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.003672780077081687</v>
+        <v>-3.319912442762023</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>118.6901252269745</v>
+        <v>118.7361855506897</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.03658586441902018</v>
+        <v>-36.15980207793192</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.002112792276862674</v>
+        <v>-4.494554617529567</v>
       </c>
       <c r="D72" t="n">
-        <v>0.01229090316023129</v>
+        <v>12.55407169381514</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>120.1185863018036</v>
+        <v>120.1659207344055</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.03627100278989473</v>
+        <v>-35.68426910793288</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.001740388780298724</v>
+        <v>-4.139531611772912</v>
       </c>
       <c r="D73" t="n">
-        <v>0.02818740042062309</v>
+        <v>28.62877954467064</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>122.5202050209045</v>
+        <v>122.5674057006836</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.03855564795979738</v>
+        <v>-37.89078456154991</v>
       </c>
       <c r="C74" t="n">
-        <v>0.01261205214464732</v>
+        <v>10.20918897032619</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.01998225054039686</v>
+        <v>-19.8171833566559</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>123.949559211731</v>
+        <v>124.0018775463104</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.03761432752993954</v>
+        <v>-37.11360248387874</v>
       </c>
       <c r="C75" t="n">
-        <v>0.01341707664689454</v>
+        <v>10.55012243194506</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.00387472009096644</v>
+        <v>-3.362688966196045</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>125.3796255588531</v>
+        <v>125.4329707622528</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.03730104013195739</v>
+        <v>-36.44725388400664</v>
       </c>
       <c r="C76" t="n">
-        <v>0.01379230001375645</v>
+        <v>11.3544582573719</v>
       </c>
       <c r="D76" t="n">
-        <v>0.01233444703938652</v>
+        <v>12.60850156496979</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>126.8123111724854</v>
+        <v>126.8633635044098</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.03638432210403048</v>
+        <v>-35.72749160549649</v>
       </c>
       <c r="C77" t="n">
-        <v>0.01456717439074476</v>
+        <v>11.64453009990074</v>
       </c>
       <c r="D77" t="n">
-        <v>0.02809377416491411</v>
+        <v>28.5654964738549</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>129.2120089530945</v>
+        <v>129.2651159763336</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.03877978057655476</v>
+        <v>-37.83523051631015</v>
       </c>
       <c r="C78" t="n">
-        <v>0.02886622630463835</v>
+        <v>26.17493853567802</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.0201318579423689</v>
+        <v>-19.9498171085555</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>130.6466403007507</v>
+        <v>130.6958885192871</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.03821859262575586</v>
+        <v>-37.06442751019646</v>
       </c>
       <c r="C79" t="n">
-        <v>0.02943329811588637</v>
+        <v>26.69454541479224</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.003639754725162681</v>
+        <v>-3.467974468817936</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>132.0762076377869</v>
+        <v>132.1253623962402</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.03718486577048107</v>
+        <v>-36.33131409287999</v>
       </c>
       <c r="C80" t="n">
-        <v>0.02968487701225145</v>
+        <v>27.19583810470314</v>
       </c>
       <c r="D80" t="n">
-        <v>0.01221878705499259</v>
+        <v>12.63372995334894</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>133.5055561065674</v>
+        <v>133.5579442977905</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.03644061498429767</v>
+        <v>-36.07336406448891</v>
       </c>
       <c r="C81" t="n">
-        <v>0.03016743500598856</v>
+        <v>27.4694679642741</v>
       </c>
       <c r="D81" t="n">
-        <v>0.02842620732797131</v>
+        <v>28.62647673425725</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>135.9051656723022</v>
+        <v>135.9578502178192</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.03907115661110717</v>
+        <v>-37.84785484656781</v>
       </c>
       <c r="C82" t="n">
-        <v>0.04473493097409859</v>
+        <v>41.87801520646995</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.02014796505167613</v>
+        <v>-19.81319983821489</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>137.338413476944</v>
+        <v>137.3863761425018</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.03794124224370394</v>
+        <v>-37.04848620758349</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0448860777113583</v>
+        <v>42.36115088260059</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.004071629436725551</v>
+        <v>-3.512325895365515</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>138.7694203853607</v>
+        <v>138.8172726631165</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.03735087167011783</v>
+        <v>-36.76737960905971</v>
       </c>
       <c r="C84" t="n">
-        <v>0.04512133158717452</v>
+        <v>42.63560816961765</v>
       </c>
       <c r="D84" t="n">
-        <v>0.01183005869183412</v>
+        <v>12.53512452017741</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>140.2005224227905</v>
+        <v>140.2481269836426</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.03691986543566714</v>
+        <v>-36.07024816804764</v>
       </c>
       <c r="C85" t="n">
-        <v>0.04585099094693074</v>
+        <v>43.28181084895555</v>
       </c>
       <c r="D85" t="n">
-        <v>0.02823054429444835</v>
+        <v>28.56759876942721</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>143.630056142807</v>
+        <v>143.6792552471161</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.02235335865012351</v>
+        <v>-21.96621476438966</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.04991343503143839</v>
+        <v>-52.49455106132717</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.01957854588818609</v>
+        <v>-19.52049466729314</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>145.0624465942383</v>
+        <v>145.1108253002167</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.02138816446292005</v>
+        <v>-21.17542201727609</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.04967190904695172</v>
+        <v>-52.29263677330176</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.003709851778960362</v>
+        <v>-3.646101054297912</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>146.4931576251984</v>
+        <v>146.5401504039764</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.02054322863946721</v>
+        <v>-20.14729711102731</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.04853827249161</v>
+        <v>-51.57192847100102</v>
       </c>
       <c r="D88" t="n">
-        <v>0.01200892827966316</v>
+        <v>12.07273647804414</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>147.922031879425</v>
+        <v>147.9699206352234</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.01980493118088671</v>
+        <v>-19.42671902440168</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.04790376387355441</v>
+        <v>-50.94421565224286</v>
       </c>
       <c r="D89" t="n">
-        <v>0.02760341532617465</v>
+        <v>27.8457748228059</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>150.3204281330109</v>
+        <v>150.3744111061096</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.02241426319287963</v>
+        <v>-22.11482837997587</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.03449782041104725</v>
+        <v>-36.66471765996915</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.01983796515778679</v>
+        <v>-19.96195535318252</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>151.7482347488403</v>
+        <v>151.8076946735382</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.02165260208993272</v>
+        <v>-20.97702836286535</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.03395005509782413</v>
+        <v>-36.504030794005</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.004035418183759788</v>
+        <v>-3.888275151766448</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>153.1826403141022</v>
+        <v>153.2381119728088</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.02093102291398288</v>
+        <v>-20.62007590690902</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.03292550906800629</v>
+        <v>-35.54828381793072</v>
       </c>
       <c r="D92" t="n">
-        <v>0.01184974215937444</v>
+        <v>12.23213427000321</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>154.614114522934</v>
+        <v>154.670428276062</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.02019320208658491</v>
+        <v>-19.78489441797764</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.03237211611242161</v>
+        <v>-35.21743353674258</v>
       </c>
       <c r="D93" t="n">
-        <v>0.02763267146965145</v>
+        <v>27.8648815204725</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>157.0147242546082</v>
+        <v>157.0727293491364</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.02253773070291346</v>
+        <v>-22.20060773812306</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.01866566700427745</v>
+        <v>-21.28630018860598</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.02005573346946726</v>
+        <v>-20.0740130432835</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>158.4463920593262</v>
+        <v>158.5017490386963</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.02174633989319182</v>
+        <v>-21.46134102467844</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.01816559775511269</v>
+        <v>-20.5701830479524</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.004074950447516999</v>
+        <v>-3.835656903391885</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>159.8765466213226</v>
+        <v>159.9380924701691</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.02129850188857529</v>
+        <v>-20.7230493584677</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.0172481619246644</v>
+        <v>-20.09934858357758</v>
       </c>
       <c r="D96" t="n">
-        <v>0.01175365397740409</v>
+        <v>11.99344346129868</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>161.3067440986633</v>
+        <v>161.3675856590271</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.02028899704466265</v>
+        <v>-20.01954072640789</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.01653378586801746</v>
+        <v>-19.43484668342506</v>
       </c>
       <c r="D97" t="n">
-        <v>0.02766911288899096</v>
+        <v>27.8454484593059</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>163.70623087883</v>
+        <v>163.7664525508881</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.02277944686105467</v>
+        <v>-22.01070686572833</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.002601859443363622</v>
+        <v>-5.416249668216855</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.02051898094816732</v>
+        <v>-20.22193072215071</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>165.1337871551514</v>
+        <v>165.1967012882233</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.02195386791065276</v>
+        <v>-21.22976389272612</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.0021482264421014</v>
+        <v>-5.02835510581992</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.004126457955981907</v>
+        <v>-3.951288219996497</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>166.5623178482056</v>
+        <v>166.6303107738495</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.02116770770036197</v>
+        <v>-20.92686202941866</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.001740027858300894</v>
+        <v>-4.190572257986247</v>
       </c>
       <c r="D100" t="n">
-        <v>0.01149197873325198</v>
+        <v>11.86369653463459</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>167.9902062416077</v>
+        <v>168.0627334117889</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.02081384371504322</v>
+        <v>-20.18830628419347</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.001587787399864787</v>
+        <v>-4.053992519234689</v>
       </c>
       <c r="D101" t="n">
-        <v>0.02741936075557903</v>
+        <v>27.75736126856095</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>170.3905599117279</v>
+        <v>170.4647347927094</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.02313726051916884</v>
+        <v>-21.94377917645695</v>
       </c>
       <c r="C102" t="n">
-        <v>0.01313329323449172</v>
+        <v>10.4031687527685</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.02072082471720597</v>
+        <v>-20.49814550756415</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>171.824031829834</v>
+        <v>171.8953657150269</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.02206701998329927</v>
+        <v>-21.57767141152677</v>
       </c>
       <c r="C103" t="n">
-        <v>0.01340465498444007</v>
+        <v>10.7329776186552</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.004289866555572053</v>
+        <v>-3.896500349761099</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>173.2566499710083</v>
+        <v>173.333667755127</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.02150105652284108</v>
+        <v>-20.79882072822472</v>
       </c>
       <c r="C104" t="n">
-        <v>0.01378289633321363</v>
+        <v>11.06061767882183</v>
       </c>
       <c r="D104" t="n">
-        <v>0.01149650946228411</v>
+        <v>11.77702158381531</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>174.6928153038025</v>
+        <v>174.7650103569031</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.02097224471939183</v>
+        <v>-20.32419919646675</v>
       </c>
       <c r="C105" t="n">
-        <v>0.01455985666839427</v>
+        <v>11.81795381188386</v>
       </c>
       <c r="D105" t="n">
-        <v>0.02742153557178684</v>
+        <v>27.90320305995387</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>177.0966827869415</v>
+        <v>177.1686177253723</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.02330103374998865</v>
+        <v>-22.09106617563542</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0285382548613235</v>
+        <v>26.210585500779</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.02059535282770725</v>
+        <v>-20.34621794659835</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>178.5275032520294</v>
+        <v>178.5998017787933</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.02248230788626913</v>
+        <v>-21.7416567486813</v>
       </c>
       <c r="C107" t="n">
-        <v>0.02930703746243808</v>
+        <v>26.52714918089542</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.004203337910387199</v>
+        <v>-4.125335392744686</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>179.9567058086395</v>
+        <v>180.0313963890076</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.02164715683701826</v>
+        <v>-20.94869287448232</v>
       </c>
       <c r="C108" t="n">
-        <v>0.02955387386062909</v>
+        <v>26.78328173544736</v>
       </c>
       <c r="D108" t="n">
-        <v>0.01159708549799151</v>
+        <v>11.9007509292025</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>181.3870537281036</v>
+        <v>181.462700843811</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.02111383255719765</v>
+        <v>-20.1991783241788</v>
       </c>
       <c r="C109" t="n">
-        <v>0.03004907621799387</v>
+        <v>27.22474829169556</v>
       </c>
       <c r="D109" t="n">
-        <v>0.02773177432436982</v>
+        <v>27.89804816054304</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>183.786741733551</v>
+        <v>183.8645248413086</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.0233035576376129</v>
+        <v>-22.27969528143465</v>
       </c>
       <c r="C110" t="n">
-        <v>0.04442964848511236</v>
+        <v>41.80478542585742</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.02061759557776323</v>
+        <v>-20.29183119019392</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>185.2197785377502</v>
+        <v>185.2886545658112</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.02241277358071113</v>
+        <v>-21.70016595342568</v>
       </c>
       <c r="C111" t="n">
-        <v>0.04465258713764075</v>
+        <v>42.30236315264055</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.004506105949722092</v>
+        <v>-4.188550869911255</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>186.6500701904297</v>
+        <v>186.7221910953522</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.02159382430123633</v>
+        <v>-20.89936304024659</v>
       </c>
       <c r="C112" t="n">
-        <v>0.04529936118642035</v>
+        <v>42.70602208695772</v>
       </c>
       <c r="D112" t="n">
-        <v>0.01143474414734487</v>
+        <v>11.77433905586451</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>188.0796885490417</v>
+        <v>188.1524217128754</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.02131670705861731</v>
+        <v>-20.62677017649621</v>
       </c>
       <c r="C113" t="n">
-        <v>0.04579880038387515</v>
+        <v>43.1819384329834</v>
       </c>
       <c r="D113" t="n">
-        <v>0.02762934668986795</v>
+        <v>27.97559876590341</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>191.5291018486023</v>
+        <v>191.5813229084015</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.007520752838958525</v>
+        <v>-7.07392968925191</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.04963220939656388</v>
+        <v>-52.44881910453297</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.02013633035529043</v>
+        <v>-19.93303710289232</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>192.9592778682709</v>
+        <v>193.0121657848358</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.006686854842180112</v>
+        <v>-5.934797852040158</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.04895311875788655</v>
+        <v>-51.66270976863981</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.004431037653816198</v>
+        <v>-4.088581141842614</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>194.3922345638275</v>
+        <v>194.4420795440674</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.005512776124127435</v>
+        <v>-5.259523296034067</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.04813663477161975</v>
+        <v>-50.98125638021286</v>
       </c>
       <c r="D116" t="n">
-        <v>0.01130964227583695</v>
+        <v>11.57761528010574</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>195.8206844329834</v>
+        <v>195.8741681575775</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.004863413345946605</v>
+        <v>-4.326868716312234</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.04748594438934045</v>
+        <v>-50.27463021472104</v>
       </c>
       <c r="D117" t="n">
-        <v>0.02706900237632735</v>
+        <v>27.31850496119145</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>198.2229051589966</v>
+        <v>198.2744617462158</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.007464413704714116</v>
+        <v>-7.133308689446024</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.03397778104727196</v>
+        <v>-36.32867690306936</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.02050025282731137</v>
+        <v>-20.25607801021991</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>199.6550266742706</v>
+        <v>199.7049100399017</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.006613728513410276</v>
+        <v>-6.17493816784935</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.03334912386612839</v>
+        <v>-35.78624222299224</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.004520215084420641</v>
+        <v>-4.425280406987594</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>201.0844871997833</v>
+        <v>201.1376709938049</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.005784560462567912</v>
+        <v>-5.35860974444493</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.03252963538026929</v>
+        <v>-35.1592077800908</v>
       </c>
       <c r="D120" t="n">
-        <v>0.01117537068540462</v>
+        <v>11.47422548041147</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>202.514345407486</v>
+        <v>202.5687565803528</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.005024771858297953</v>
+        <v>-4.57152442147683</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.03176475277241994</v>
+        <v>-34.58861651185708</v>
       </c>
       <c r="D121" t="n">
-        <v>0.02685946220034719</v>
+        <v>27.30816800614041</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>204.9163286685944</v>
+        <v>204.9682152271271</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.007669060251331848</v>
+        <v>-7.16332979864354</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.01815385213055389</v>
+        <v>-20.772686018593</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.02054145233521577</v>
+        <v>-20.64130984880491</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>206.3449585437775</v>
+        <v>206.3894906044006</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.006813434738501206</v>
+        <v>-6.333214809250008</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.01738281580052253</v>
+        <v>-20.25310952293538</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.004573056538507266</v>
+        <v>-4.487741094440062</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>207.7744326591492</v>
+        <v>207.8196024894714</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.005975463681320107</v>
+        <v>-5.517753669872485</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.01687272613968827</v>
+        <v>-19.74281749559695</v>
       </c>
       <c r="D124" t="n">
-        <v>0.01111514863726604</v>
+        <v>11.44516470902405</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>209.2024428844452</v>
+        <v>209.2533478736877</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.005207559531553278</v>
+        <v>-4.58627245729483</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.01597944663280963</v>
+        <v>-19.26915667741037</v>
       </c>
       <c r="D125" t="n">
-        <v>0.02698887798666533</v>
+        <v>27.33015890741215</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>211.6016857624054</v>
+        <v>211.6539068222046</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.007601413429140117</v>
+        <v>-6.867326532387279</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.00228848219965265</v>
+        <v>-4.934937856678257</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.02067440360699896</v>
+        <v>-20.88456319900874</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>213.0353019237518</v>
+        <v>213.0827481746674</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.006524745619286497</v>
+        <v>-6.018650861450125</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.001812676944804276</v>
+        <v>-4.710311304543552</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.004822375230410877</v>
+        <v>-4.526654757401511</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>214.4642922878265</v>
+        <v>214.5143306255341</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.00610512976791231</v>
+        <v>-5.223049115158644</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.00138758315557333</v>
+        <v>-3.868676575844832</v>
       </c>
       <c r="D128" t="n">
-        <v>0.01122091955624805</v>
+        <v>11.57130520947454</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>215.8943591117859</v>
+        <v>215.9431340694427</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.005321586483156033</v>
+        <v>-4.879518073270767</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.00100867701202817</v>
+        <v>-3.725101733098618</v>
       </c>
       <c r="D129" t="n">
-        <v>0.02681848271266263</v>
+        <v>27.16010829334046</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>218.2938525676727</v>
+        <v>218.3447234630585</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.007656145877892383</v>
+        <v>-6.878567275549505</v>
       </c>
       <c r="C130" t="n">
-        <v>0.01338075755492527</v>
+        <v>10.6619148526008</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.02105707560683879</v>
+        <v>-20.94786703933968</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>219.7224321365356</v>
+        <v>219.7797176837921</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.006547505373147222</v>
+        <v>-6.026579661047577</v>
       </c>
       <c r="C131" t="n">
-        <v>0.01372760006218017</v>
+        <v>11.00549128114087</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.004792685603700728</v>
+        <v>-4.600759058425654</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>221.1521592140198</v>
+        <v>221.2093658447266</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.006153957669786663</v>
+        <v>-5.213631243981502</v>
       </c>
       <c r="C132" t="n">
-        <v>0.01410381315147224</v>
+        <v>11.55309687011236</v>
       </c>
       <c r="D132" t="n">
-        <v>0.01110773478465464</v>
+        <v>11.48944296063684</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>222.5804872512817</v>
+        <v>222.6421484947205</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.00539240409978823</v>
+        <v>-4.886045951394906</v>
       </c>
       <c r="C133" t="n">
-        <v>0.01481772211678875</v>
+        <v>11.86695487040267</v>
       </c>
       <c r="D133" t="n">
-        <v>0.02688376625253321</v>
+        <v>27.25907023574934</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>224.9802696704865</v>
+        <v>225.0457570552826</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.007896130966427006</v>
+        <v>-6.830409661591825</v>
       </c>
       <c r="C134" t="n">
-        <v>0.02882757357790916</v>
+        <v>26.0132241624735</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.02130496028771615</v>
+        <v>-20.95524376297264</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>226.4138066768646</v>
+        <v>226.4749414920807</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.006992926427647668</v>
+        <v>-5.970550448193702</v>
       </c>
       <c r="C135" t="n">
-        <v>0.02933717885408174</v>
+        <v>26.71832447383288</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.004704398744495879</v>
+        <v>-4.610861142944078</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>227.8448376655579</v>
+        <v>227.9060750007629</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.006146093219013824</v>
+        <v>-5.135626142264566</v>
       </c>
       <c r="C136" t="n">
-        <v>0.03001323606855061</v>
+        <v>26.96460960361033</v>
       </c>
       <c r="D136" t="n">
-        <v>0.01096324132018145</v>
+        <v>11.37405299498934</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>229.2742276191711</v>
+        <v>229.3394150733948</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.005606757507804577</v>
+        <v>-4.855702738188531</v>
       </c>
       <c r="C137" t="n">
-        <v>0.03026804049315919</v>
+        <v>27.23320369255919</v>
       </c>
       <c r="D137" t="n">
-        <v>0.02684892391927547</v>
+        <v>27.13555882903862</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>231.6723093986511</v>
+        <v>231.7403726577759</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.007846694818762854</v>
+        <v>-6.717692484639876</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0446660802491068</v>
+        <v>41.55936561923425</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.02100280313259298</v>
+        <v>-20.73852883598094</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>233.1009044647217</v>
+        <v>233.1701667308807</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.006925101297458148</v>
+        <v>-5.84380283370359</v>
       </c>
       <c r="C139" t="n">
-        <v>0.04488623695337418</v>
+        <v>42.17920475718037</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.004904613701146427</v>
+        <v>-4.795201649391757</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>234.5300462245941</v>
+        <v>234.607762336731</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.006075681155351027</v>
+        <v>-5.271687884764689</v>
       </c>
       <c r="C140" t="n">
-        <v>0.04549713135218914</v>
+        <v>42.618555335281</v>
       </c>
       <c r="D140" t="n">
-        <v>0.01103100280948635</v>
+        <v>11.25080554513199</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>235.9586062431335</v>
+        <v>236.0380663871765</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.005754385961257871</v>
+        <v>-4.771308683101397</v>
       </c>
       <c r="C141" t="n">
-        <v>0.04574929629488479</v>
+        <v>43.00382962525293</v>
       </c>
       <c r="D141" t="n">
-        <v>0.02682483400995311</v>
+        <v>27.2834103690763</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>239.3865661621094</v>
+        <v>239.4689042568207</v>
       </c>
       <c r="B142" t="n">
-        <v>0.007344473419873205</v>
+        <v>7.830670630503068</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.04934863851993547</v>
+        <v>-51.94277823309177</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.02055303233341741</v>
+        <v>-20.53940016089312</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>240.8173975944519</v>
+        <v>240.9003601074219</v>
       </c>
       <c r="B143" t="n">
-        <v>0.008472478408476591</v>
+        <v>9.113340940194014</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.04850318252106281</v>
+        <v>-51.02300623992667</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.004772003979859</v>
+        <v>-4.78685112888189</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>242.254772901535</v>
+        <v>242.3358979225159</v>
       </c>
       <c r="B144" t="n">
-        <v>0.009591722118962814</v>
+        <v>10.04095084075104</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.04766710562471396</v>
+        <v>-50.43472257011046</v>
       </c>
       <c r="D144" t="n">
-        <v>0.01074471780812372</v>
+        <v>11.0104151731296</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>243.6841571331024</v>
+        <v>243.7670540809631</v>
       </c>
       <c r="B145" t="n">
-        <v>0.01052947916652563</v>
+        <v>10.92599624452059</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.046712830370558</v>
+        <v>-49.88688214511875</v>
       </c>
       <c r="D145" t="n">
-        <v>0.02637027687155532</v>
+        <v>26.61344749263408</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>246.0831670761108</v>
+        <v>246.16885638237</v>
       </c>
       <c r="B146" t="n">
-        <v>0.00758845539269235</v>
+        <v>8.164592081706626</v>
       </c>
       <c r="C146" t="n">
-        <v>-0.03319945875130706</v>
+        <v>-36.15041346316361</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.02105654283455091</v>
+        <v>-20.97665097467219</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>247.5134234428406</v>
+        <v>247.600076675415</v>
       </c>
       <c r="B147" t="n">
-        <v>0.008524301202008935</v>
+        <v>9.084379198333709</v>
       </c>
       <c r="C147" t="n">
-        <v>-0.03290292061416511</v>
+        <v>-35.47907186998869</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.004919512098035319</v>
+        <v>-4.849475137067232</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>248.9425938129425</v>
+        <v>249.0297944545746</v>
       </c>
       <c r="B148" t="n">
-        <v>0.009445946826078064</v>
+        <v>9.966363468528284</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.03203228719327966</v>
+        <v>-34.83253912803413</v>
       </c>
       <c r="D148" t="n">
-        <v>0.01068309572557286</v>
+        <v>10.79593224571922</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>250.372540473938</v>
+        <v>250.459573507309</v>
       </c>
       <c r="B149" t="n">
-        <v>0.01030199602836618</v>
+        <v>10.7901220311498</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.03124794394624666</v>
+        <v>-34.25208992388498</v>
       </c>
       <c r="D149" t="n">
-        <v>0.02616868800170573</v>
+        <v>26.52737547129931</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>252.7743003368378</v>
+        <v>252.8604083061218</v>
       </c>
       <c r="B150" t="n">
-        <v>0.007671214150682545</v>
+        <v>8.327027274154245</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.01767672160353365</v>
+        <v>-20.1271203033533</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.02128158710535571</v>
+        <v>-21.05451755567325</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>254.2045838832855</v>
+        <v>254.2929334640503</v>
       </c>
       <c r="B151" t="n">
-        <v>0.008592548973756543</v>
+        <v>9.236939267244844</v>
       </c>
       <c r="C151" t="n">
-        <v>-0.01730080961219328</v>
+        <v>-19.74600502213064</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.005265782630954632</v>
+        <v>-5.080303237337578</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>255.6340141296387</v>
+        <v>255.7216510772705</v>
       </c>
       <c r="B152" t="n">
-        <v>0.009507108368102823</v>
+        <v>10.09671780796194</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.01636074675795338</v>
+        <v>-19.38309702450722</v>
       </c>
       <c r="D152" t="n">
-        <v>0.0104131239779909</v>
+        <v>10.74149723203533</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>257.0644142627716</v>
+        <v>257.1436336040497</v>
       </c>
       <c r="B153" t="n">
-        <v>0.01033630163725023</v>
+        <v>10.87918261091965</v>
       </c>
       <c r="C153" t="n">
-        <v>-0.01549375829882665</v>
+        <v>-18.91909412138376</v>
       </c>
       <c r="D153" t="n">
-        <v>0.02638288592407119</v>
+        <v>26.63277734559052</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>259.4659864902496</v>
+        <v>259.5456237792969</v>
       </c>
       <c r="B154" t="n">
-        <v>0.007631460375051424</v>
+        <v>8.329289423682443</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.001970551803969128</v>
+        <v>-4.876204239712481</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.02111999590904356</v>
+        <v>-21.2729455082004</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>260.8946990966797</v>
+        <v>260.9791462421417</v>
       </c>
       <c r="B155" t="n">
-        <v>0.008540557240283551</v>
+        <v>9.448641036162412</v>
       </c>
       <c r="C155" t="n">
-        <v>-0.001523980634597979</v>
+        <v>-4.393272237615306</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.005339009913504692</v>
+        <v>-5.03653890269568</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>262.3199851512909</v>
+        <v>262.4168546199799</v>
       </c>
       <c r="B156" t="n">
-        <v>0.009406927334904679</v>
+        <v>10.092765089368</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.00126790900335283</v>
+        <v>-3.954369059446863</v>
       </c>
       <c r="D156" t="n">
-        <v>0.01050009007579876</v>
+        <v>10.75924480900736</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>263.7479677200317</v>
+        <v>263.8477959632874</v>
       </c>
       <c r="B157" t="n">
-        <v>0.01023223689772937</v>
+        <v>10.85001279372552</v>
       </c>
       <c r="C157" t="n">
-        <v>-0.0005954883068598135</v>
+        <v>-3.595841129422073</v>
       </c>
       <c r="D157" t="n">
-        <v>0.02635754745981238</v>
+        <v>26.52344932691382</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>266.1473569869995</v>
+        <v>266.2500224113464</v>
       </c>
       <c r="B158" t="n">
-        <v>0.007870835762980786</v>
+        <v>8.65662875845001</v>
       </c>
       <c r="C158" t="n">
-        <v>0.0134837170594645</v>
+        <v>10.74076870750201</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.021253849400661</v>
+        <v>-21.4360200810929</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>267.5767800807953</v>
+        <v>267.6811690330505</v>
       </c>
       <c r="B159" t="n">
-        <v>0.008790595795398617</v>
+        <v>9.555046193025692</v>
       </c>
       <c r="C159" t="n">
-        <v>0.01383765558117052</v>
+        <v>11.11708453332999</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.005324549319279033</v>
+        <v>-5.318684654505446</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>269.0077271461487</v>
+        <v>269.1119585037231</v>
       </c>
       <c r="B160" t="n">
-        <v>0.009219971072204214</v>
+        <v>9.961284228089459</v>
       </c>
       <c r="C160" t="n">
-        <v>0.01461921058333458</v>
+        <v>11.48339455370861</v>
       </c>
       <c r="D160" t="n">
-        <v>0.01048596900697411</v>
+        <v>10.76574521284855</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>270.4422097206116</v>
+        <v>270.5463497638702</v>
       </c>
       <c r="B161" t="n">
-        <v>0.01001176009857056</v>
+        <v>10.73737650370157</v>
       </c>
       <c r="C161" t="n">
-        <v>0.01490103263278575</v>
+        <v>12.13789437378465</v>
       </c>
       <c r="D161" t="n">
-        <v>0.02626143596056898</v>
+        <v>26.52072425172675</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>272.8413028717041</v>
+        <v>272.9468054771423</v>
       </c>
       <c r="B162" t="n">
-        <v>0.007547760236045223</v>
+        <v>8.651365074572047</v>
       </c>
       <c r="C162" t="n">
-        <v>0.02878808471329056</v>
+        <v>26.11636032821248</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.02159868142037709</v>
+        <v>-21.47096493633789</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>274.2710628509521</v>
+        <v>274.3786413669586</v>
       </c>
       <c r="B163" t="n">
-        <v>0.008968128473639158</v>
+        <v>9.792230835008899</v>
       </c>
       <c r="C163" t="n">
-        <v>0.02938213630387896</v>
+        <v>26.19298921422865</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.005505134299982117</v>
+        <v>-5.224270574928284</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>275.7022931575775</v>
+        <v>275.8089098930359</v>
       </c>
       <c r="B164" t="n">
-        <v>0.009356396962933186</v>
+        <v>10.18715366420891</v>
       </c>
       <c r="C164" t="n">
-        <v>0.0297121354237144</v>
+        <v>26.89007273145497</v>
       </c>
       <c r="D164" t="n">
-        <v>0.01044133986903338</v>
+        <v>10.62986481601735</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>277.1319546699524</v>
+        <v>277.2319130897522</v>
       </c>
       <c r="B165" t="n">
-        <v>0.009793865073039358</v>
+        <v>10.97584842487885</v>
       </c>
       <c r="C165" t="n">
-        <v>0.03034750485062569</v>
+        <v>27.46649751499855</v>
       </c>
       <c r="D165" t="n">
-        <v>0.02633566596399741</v>
+        <v>26.36405468434323</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>279.5322473049164</v>
+        <v>279.6361548900604</v>
       </c>
       <c r="B166" t="n">
-        <v>0.007613853661967804</v>
+        <v>8.806901383622517</v>
       </c>
       <c r="C166" t="n">
-        <v>0.04440884626524139</v>
+        <v>41.46440863305925</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.02175590951507102</v>
+        <v>-21.27112146702006</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>280.9610593318939</v>
+        <v>281.0650444030762</v>
       </c>
       <c r="B167" t="n">
-        <v>0.008565574840409304</v>
+        <v>9.488506144382171</v>
       </c>
       <c r="C167" t="n">
-        <v>0.04482119888908455</v>
+        <v>42.10310472457973</v>
       </c>
       <c r="D167" t="n">
-        <v>-0.005547647127048575</v>
+        <v>-5.340703677810368</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>282.3934240341187</v>
+        <v>282.4967339038849</v>
       </c>
       <c r="B168" t="n">
-        <v>0.009454162468741921</v>
+        <v>10.33242200048567</v>
       </c>
       <c r="C168" t="n">
-        <v>0.04517641916503443</v>
+        <v>42.28363338117994</v>
       </c>
       <c r="D168" t="n">
-        <v>0.01026042153848947</v>
+        <v>10.71025509049512</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>283.8244323730469</v>
+        <v>283.9268636703491</v>
       </c>
       <c r="B169" t="n">
-        <v>0.009754610925520251</v>
+        <v>11.13171857023691</v>
       </c>
       <c r="C169" t="n">
-        <v>0.0457971012591156</v>
+        <v>42.77248489310441</v>
       </c>
       <c r="D169" t="n">
-        <v>0.02597023978364918</v>
+        <v>26.57147887657591</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>287.2522385120392</v>
+        <v>287.3588154315948</v>
       </c>
       <c r="B170" t="n">
-        <v>0.02289840826497541</v>
+        <v>23.44955593950481</v>
       </c>
       <c r="C170" t="n">
-        <v>-0.04880943965087697</v>
+        <v>-51.47185985740121</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.02124786036884053</v>
+        <v>-21.05799635864987</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>288.6803424358368</v>
+        <v>288.788515329361</v>
       </c>
       <c r="B171" t="n">
-        <v>0.0237277691387116</v>
+        <v>24.24438898619953</v>
       </c>
       <c r="C171" t="n">
-        <v>-0.04791411009915614</v>
+        <v>-50.61709752377498</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.005393042631293821</v>
+        <v>-5.363806884683751</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>290.1087167263031</v>
+        <v>290.216819524765</v>
       </c>
       <c r="B172" t="n">
-        <v>0.02480173779880672</v>
+        <v>25.14238981907442</v>
       </c>
       <c r="C172" t="n">
-        <v>-0.04703760581808908</v>
+        <v>-49.77562511367704</v>
       </c>
       <c r="D172" t="n">
-        <v>0.01006826115479989</v>
+        <v>10.34204222256681</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>291.5406103134155</v>
+        <v>291.6387853622437</v>
       </c>
       <c r="B173" t="n">
-        <v>0.02546091443769791</v>
+        <v>26.25859487046265</v>
       </c>
       <c r="C173" t="n">
-        <v>-0.04665432685661969</v>
+        <v>-48.96206485394911</v>
       </c>
       <c r="D173" t="n">
-        <v>0.02604641864212713</v>
+        <v>26.12448977216729</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>293.9407482147217</v>
+        <v>294.0393764972687</v>
       </c>
       <c r="B174" t="n">
-        <v>0.02287746932623588</v>
+        <v>23.72677459922846</v>
       </c>
       <c r="C174" t="n">
-        <v>-0.03287533712093907</v>
+        <v>-35.54846376139434</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.02149678381228924</v>
+        <v>-21.48581117769787</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>295.3701293468475</v>
+        <v>295.4714756011963</v>
       </c>
       <c r="B175" t="n">
-        <v>0.02377809524957007</v>
+        <v>24.40400157667596</v>
       </c>
       <c r="C175" t="n">
-        <v>-0.03210484250948692</v>
+        <v>-35.01816829514188</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.005747867630420668</v>
+        <v>-5.62428855516489</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>296.8006417751312</v>
+        <v>296.9017586708069</v>
       </c>
       <c r="B176" t="n">
-        <v>0.02477247656385555</v>
+        <v>25.36885783307682</v>
       </c>
       <c r="C176" t="n">
-        <v>-0.03139910449404121</v>
+        <v>-34.47031236857676</v>
       </c>
       <c r="D176" t="n">
-        <v>0.009817254222880337</v>
+        <v>10.20639261525154</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>298.2330687046051</v>
+        <v>298.3367254734039</v>
       </c>
       <c r="B177" t="n">
-        <v>0.02572687194972209</v>
+        <v>26.26585312958207</v>
       </c>
       <c r="C177" t="n">
-        <v>-0.03074920597745015</v>
+        <v>-33.85036428075416</v>
       </c>
       <c r="D177" t="n">
-        <v>0.02563158761433734</v>
+        <v>25.93361099440514</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>300.6354939937592</v>
+        <v>300.7280669212341</v>
       </c>
       <c r="B178" t="n">
-        <v>0.02304514769488355</v>
+        <v>23.85020413274272</v>
       </c>
       <c r="C178" t="n">
-        <v>-0.01731084325206561</v>
+        <v>-20.05223569886202</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.02191050248867917</v>
+        <v>-21.55273707346512</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>302.0653939247131</v>
+        <v>302.1600177288055</v>
       </c>
       <c r="B179" t="n">
-        <v>0.02408263334767546</v>
+        <v>24.47803714328266</v>
       </c>
       <c r="C179" t="n">
-        <v>-0.01667696830525327</v>
+        <v>-19.45625966382492</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.005897448726661595</v>
+        <v>-5.697508753276956</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>303.4968852996826</v>
+        <v>303.5890746116638</v>
       </c>
       <c r="B180" t="n">
-        <v>0.02464115063751847</v>
+        <v>25.41861457683466</v>
       </c>
       <c r="C180" t="n">
-        <v>-0.01610729460348756</v>
+        <v>-18.86192661122352</v>
       </c>
       <c r="D180" t="n">
-        <v>0.009906369095143754</v>
+        <v>10.23120384594955</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>304.927166223526</v>
+        <v>305.0188958644867</v>
       </c>
       <c r="B181" t="n">
-        <v>0.02561039353942026</v>
+        <v>26.23572890816196</v>
       </c>
       <c r="C181" t="n">
-        <v>-0.01523389726325253</v>
+        <v>-18.39526342469616</v>
       </c>
       <c r="D181" t="n">
-        <v>0.02540734361335563</v>
+        <v>25.9459171947165</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>307.3279318809509</v>
+        <v>307.4217617511749</v>
       </c>
       <c r="B182" t="n">
-        <v>0.02323996614591591</v>
+        <v>23.99084934869734</v>
       </c>
       <c r="C182" t="n">
-        <v>-0.001823004270872092</v>
+        <v>-4.560083698965392</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.02185660366780702</v>
+        <v>-21.78152938383157</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>308.7571427822113</v>
+        <v>308.8508048057556</v>
       </c>
       <c r="B183" t="n">
-        <v>0.02405331573016154</v>
+        <v>24.93628352598247</v>
       </c>
       <c r="C183" t="n">
-        <v>-0.001248823366655688</v>
+        <v>-4.249529010436875</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.006157428189195441</v>
+        <v>-5.659905276099091</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>310.1864697933197</v>
+        <v>310.278883934021</v>
       </c>
       <c r="B184" t="n">
-        <v>0.0249809577383158</v>
+        <v>25.84975983924697</v>
       </c>
       <c r="C184" t="n">
-        <v>-0.0007937480397299246</v>
+        <v>-3.609680398130866</v>
       </c>
       <c r="D184" t="n">
-        <v>0.009778548678113418</v>
+        <v>10.13340707315746</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>311.6194653511047</v>
+        <v>311.7118124961853</v>
       </c>
       <c r="B185" t="n">
-        <v>0.0256039534036466</v>
+        <v>26.24723045486594</v>
       </c>
       <c r="C185" t="n">
-        <v>-0.0004196617696132221</v>
+        <v>-3.251629027357344</v>
       </c>
       <c r="D185" t="n">
-        <v>0.02530039616142907</v>
+        <v>25.90698283862392</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>314.0193083286285</v>
+        <v>314.1135177612305</v>
       </c>
       <c r="B186" t="n">
-        <v>0.02316170524297214</v>
+        <v>23.97913740599777</v>
       </c>
       <c r="C186" t="n">
-        <v>0.01371478280220563</v>
+        <v>10.8524234593193</v>
       </c>
       <c r="D186" t="n">
-        <v>-0.02212913742186467</v>
+        <v>-21.9606134065391</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>315.4532201290131</v>
+        <v>315.5441956520081</v>
       </c>
       <c r="B187" t="n">
-        <v>0.02415206294571303</v>
+        <v>25.1407201165647</v>
       </c>
       <c r="C187" t="n">
-        <v>0.01412491306945451</v>
+        <v>11.06919909881067</v>
       </c>
       <c r="D187" t="n">
-        <v>-0.006074886495643543</v>
+        <v>-5.734920746853238</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>316.8831470012665</v>
+        <v>316.9765651226044</v>
       </c>
       <c r="B188" t="n">
-        <v>0.0250622507957622</v>
+        <v>25.81669912242824</v>
       </c>
       <c r="C188" t="n">
-        <v>0.0144822741860943</v>
+        <v>11.59975143325125</v>
       </c>
       <c r="D188" t="n">
-        <v>0.009628336877795693</v>
+        <v>10.02037440347905</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>318.3167216777802</v>
+        <v>318.4089932441711</v>
       </c>
       <c r="B189" t="n">
-        <v>0.02547866650985564</v>
+        <v>26.41178825767781</v>
       </c>
       <c r="C189" t="n">
-        <v>0.0151554764989052</v>
+        <v>11.89421111828498</v>
       </c>
       <c r="D189" t="n">
-        <v>0.02541833601420413</v>
+        <v>25.73355583433563</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>320.7166728973389</v>
+        <v>320.8120543956757</v>
       </c>
       <c r="B190" t="n">
-        <v>0.02342936033800636</v>
+        <v>24.11317784620211</v>
       </c>
       <c r="C190" t="n">
-        <v>0.02848667178338693</v>
+        <v>25.88690639234457</v>
       </c>
       <c r="D190" t="n">
-        <v>-0.02198942958022797</v>
+        <v>-21.7817082375743</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>322.1461083889008</v>
+        <v>322.2420330047607</v>
       </c>
       <c r="B191" t="n">
-        <v>0.02419237573222493</v>
+        <v>25.08797541440011</v>
       </c>
       <c r="C191" t="n">
-        <v>0.02915720862992131</v>
+        <v>26.35729193354157</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.005896985907243367</v>
+        <v>-5.687923046148899</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>323.5766551494598</v>
+        <v>323.6703929901123</v>
       </c>
       <c r="B192" t="n">
-        <v>0.02508506398613055</v>
+        <v>25.9582890882133</v>
       </c>
       <c r="C192" t="n">
-        <v>0.02940197314850282</v>
+        <v>26.79297018524266</v>
       </c>
       <c r="D192" t="n">
-        <v>0.009564183375530192</v>
+        <v>10.09977947022077</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>325.0074632167816</v>
+        <v>325.1012964248657</v>
       </c>
       <c r="B193" t="n">
-        <v>0.02569258280061257</v>
+        <v>26.27514298813904</v>
       </c>
       <c r="C193" t="n">
-        <v>0.02998153742116116</v>
+        <v>27.04041507820693</v>
       </c>
       <c r="D193" t="n">
-        <v>0.02541191582714804</v>
+        <v>25.92044922060491</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>327.4065372943878</v>
+        <v>327.5020198822021</v>
       </c>
       <c r="B194" t="n">
-        <v>0.02328113225429989</v>
+        <v>24.28402617541113</v>
       </c>
       <c r="C194" t="n">
-        <v>0.04394098331816608</v>
+        <v>40.90963342148788</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.02207262121661898</v>
+        <v>-21.46357094165705</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>328.8353614807129</v>
+        <v>328.9323995113373</v>
       </c>
       <c r="B195" t="n">
-        <v>0.02403938915569891</v>
+        <v>25.27548658205259</v>
       </c>
       <c r="C195" t="n">
-        <v>0.04457209492988187</v>
+        <v>41.62127901938323</v>
       </c>
       <c r="D195" t="n">
-        <v>-0.005995629988686728</v>
+        <v>-5.652803035812749</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>330.2635877132416</v>
+        <v>330.361900806427</v>
       </c>
       <c r="B196" t="n">
-        <v>0.02497659282093568</v>
+        <v>26.1455361871367</v>
       </c>
       <c r="C196" t="n">
-        <v>0.04506947996408904</v>
+        <v>41.94740219244949</v>
       </c>
       <c r="D196" t="n">
-        <v>0.009798974689486668</v>
+        <v>9.933023328302783</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>331.6950125694275</v>
+        <v>331.7938804626465</v>
       </c>
       <c r="B197" t="n">
-        <v>0.02580322838945871</v>
+        <v>26.45793485653458</v>
       </c>
       <c r="C197" t="n">
-        <v>0.04551181321532707</v>
+        <v>42.3327652891257</v>
       </c>
       <c r="D197" t="n">
-        <v>0.02536331581605142</v>
+        <v>25.78141184024507</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>335.1256473064423</v>
+        <v>335.2228009700775</v>
       </c>
       <c r="B198" t="n">
-        <v>0.03787498748310568</v>
+        <v>38.54531802108838</v>
       </c>
       <c r="C198" t="n">
-        <v>-0.04849736291901571</v>
+        <v>-51.28178840301955</v>
       </c>
       <c r="D198" t="n">
-        <v>-0.02178020191168487</v>
+        <v>-21.53711672107649</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>336.5561001300812</v>
+        <v>336.6542546749115</v>
       </c>
       <c r="B199" t="n">
-        <v>0.03905044676992085</v>
+        <v>39.45897705352589</v>
       </c>
       <c r="C199" t="n">
-        <v>-0.04744481479449841</v>
+        <v>-50.21415337850608</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.006067048513370832</v>
+        <v>-5.709880697243604</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>337.9876613616943</v>
+        <v>338.0846824645996</v>
       </c>
       <c r="B200" t="n">
-        <v>0.04012080774462696</v>
+        <v>40.68256837801805</v>
       </c>
       <c r="C200" t="n">
-        <v>-0.04647167066594449</v>
+        <v>-49.2059758437207</v>
       </c>
       <c r="D200" t="n">
-        <v>0.009386410428405248</v>
+        <v>9.740169973573872</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>339.4205582141876</v>
+        <v>339.5128724575043</v>
       </c>
       <c r="B201" t="n">
-        <v>0.04124973624493045</v>
+        <v>41.87903772198432</v>
       </c>
       <c r="C201" t="n">
-        <v>-0.04559212650004763</v>
+        <v>-48.34642309563296</v>
       </c>
       <c r="D201" t="n">
-        <v>0.02500212789798199</v>
+        <v>25.40973928382838</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>341.8206884860992</v>
+        <v>341.9046685695648</v>
       </c>
       <c r="B202" t="n">
-        <v>0.0385444907098238</v>
+        <v>39.02628708728728</v>
       </c>
       <c r="C202" t="n">
-        <v>-0.03248729219630167</v>
+        <v>-34.97007887938449</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.02242086521955028</v>
+        <v>-22.00070940138056</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>343.2498106956482</v>
+        <v>343.3348915576935</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0394569529771677</v>
+        <v>40.16562963791768</v>
       </c>
       <c r="C203" t="n">
-        <v>-0.03160971911221581</v>
+        <v>-34.54425989695795</v>
       </c>
       <c r="D203" t="n">
-        <v>-0.006346892812225701</v>
+        <v>-6.047307049942066</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>344.6801996231079</v>
+        <v>344.7651751041412</v>
       </c>
       <c r="B204" t="n">
-        <v>0.04021684790692176</v>
+        <v>41.28111691362227</v>
       </c>
       <c r="C204" t="n">
-        <v>-0.03087712086113228</v>
+        <v>-33.72357443545732</v>
       </c>
       <c r="D204" t="n">
-        <v>0.00929862035406942</v>
+        <v>9.584819282958318</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>346.1109738349915</v>
+        <v>346.1967470645905</v>
       </c>
       <c r="B205" t="n">
-        <v>0.04127557771388871</v>
+        <v>41.83145583979566</v>
       </c>
       <c r="C205" t="n">
-        <v>-0.03020977419079744</v>
+        <v>-33.18146787217336</v>
       </c>
       <c r="D205" t="n">
-        <v>0.02503408347995969</v>
+        <v>25.29962136140127</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>348.5135536193848</v>
+        <v>348.5959331989288</v>
       </c>
       <c r="B206" t="n">
-        <v>0.03843809330013256</v>
+        <v>39.39038882252026</v>
       </c>
       <c r="C206" t="n">
-        <v>-0.01699992453519314</v>
+        <v>-19.78193307692754</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.02234109141913463</v>
+        <v>-22.04556349528494</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>349.9469709396362</v>
+        <v>350.0237655639648</v>
       </c>
       <c r="B207" t="n">
-        <v>0.03944204275685016</v>
+        <v>40.33458322382427</v>
       </c>
       <c r="C207" t="n">
-        <v>-0.01623942077512057</v>
+        <v>-19.2030665689098</v>
       </c>
       <c r="D207" t="n">
-        <v>-0.006427077261807245</v>
+        <v>-6.117318739259876</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>351.376357793808</v>
+        <v>351.4528357982635</v>
       </c>
       <c r="B208" t="n">
-        <v>0.04030141603955627</v>
+        <v>41.15333505862736</v>
       </c>
       <c r="C208" t="n">
-        <v>-0.01562368398420133</v>
+        <v>-18.59256842242475</v>
       </c>
       <c r="D208" t="n">
-        <v>0.009178519917999103</v>
+        <v>9.688344490185598</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>352.8077418804169</v>
+        <v>352.8833229541779</v>
       </c>
       <c r="B209" t="n">
-        <v>0.04162408581525717</v>
+        <v>41.80536374559735</v>
       </c>
       <c r="C209" t="n">
-        <v>-0.0149201234675696</v>
+        <v>-18.14742497371371</v>
       </c>
       <c r="D209" t="n">
-        <v>0.02480928898717131</v>
+        <v>25.19684641549946</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>355.2064361572266</v>
+        <v>355.2832372188568</v>
       </c>
       <c r="B210" t="n">
-        <v>0.03864380537985024</v>
+        <v>39.56459957090753</v>
       </c>
       <c r="C210" t="n">
-        <v>-0.001828641780337897</v>
+        <v>-4.6646030515764</v>
       </c>
       <c r="D210" t="n">
-        <v>-0.02246855736035529</v>
+        <v>-22.16422204349862</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>356.6366362571716</v>
+        <v>356.7135434150696</v>
       </c>
       <c r="B211" t="n">
-        <v>0.03957645679208057</v>
+        <v>40.24472615910964</v>
       </c>
       <c r="C211" t="n">
-        <v>-0.001199812256790583</v>
+        <v>-4.092717821474731</v>
       </c>
       <c r="D211" t="n">
-        <v>-0.006500636870172004</v>
+        <v>-6.105109824815842</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>358.0646507740021</v>
+        <v>358.1484909057617</v>
       </c>
       <c r="B212" t="n">
-        <v>0.04057264964259594</v>
+        <v>41.19516416489157</v>
       </c>
       <c r="C212" t="n">
-        <v>-0.000702741332652107</v>
+        <v>-3.597796756704852</v>
       </c>
       <c r="D212" t="n">
-        <v>0.009221633159622239</v>
+        <v>9.50326134913217</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>359.4965045452118</v>
+        <v>359.5774688720703</v>
       </c>
       <c r="B213" t="n">
-        <v>0.04101575442296491</v>
+        <v>42.01847919925087</v>
       </c>
       <c r="C213" t="n">
-        <v>-0.000320624336369757</v>
+        <v>-3.236533831520338</v>
       </c>
       <c r="D213" t="n">
-        <v>0.02482520183631776</v>
+        <v>25.11416823454779</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>361.8998486995697</v>
+        <v>361.9779508113861</v>
       </c>
       <c r="B214" t="n">
-        <v>0.03843060899985488</v>
+        <v>39.69517238589335</v>
       </c>
       <c r="C214" t="n">
-        <v>0.01368459020810323</v>
+        <v>10.71101529817642</v>
       </c>
       <c r="D214" t="n">
-        <v>-0.02267124850130637</v>
+        <v>-22.248859138916</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>363.317702293396</v>
+        <v>363.4081184864044</v>
       </c>
       <c r="B215" t="n">
-        <v>0.03951154932318932</v>
+        <v>40.67913097151863</v>
       </c>
       <c r="C215" t="n">
-        <v>0.01414890142454461</v>
+        <v>10.83546307624</v>
       </c>
       <c r="D215" t="n">
-        <v>-0.006619639462486807</v>
+        <v>-6.277185973161664</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>364.7491888999939</v>
+        <v>364.8365247249603</v>
       </c>
       <c r="B216" t="n">
-        <v>0.04046989698791241</v>
+        <v>41.21722297101283</v>
       </c>
       <c r="C216" t="n">
-        <v>0.01452338742112348</v>
+        <v>11.56213755712768</v>
       </c>
       <c r="D216" t="n">
-        <v>0.009170416393604761</v>
+        <v>9.669911070947107</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>366.1807119846344</v>
+        <v>366.2706620693207</v>
       </c>
       <c r="B217" t="n">
-        <v>0.04137344470164748</v>
+        <v>42.00316085154008</v>
       </c>
       <c r="C217" t="n">
-        <v>0.01511726933307331</v>
+        <v>11.81046809654873</v>
       </c>
       <c r="D217" t="n">
-        <v>0.02468931890561172</v>
+        <v>25.14970571762868</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>368.5858807563782</v>
+        <v>368.660210609436</v>
       </c>
       <c r="B218" t="n">
-        <v>0.03880459403470332</v>
+        <v>39.74510002626597</v>
       </c>
       <c r="C218" t="n">
-        <v>0.02846983362189603</v>
+        <v>25.56817500510357</v>
       </c>
       <c r="D218" t="n">
-        <v>-0.02246160403594138</v>
+        <v>-22.09527712859739</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>370.0163662433624</v>
+        <v>370.0918350219727</v>
       </c>
       <c r="B219" t="n">
-        <v>0.03986237540096535</v>
+        <v>40.7885335950378</v>
       </c>
       <c r="C219" t="n">
-        <v>0.02894825757621407</v>
+        <v>26.05738866073143</v>
       </c>
       <c r="D219" t="n">
-        <v>-0.006652983083628161</v>
+        <v>-6.318863654360491</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>371.4455020427704</v>
+        <v>371.5225343704224</v>
       </c>
       <c r="B220" t="n">
-        <v>0.04034255389796008</v>
+        <v>41.72991766610041</v>
       </c>
       <c r="C220" t="n">
-        <v>0.02944844300907058</v>
+        <v>26.62899404372125</v>
       </c>
       <c r="D220" t="n">
-        <v>0.009020025097801464</v>
+        <v>9.423521156129171</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>372.8766899108887</v>
+        <v>372.9517886638641</v>
       </c>
       <c r="B221" t="n">
-        <v>0.04122852145618677</v>
+        <v>42.04483562839022</v>
       </c>
       <c r="C221" t="n">
-        <v>0.0299382826777648</v>
+        <v>26.86457378953233</v>
       </c>
       <c r="D221" t="n">
-        <v>0.02469696328140671</v>
+        <v>25.08953814785971</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>375.2767367362976</v>
+        <v>375.3550353050232</v>
       </c>
       <c r="B222" t="n">
-        <v>0.0388851844722318</v>
+        <v>39.96767770470797</v>
       </c>
       <c r="C222" t="n">
-        <v>0.04354290998485155</v>
+        <v>40.70815353473981</v>
       </c>
       <c r="D222" t="n">
-        <v>-0.02250835183816867</v>
+        <v>-22.24752232505431</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>376.7047426700592</v>
+        <v>376.7867112159729</v>
       </c>
       <c r="B223" t="n">
-        <v>0.03995187933636282</v>
+        <v>41.01147888066663</v>
       </c>
       <c r="C223" t="n">
-        <v>0.04408231949702526</v>
+        <v>41.22934454691104</v>
       </c>
       <c r="D223" t="n">
-        <v>-0.006640353572662085</v>
+        <v>-6.254150143140236</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>378.1340410709381</v>
+        <v>378.2173249721527</v>
       </c>
       <c r="B224" t="n">
-        <v>0.04042344667747784</v>
+        <v>41.40560819010486</v>
       </c>
       <c r="C224" t="n">
-        <v>0.04466914247485596</v>
+        <v>41.50173783629532</v>
       </c>
       <c r="D224" t="n">
-        <v>0.009015714638836266</v>
+        <v>9.341303417656912</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>379.564813375473</v>
+        <v>379.648193359375</v>
       </c>
       <c r="B225" t="n">
-        <v>0.04133514848182838</v>
+        <v>42.18838222183253</v>
       </c>
       <c r="C225" t="n">
-        <v>0.0453669947875372</v>
+        <v>41.87620733243788</v>
       </c>
       <c r="D225" t="n">
-        <v>0.02462917709964087</v>
+        <v>25.17236963459845</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>382.9966042041779</v>
+        <v>383.0774221420288</v>
       </c>
       <c r="B226" t="n">
-        <v>0.05273874236028397</v>
+        <v>53.21240176933453</v>
       </c>
       <c r="C226" t="n">
-        <v>-0.04796347650460056</v>
+        <v>-51.07082000440293</v>
       </c>
       <c r="D226" t="n">
-        <v>-0.02258485363495084</v>
+        <v>-22.32110310903085</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>384.4322166442871</v>
+        <v>384.5113353729248</v>
       </c>
       <c r="B227" t="n">
-        <v>0.05454923034401846</v>
+        <v>55.61775322284976</v>
       </c>
       <c r="C227" t="n">
-        <v>-0.04669308714130534</v>
+        <v>-49.095242339757</v>
       </c>
       <c r="D227" t="n">
-        <v>-0.006809479873366418</v>
+        <v>-6.44873699310063</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>385.8622560501099</v>
+        <v>385.9423973560333</v>
       </c>
       <c r="B228" t="n">
-        <v>0.05612002974996625</v>
+        <v>57.11433724447312</v>
       </c>
       <c r="C228" t="n">
-        <v>-0.04529214856887154</v>
+        <v>-47.86648049742785</v>
       </c>
       <c r="D228" t="n">
-        <v>0.008833831607869767</v>
+        <v>9.169129216353136</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>387.2934174537659</v>
+        <v>387.371880531311</v>
       </c>
       <c r="B229" t="n">
-        <v>0.05733080421307881</v>
+        <v>57.76404227549553</v>
       </c>
       <c r="C229" t="n">
-        <v>-0.0442481458348659</v>
+        <v>-47.44022820087159</v>
       </c>
       <c r="D229" t="n">
-        <v>0.02445766484317152</v>
+        <v>24.81725017763505</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>389.6955499649048</v>
+        <v>389.7735302448273</v>
       </c>
       <c r="B230" t="n">
-        <v>0.05343966973876079</v>
+        <v>53.84726836890316</v>
       </c>
       <c r="C230" t="n">
-        <v>-0.03186665373793268</v>
+        <v>-34.98863907208442</v>
       </c>
       <c r="D230" t="n">
-        <v>-0.02283782906637127</v>
+        <v>-22.60260194166322</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>391.1270866394043</v>
+        <v>391.2047688961029</v>
       </c>
       <c r="B231" t="n">
-        <v>0.05527049728743134</v>
+        <v>55.65749254769092</v>
       </c>
       <c r="C231" t="n">
-        <v>-0.0309540101169315</v>
+        <v>-34.06387759471308</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.006853084936707937</v>
+        <v>-6.544909917423371</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>392.5560858249664</v>
+        <v>392.6356332302094</v>
       </c>
       <c r="B232" t="n">
-        <v>0.05618354226940676</v>
+        <v>56.94162869927973</v>
       </c>
       <c r="C232" t="n">
-        <v>-0.03010256058011065</v>
+        <v>-33.1275536095369</v>
       </c>
       <c r="D232" t="n">
-        <v>0.008653166027781522</v>
+        <v>9.0281886936672</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>393.9867725372314</v>
+        <v>394.0662035942078</v>
       </c>
       <c r="B233" t="n">
-        <v>0.05718949218824379</v>
+        <v>57.91609019098242</v>
       </c>
       <c r="C233" t="n">
-        <v>-0.0294414916464521</v>
+        <v>-32.48223759755357</v>
       </c>
       <c r="D233" t="n">
-        <v>0.02434883525223654</v>
+        <v>24.47001993673839</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>396.3874568939209</v>
+        <v>396.4647400379181</v>
       </c>
       <c r="B234" t="n">
-        <v>0.053843147709289</v>
+        <v>54.51937355064773</v>
       </c>
       <c r="C234" t="n">
-        <v>-0.01678751210207347</v>
+        <v>-19.6443767929637</v>
       </c>
       <c r="D234" t="n">
-        <v>-0.02295336854083205</v>
+        <v>-22.66574056229456</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>397.8170554637909</v>
+        <v>397.8951690196991</v>
       </c>
       <c r="B235" t="n">
-        <v>0.0552187981767579</v>
+        <v>55.91547894096794</v>
       </c>
       <c r="C235" t="n">
-        <v>-0.01590178902943359</v>
+        <v>-18.71493939859666</v>
       </c>
       <c r="D235" t="n">
-        <v>-0.007094701053727896</v>
+        <v>-6.618743725867986</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>399.2467865943909</v>
+        <v>399.3282446861267</v>
       </c>
       <c r="B236" t="n">
-        <v>0.05638144154460709</v>
+        <v>57.04023922567368</v>
       </c>
       <c r="C236" t="n">
-        <v>-0.01519238121409876</v>
+        <v>-18.02028787587014</v>
       </c>
       <c r="D236" t="n">
-        <v>0.008652007880510943</v>
+        <v>8.941317140460871</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>400.6764569282532</v>
+        <v>400.7589907646179</v>
       </c>
       <c r="B237" t="n">
-        <v>0.0574244397237383</v>
+        <v>57.90089907468576</v>
       </c>
       <c r="C237" t="n">
-        <v>-0.01425482972274088</v>
+        <v>-17.55565176215168</v>
       </c>
       <c r="D237" t="n">
-        <v>0.02416753666894317</v>
+        <v>24.43581876235109</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>403.0797548294067</v>
+        <v>403.1597537994385</v>
       </c>
       <c r="B238" t="n">
-        <v>0.05432406675882391</v>
+        <v>55.16639569458356</v>
       </c>
       <c r="C238" t="n">
-        <v>-0.001548669390935592</v>
+        <v>-4.468723607129077</v>
       </c>
       <c r="D238" t="n">
-        <v>-0.02290917440427824</v>
+        <v>-22.62228953823289</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>404.5112693309784</v>
+        <v>404.5910978317261</v>
       </c>
       <c r="B239" t="n">
-        <v>0.0553880137678829</v>
+        <v>56.03506363933548</v>
       </c>
       <c r="C239" t="n">
-        <v>-0.0008478008255081021</v>
+        <v>-3.740524787530231</v>
       </c>
       <c r="D239" t="n">
-        <v>-0.007088889937933862</v>
+        <v>-6.771604789965287</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>405.9449279308319</v>
+        <v>406.0110688209534</v>
       </c>
       <c r="B240" t="n">
-        <v>0.05623552844598911</v>
+        <v>57.0592774161979</v>
       </c>
       <c r="C240" t="n">
-        <v>-0.000325971256243951</v>
+        <v>-3.221122461657261</v>
       </c>
       <c r="D240" t="n">
-        <v>0.008478885246963819</v>
+        <v>8.840672010392424</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>407.3750100135803</v>
+        <v>407.4421744346619</v>
       </c>
       <c r="B241" t="n">
-        <v>0.0568565527455621</v>
+        <v>57.89214991727201</v>
       </c>
       <c r="C241" t="n">
-        <v>2.328404951136565e-05</v>
+        <v>-2.869842964477148</v>
       </c>
       <c r="D241" t="n">
-        <v>0.02400950450282352</v>
+        <v>24.34448799953971</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>409.775869846344</v>
+        <v>409.847053527832</v>
       </c>
       <c r="B242" t="n">
-        <v>0.0541894204221174</v>
+        <v>55.14035493619804</v>
       </c>
       <c r="C242" t="n">
-        <v>0.0137205395011667</v>
+        <v>10.62681153565276</v>
       </c>
       <c r="D242" t="n">
-        <v>-0.02295691381169361</v>
+        <v>-22.72717015752816</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>411.2053999900818</v>
+        <v>411.275673866272</v>
       </c>
       <c r="B243" t="n">
-        <v>0.05528831098143988</v>
+        <v>56.25329022429511</v>
       </c>
       <c r="C243" t="n">
-        <v>0.01404048433703163</v>
+        <v>10.8940817356851</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.007099356852189836</v>
+        <v>-6.866463136010946</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>412.6383745670319</v>
+        <v>412.706357717514</v>
       </c>
       <c r="B244" t="n">
-        <v>0.05631848191094496</v>
+        <v>56.87427774392052</v>
       </c>
       <c r="C244" t="n">
-        <v>0.01455398340760046</v>
+        <v>11.59857691916993</v>
       </c>
       <c r="D244" t="n">
-        <v>0.008404972028244381</v>
+        <v>8.775630254017598</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>414.0691783428192</v>
+        <v>414.136789560318</v>
       </c>
       <c r="B245" t="n">
-        <v>0.05723355550605368</v>
+        <v>57.86386908902945</v>
       </c>
       <c r="C245" t="n">
-        <v>0.01509530861059126</v>
+        <v>11.8173025138142</v>
       </c>
       <c r="D245" t="n">
-        <v>0.02399738130296942</v>
+        <v>24.35023848370877</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>416.4698252677917</v>
+        <v>416.5416812896729</v>
       </c>
       <c r="B246" t="n">
-        <v>0.05416135844135032</v>
+        <v>55.33471258352222</v>
       </c>
       <c r="C246" t="n">
-        <v>0.02841392695745296</v>
+        <v>25.28858489725899</v>
       </c>
       <c r="D246" t="n">
-        <v>-0.02312161609954836</v>
+        <v>-22.52044552313579</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>417.9034287929535</v>
+        <v>417.9715187549591</v>
       </c>
       <c r="B247" t="n">
-        <v>0.05530339405280363</v>
+        <v>56.52664165303941</v>
       </c>
       <c r="C247" t="n">
-        <v>0.02889832699453128</v>
+        <v>26.07124649273976</v>
       </c>
       <c r="D247" t="n">
-        <v>-0.007186883892588048</v>
+        <v>-6.804197273542489</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>419.333571434021</v>
+        <v>419.400759935379</v>
       </c>
       <c r="B248" t="n">
-        <v>0.05588038867967898</v>
+        <v>56.98322558626082</v>
       </c>
       <c r="C248" t="n">
-        <v>0.02952533333008234</v>
+        <v>26.40006278736523</v>
       </c>
       <c r="D248" t="n">
-        <v>0.00829398829877102</v>
+        <v>8.748753807273202</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>420.7667503356934</v>
+        <v>420.8288888931274</v>
       </c>
       <c r="B249" t="n">
-        <v>0.05666113954732026</v>
+        <v>57.82368026367337</v>
       </c>
       <c r="C249" t="n">
-        <v>0.02967800467260574</v>
+        <v>26.81535714704045</v>
       </c>
       <c r="D249" t="n">
-        <v>0.02395266353680952</v>
+        <v>24.27981042264402</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>423.1681411266327</v>
+        <v>423.2292420864105</v>
       </c>
       <c r="B250" t="n">
-        <v>0.0545506764972938</v>
+        <v>55.56139408725219</v>
       </c>
       <c r="C250" t="n">
-        <v>0.04363413614109853</v>
+        <v>40.2572722553709</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.0229395570163944</v>
+        <v>-22.65291295743783</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>424.5987269878387</v>
+        <v>424.6610546112061</v>
       </c>
       <c r="B251" t="n">
-        <v>0.05542004413485245</v>
+        <v>56.67459712995299</v>
       </c>
       <c r="C251" t="n">
-        <v>0.04418444538080649</v>
+        <v>40.76815255472674</v>
       </c>
       <c r="D251" t="n">
-        <v>-0.007269452273040507</v>
+        <v>-6.897071820132076</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>426.0280473232269</v>
+        <v>426.0808992385864</v>
       </c>
       <c r="B252" t="n">
-        <v>0.05642400228420031</v>
+        <v>57.115265970569</v>
       </c>
       <c r="C252" t="n">
-        <v>0.04458174855917584</v>
+        <v>41.17916015774123</v>
       </c>
       <c r="D252" t="n">
-        <v>0.008365268874077784</v>
+        <v>8.871251785087255</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>427.4569840431213</v>
+        <v>427.5108556747437</v>
       </c>
       <c r="B253" t="n">
-        <v>0.0573081670147994</v>
+        <v>57.93487008857624</v>
       </c>
       <c r="C253" t="n">
-        <v>0.04504437882771824</v>
+        <v>41.4912905950243</v>
       </c>
       <c r="D253" t="n">
-        <v>0.0237784226787992</v>
+        <v>24.21571451967471</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>430.8936846256256</v>
+        <v>430.9417750835419</v>
       </c>
       <c r="B254" t="n">
-        <v>0.06938997547088065</v>
+        <v>69.55694957155974</v>
       </c>
       <c r="C254" t="n">
-        <v>-0.04702676798211333</v>
+        <v>-50.10718248131086</v>
       </c>
       <c r="D254" t="n">
-        <v>-0.02293568607388482</v>
+        <v>-22.75949787027188</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>432.3254897594452</v>
+        <v>432.3720347881317</v>
       </c>
       <c r="B255" t="n">
-        <v>0.07170905040273294</v>
+        <v>71.91376924871231</v>
       </c>
       <c r="C255" t="n">
-        <v>-0.0451126912102392</v>
+        <v>-48.13876536085385</v>
       </c>
       <c r="D255" t="n">
-        <v>-0.007406869077742286</v>
+        <v>-6.968846074331179</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>433.7584822177887</v>
+        <v>433.8083693981171</v>
       </c>
       <c r="B256" t="n">
-        <v>0.0723844289233796</v>
+        <v>73.40215950559457</v>
       </c>
       <c r="C256" t="n">
-        <v>-0.04403131238453087</v>
+        <v>-46.74520504163368</v>
       </c>
       <c r="D256" t="n">
-        <v>0.00794414463352445</v>
+        <v>8.343686498446161</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>435.1889405250549</v>
+        <v>435.2366480827332</v>
       </c>
       <c r="B257" t="n">
-        <v>0.07374055343861606</v>
+        <v>74.47395729141556</v>
       </c>
       <c r="C257" t="n">
-        <v>-0.04281228268048237</v>
+        <v>-46.03244726551041</v>
       </c>
       <c r="D257" t="n">
-        <v>0.02369178310328312</v>
+        <v>23.97949465889932</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>437.5876905918121</v>
+        <v>437.6390740871429</v>
       </c>
       <c r="B258" t="n">
-        <v>0.0693148759512706</v>
+        <v>70.39966840198939</v>
       </c>
       <c r="C258" t="n">
-        <v>-0.03134276069946576</v>
+        <v>-34.05536467927005</v>
       </c>
       <c r="D258" t="n">
-        <v>-0.02310659909924898</v>
+        <v>-22.8707635099239</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>439.0170624256134</v>
+        <v>439.0695095062256</v>
       </c>
       <c r="B259" t="n">
-        <v>0.07132661493980656</v>
+        <v>72.09723961661092</v>
       </c>
       <c r="C259" t="n">
-        <v>-0.02998083112384706</v>
+        <v>-33.16512710725275</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.007455065395265865</v>
+        <v>-7.212920556462785</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>440.4469339847565</v>
+        <v>440.4987938404083</v>
       </c>
       <c r="B260" t="n">
-        <v>0.07237390038606348</v>
+        <v>73.63072655736974</v>
       </c>
       <c r="C260" t="n">
-        <v>-0.02914964811763832</v>
+        <v>-32.0536813684842</v>
       </c>
       <c r="D260" t="n">
-        <v>0.007895629511935063</v>
+        <v>8.317000869870855</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>441.8759515285492</v>
+        <v>441.9298210144043</v>
       </c>
       <c r="B261" t="n">
-        <v>0.07348858683301311</v>
+        <v>74.17716083002732</v>
       </c>
       <c r="C261" t="n">
-        <v>-0.02842576055789957</v>
+        <v>-31.545251213355</v>
       </c>
       <c r="D261" t="n">
-        <v>0.02360666799047651</v>
+        <v>23.91797133015768</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>444.2771043777466</v>
+        <v>444.3300678730011</v>
       </c>
       <c r="B262" t="n">
-        <v>0.0697743446198863</v>
+        <v>70.54203833181535</v>
       </c>
       <c r="C262" t="n">
-        <v>-0.01627971991743352</v>
+        <v>-19.21064094298851</v>
       </c>
       <c r="D262" t="n">
-        <v>-0.02299464821641622</v>
+        <v>-22.84670196859608</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>445.7066829204559</v>
+        <v>445.7621254920959</v>
       </c>
       <c r="B263" t="n">
-        <v>0.07095085618525496</v>
+        <v>72.11953310649105</v>
       </c>
       <c r="C263" t="n">
-        <v>-0.01531440226871589</v>
+        <v>-18.27230175654282</v>
       </c>
       <c r="D263" t="n">
-        <v>-0.007616604980571755</v>
+        <v>-7.217051100904359</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>447.1360421180725</v>
+        <v>447.1913542747498</v>
       </c>
       <c r="B264" t="n">
-        <v>0.07265562009669529</v>
+        <v>73.39693557829479</v>
       </c>
       <c r="C264" t="n">
-        <v>-0.01448300906276707</v>
+        <v>-17.47950365385165</v>
       </c>
       <c r="D264" t="n">
-        <v>0.007914893200784489</v>
+        <v>8.159017119135695</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>448.5674102306366</v>
+        <v>448.6208279132843</v>
       </c>
       <c r="B265" t="n">
-        <v>0.07330211996106667</v>
+        <v>74.05278209909631</v>
       </c>
       <c r="C265" t="n">
-        <v>-0.01375971571314977</v>
+        <v>-17.05690408649346</v>
       </c>
       <c r="D265" t="n">
-        <v>0.02328931154892854</v>
+        <v>23.62712593621436</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>450.9669814109802</v>
+        <v>451.0220189094543</v>
       </c>
       <c r="B266" t="n">
-        <v>0.06971050524312369</v>
+        <v>70.51413185416349</v>
       </c>
       <c r="C266" t="n">
-        <v>-0.001053046227211807</v>
+        <v>-4.049600978481852</v>
       </c>
       <c r="D266" t="n">
-        <v>-0.02306330311907973</v>
+        <v>-22.8337410740305</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>452.3970110416412</v>
+        <v>452.4570322036743</v>
       </c>
       <c r="B267" t="n">
-        <v>0.07122274458314638</v>
+        <v>71.77711255802335</v>
       </c>
       <c r="C267" t="n">
-        <v>-0.0005711684060630828</v>
+        <v>-3.665348229345847</v>
       </c>
       <c r="D267" t="n">
-        <v>-0.007609212572906384</v>
+        <v>-7.280427883205078</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>453.8280107975006</v>
+        <v>453.8896284103394</v>
       </c>
       <c r="B268" t="n">
-        <v>0.07237555160023219</v>
+        <v>73.28234644396883</v>
       </c>
       <c r="C268" t="n">
-        <v>-7.429302968681162e-06</v>
+        <v>-2.898393450723194</v>
       </c>
       <c r="D268" t="n">
-        <v>0.007852872034540024</v>
+        <v>8.21441583167911</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>455.2560913562775</v>
+        <v>455.3189377784729</v>
       </c>
       <c r="B269" t="n">
-        <v>0.07278202780728471</v>
+        <v>73.78743465794196</v>
       </c>
       <c r="C269" t="n">
-        <v>0.0003249302942076038</v>
+        <v>-2.524951489357302</v>
       </c>
       <c r="D269" t="n">
-        <v>0.02321692458826064</v>
+        <v>23.6366516287394</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>457.6588022708893</v>
+        <v>457.7204329967499</v>
       </c>
       <c r="B270" t="n">
-        <v>0.0698675583047219</v>
+        <v>70.98312748661958</v>
       </c>
       <c r="C270" t="n">
-        <v>0.01363346863252772</v>
+        <v>10.33850603169795</v>
       </c>
       <c r="D270" t="n">
-        <v>-0.0233458125235042</v>
+        <v>-22.77700981380227</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>459.0887637138367</v>
+        <v>459.1525323390961</v>
       </c>
       <c r="B271" t="n">
-        <v>0.07107259534560438</v>
+        <v>71.84100882596637</v>
       </c>
       <c r="C271" t="n">
-        <v>0.01401021225219866</v>
+        <v>10.95945221248404</v>
       </c>
       <c r="D271" t="n">
-        <v>-0.007557113167563927</v>
+        <v>-7.218301377264003</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>460.5177960395813</v>
+        <v>460.5838577747345</v>
       </c>
       <c r="B272" t="n">
-        <v>0.07215221281217124</v>
+        <v>72.94581507617417</v>
       </c>
       <c r="C272" t="n">
-        <v>0.01452621836148013</v>
+        <v>11.60343435143503</v>
       </c>
       <c r="D272" t="n">
-        <v>0.00781544731726817</v>
+        <v>8.170572359366714</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>461.9499821662903</v>
+        <v>462.0144567489624</v>
       </c>
       <c r="B273" t="n">
-        <v>0.07267576861101525</v>
+        <v>73.71546987760789</v>
       </c>
       <c r="C273" t="n">
-        <v>0.01507501128970379</v>
+        <v>11.81643521008435</v>
       </c>
       <c r="D273" t="n">
-        <v>0.0230949355517536</v>
+        <v>23.51735439130508</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>464.3485445976257</v>
+        <v>464.4168424606323</v>
       </c>
       <c r="B274" t="n">
-        <v>0.06991893241057542</v>
+        <v>70.84191654196285</v>
       </c>
       <c r="C274" t="n">
-        <v>0.02809758449207644</v>
+        <v>24.97961034029091</v>
       </c>
       <c r="D274" t="n">
-        <v>-0.02343068007802519</v>
+        <v>-22.86943697497885</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>465.7787454128265</v>
+        <v>465.8491208553314</v>
       </c>
       <c r="B275" t="n">
-        <v>0.0711219070101044</v>
+        <v>72.09186463741096</v>
       </c>
       <c r="C275" t="n">
-        <v>0.02856106323367896</v>
+        <v>25.53579320264105</v>
       </c>
       <c r="D275" t="n">
-        <v>-0.007792147857150026</v>
+        <v>-7.143789605531842</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>467.2080748081207</v>
+        <v>467.2781491279602</v>
       </c>
       <c r="B276" t="n">
-        <v>0.07197074913523756</v>
+        <v>73.11547453553003</v>
       </c>
       <c r="C276" t="n">
-        <v>0.02911120603271924</v>
+        <v>26.01667203124336</v>
       </c>
       <c r="D276" t="n">
-        <v>0.007862386991775348</v>
+        <v>8.093796284215554</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>468.6403477191925</v>
+        <v>468.7086338996887</v>
       </c>
       <c r="B277" t="n">
-        <v>0.07257590325916105</v>
+        <v>73.46620537931081</v>
       </c>
       <c r="C277" t="n">
-        <v>0.02951920903605922</v>
+        <v>26.45506096005091</v>
       </c>
       <c r="D277" t="n">
-        <v>0.02322207285893689</v>
+        <v>23.7339895530078</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>471.0413439273834</v>
+        <v>471.110672712326</v>
       </c>
       <c r="B278" t="n">
-        <v>0.07001382082970725</v>
+        <v>71.06398526098334</v>
       </c>
       <c r="C278" t="n">
-        <v>0.04305994111477103</v>
+        <v>39.71136014621116</v>
       </c>
       <c r="D278" t="n">
-        <v>-0.02332455142833532</v>
+        <v>-23.09068958187383</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>472.469984292984</v>
+        <v>472.5422341823578</v>
       </c>
       <c r="B279" t="n">
-        <v>0.07111296810075465</v>
+        <v>71.75158779467471</v>
       </c>
       <c r="C279" t="n">
-        <v>0.04324601039044376</v>
+        <v>40.23308394547264</v>
       </c>
       <c r="D279" t="n">
-        <v>-0.007853286763885196</v>
+        <v>-7.201603949423883</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>473.8996274471283</v>
+        <v>473.9748332500458</v>
       </c>
       <c r="B280" t="n">
-        <v>0.07165766213889493</v>
+        <v>72.72262293465467</v>
       </c>
       <c r="C280" t="n">
-        <v>0.04377527624144048</v>
+        <v>40.57471257960196</v>
       </c>
       <c r="D280" t="n">
-        <v>0.007697830240269582</v>
+        <v>8.211198305418829</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>475.3275482654572</v>
+        <v>475.4052166938782</v>
       </c>
       <c r="B281" t="n">
-        <v>0.07246135509675658</v>
+        <v>73.51723309632968</v>
       </c>
       <c r="C281" t="n">
-        <v>0.04402854910658266</v>
+        <v>40.82524951877404</v>
       </c>
       <c r="D281" t="n">
-        <v>0.02306242414918893</v>
+        <v>23.54339207103591</v>
       </c>
     </row>
   </sheetData>
